--- a/data/star_data.xlsx
+++ b/data/star_data.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="849" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="849"/>
   </bookViews>
   <sheets>
     <sheet name="star_01_menu" sheetId="1" r:id="rId1"/>
     <sheet name="star_02_store" sheetId="2" r:id="rId2"/>
     <sheet name="star_03_order_main" sheetId="3" r:id="rId3"/>
     <sheet name="star_04_order_detail" sheetId="4" r:id="rId4"/>
-    <sheet name="Schema" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="star_03_order_main" localSheetId="2">star_03_order_main!#REF!</definedName>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5286" uniqueCount="1957">
   <si>
     <t>order_id</t>
   </si>
@@ -5925,115 +5924,6 @@
   </si>
   <si>
     <t>star_store</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_01_menu</t>
-  </si>
-  <si>
-    <t>star_02_store</t>
-  </si>
-  <si>
-    <t>star_03_order_main</t>
-  </si>
-  <si>
-    <t>變數(欄位名稱)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消費日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>產品編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消費杯數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郵遞區號(三碼)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店電話</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>產品名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>價格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡洛里</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table 表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_04_order_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>變數(欄位名稱)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>容量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>產品名稱_容量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6041,7 +5931,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6064,286 +5954,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -6352,80 +5977,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -7050,7 +6606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7060,7 +6616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -13306,7 +12862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -14187,8 +13743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -14213,7 +13769,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="2">
         <v>42476</v>
       </c>
       <c r="C2" t="s">
@@ -14224,7 +13780,7 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="2">
         <v>42483</v>
       </c>
       <c r="C3" t="s">
@@ -14235,7 +13791,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="2">
         <v>42525</v>
       </c>
       <c r="C4" t="s">
@@ -14246,7 +13802,7 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="2">
         <v>42469</v>
       </c>
       <c r="C5" t="s">
@@ -14257,7 +13813,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="2">
         <v>42518</v>
       </c>
       <c r="C6" t="s">
@@ -14268,7 +13824,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="2">
         <v>42434</v>
       </c>
       <c r="C7" t="s">
@@ -14279,7 +13835,7 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="2">
         <v>42602</v>
       </c>
       <c r="C8" t="s">
@@ -14290,7 +13846,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="2">
         <v>42434</v>
       </c>
       <c r="C9" t="s">
@@ -14301,7 +13857,7 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="2">
         <v>42490</v>
       </c>
       <c r="C10" t="s">
@@ -14312,7 +13868,7 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="2">
         <v>42441</v>
       </c>
       <c r="C11" t="s">
@@ -14323,7 +13879,7 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="2">
         <v>42539</v>
       </c>
       <c r="C12" t="s">
@@ -14334,7 +13890,7 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="2">
         <v>42413</v>
       </c>
       <c r="C13" t="s">
@@ -14345,7 +13901,7 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="2">
         <v>42455</v>
       </c>
       <c r="C14" t="s">
@@ -14356,7 +13912,7 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="2">
         <v>42574</v>
       </c>
       <c r="C15" t="s">
@@ -14367,7 +13923,7 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="2">
         <v>42511</v>
       </c>
       <c r="C16" t="s">
@@ -14378,7 +13934,7 @@
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="2">
         <v>42539</v>
       </c>
       <c r="C17" t="s">
@@ -14389,7 +13945,7 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="2">
         <v>42504</v>
       </c>
       <c r="C18" t="s">
@@ -14400,7 +13956,7 @@
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="2">
         <v>42427</v>
       </c>
       <c r="C19" t="s">
@@ -14411,7 +13967,7 @@
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="2">
         <v>42637</v>
       </c>
       <c r="C20" t="s">
@@ -14422,7 +13978,7 @@
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="2">
         <v>42567</v>
       </c>
       <c r="C21" t="s">
@@ -14433,7 +13989,7 @@
       <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="2">
         <v>42448</v>
       </c>
       <c r="C22" t="s">
@@ -14444,7 +14000,7 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="2">
         <v>42567</v>
       </c>
       <c r="C23" t="s">
@@ -14455,7 +14011,7 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="2">
         <v>42378</v>
       </c>
       <c r="C24" t="s">
@@ -14466,7 +14022,7 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="2">
         <v>42371</v>
       </c>
       <c r="C25" t="s">
@@ -14477,7 +14033,7 @@
       <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="2">
         <v>42378</v>
       </c>
       <c r="C26" t="s">
@@ -14488,7 +14044,7 @@
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="2">
         <v>42553</v>
       </c>
       <c r="C27" t="s">
@@ -14499,7 +14055,7 @@
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="2">
         <v>42539</v>
       </c>
       <c r="C28" t="s">
@@ -14510,7 +14066,7 @@
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="2">
         <v>42630</v>
       </c>
       <c r="C29" t="s">
@@ -14521,7 +14077,7 @@
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="2">
         <v>42532</v>
       </c>
       <c r="C30" t="s">
@@ -14532,7 +14088,7 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="2">
         <v>42539</v>
       </c>
       <c r="C31" t="s">
@@ -14543,7 +14099,7 @@
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="2">
         <v>42469</v>
       </c>
       <c r="C32" t="s">
@@ -14554,7 +14110,7 @@
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="2">
         <v>42546</v>
       </c>
       <c r="C33" t="s">
@@ -14565,7 +14121,7 @@
       <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="2">
         <v>42532</v>
       </c>
       <c r="C34" t="s">
@@ -14576,7 +14132,7 @@
       <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="2">
         <v>42399</v>
       </c>
       <c r="C35" t="s">
@@ -14587,7 +14143,7 @@
       <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="2">
         <v>42623</v>
       </c>
       <c r="C36" t="s">
@@ -14598,7 +14154,7 @@
       <c r="A37" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="2">
         <v>42392</v>
       </c>
       <c r="C37" t="s">
@@ -14609,7 +14165,7 @@
       <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="2">
         <v>42441</v>
       </c>
       <c r="C38" t="s">
@@ -14620,7 +14176,7 @@
       <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="2">
         <v>42637</v>
       </c>
       <c r="C39" t="s">
@@ -14631,7 +14187,7 @@
       <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="2">
         <v>42476</v>
       </c>
       <c r="C40" t="s">
@@ -14642,7 +14198,7 @@
       <c r="A41" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="2">
         <v>42637</v>
       </c>
       <c r="C41" t="s">
@@ -14653,7 +14209,7 @@
       <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="2">
         <v>42609</v>
       </c>
       <c r="C42" t="s">
@@ -14664,7 +14220,7 @@
       <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="2">
         <v>42392</v>
       </c>
       <c r="C43" t="s">
@@ -14675,7 +14231,7 @@
       <c r="A44" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="2">
         <v>42567</v>
       </c>
       <c r="C44" t="s">
@@ -14686,7 +14242,7 @@
       <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="2">
         <v>42406</v>
       </c>
       <c r="C45" t="s">
@@ -14697,7 +14253,7 @@
       <c r="A46" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="2">
         <v>42427</v>
       </c>
       <c r="C46" t="s">
@@ -14708,7 +14264,7 @@
       <c r="A47" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="2">
         <v>42371</v>
       </c>
       <c r="C47" t="s">
@@ -14719,7 +14275,7 @@
       <c r="A48" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="2">
         <v>42609</v>
       </c>
       <c r="C48" t="s">
@@ -14730,7 +14286,7 @@
       <c r="A49" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="2">
         <v>42546</v>
       </c>
       <c r="C49" t="s">
@@ -14741,7 +14297,7 @@
       <c r="A50" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="2">
         <v>42420</v>
       </c>
       <c r="C50" t="s">
@@ -14752,7 +14308,7 @@
       <c r="A51" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="2">
         <v>42504</v>
       </c>
       <c r="C51" t="s">
@@ -14763,7 +14319,7 @@
       <c r="A52" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="2">
         <v>42399</v>
       </c>
       <c r="C52" t="s">
@@ -14774,7 +14330,7 @@
       <c r="A53" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="2">
         <v>42420</v>
       </c>
       <c r="C53" t="s">
@@ -14785,7 +14341,7 @@
       <c r="A54" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="2">
         <v>42406</v>
       </c>
       <c r="C54" t="s">
@@ -14796,7 +14352,7 @@
       <c r="A55" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="2">
         <v>42532</v>
       </c>
       <c r="C55" t="s">
@@ -14807,7 +14363,7 @@
       <c r="A56" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="2">
         <v>42448</v>
       </c>
       <c r="C56" t="s">
@@ -14818,7 +14374,7 @@
       <c r="A57" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="2">
         <v>42378</v>
       </c>
       <c r="C57" t="s">
@@ -14829,7 +14385,7 @@
       <c r="A58" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="2">
         <v>42581</v>
       </c>
       <c r="C58" t="s">
@@ -14840,7 +14396,7 @@
       <c r="A59" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="2">
         <v>42602</v>
       </c>
       <c r="C59" t="s">
@@ -14851,7 +14407,7 @@
       <c r="A60" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="2">
         <v>42518</v>
       </c>
       <c r="C60" t="s">
@@ -14862,7 +14418,7 @@
       <c r="A61" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="2">
         <v>42518</v>
       </c>
       <c r="C61" t="s">
@@ -14873,7 +14429,7 @@
       <c r="A62" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="2">
         <v>42553</v>
       </c>
       <c r="C62" t="s">
@@ -14884,7 +14440,7 @@
       <c r="A63" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="2">
         <v>42511</v>
       </c>
       <c r="C63" t="s">
@@ -14895,7 +14451,7 @@
       <c r="A64" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="2">
         <v>42476</v>
       </c>
       <c r="C64" t="s">
@@ -14906,7 +14462,7 @@
       <c r="A65" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="2">
         <v>42476</v>
       </c>
       <c r="C65" t="s">
@@ -14917,7 +14473,7 @@
       <c r="A66" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="25">
+      <c r="B66" s="2">
         <v>42609</v>
       </c>
       <c r="C66" t="s">
@@ -14928,7 +14484,7 @@
       <c r="A67" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="2">
         <v>42455</v>
       </c>
       <c r="C67" t="s">
@@ -14939,7 +14495,7 @@
       <c r="A68" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="25">
+      <c r="B68" s="2">
         <v>42497</v>
       </c>
       <c r="C68" t="s">
@@ -14950,7 +14506,7 @@
       <c r="A69" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="2">
         <v>42497</v>
       </c>
       <c r="C69" t="s">
@@ -14961,7 +14517,7 @@
       <c r="A70" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="25">
+      <c r="B70" s="2">
         <v>42560</v>
       </c>
       <c r="C70" t="s">
@@ -14972,7 +14528,7 @@
       <c r="A71" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="25">
+      <c r="B71" s="2">
         <v>42413</v>
       </c>
       <c r="C71" t="s">
@@ -14983,7 +14539,7 @@
       <c r="A72" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="25">
+      <c r="B72" s="2">
         <v>42588</v>
       </c>
       <c r="C72" t="s">
@@ -14994,7 +14550,7 @@
       <c r="A73" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="2">
         <v>42434</v>
       </c>
       <c r="C73" t="s">
@@ -15005,7 +14561,7 @@
       <c r="A74" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="2">
         <v>42413</v>
       </c>
       <c r="C74" t="s">
@@ -15016,7 +14572,7 @@
       <c r="A75" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="2">
         <v>42441</v>
       </c>
       <c r="C75" t="s">
@@ -15027,7 +14583,7 @@
       <c r="A76" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B76" s="2">
         <v>42427</v>
       </c>
       <c r="C76" t="s">
@@ -15038,7 +14594,7 @@
       <c r="A77" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="25">
+      <c r="B77" s="2">
         <v>42574</v>
       </c>
       <c r="C77" t="s">
@@ -15049,7 +14605,7 @@
       <c r="A78" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="25">
+      <c r="B78" s="2">
         <v>42581</v>
       </c>
       <c r="C78" t="s">
@@ -15060,7 +14616,7 @@
       <c r="A79" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="25">
+      <c r="B79" s="2">
         <v>42511</v>
       </c>
       <c r="C79" t="s">
@@ -15071,7 +14627,7 @@
       <c r="A80" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="25">
+      <c r="B80" s="2">
         <v>42623</v>
       </c>
       <c r="C80" t="s">
@@ -15082,7 +14638,7 @@
       <c r="A81" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="25">
+      <c r="B81" s="2">
         <v>42420</v>
       </c>
       <c r="C81" t="s">
@@ -15093,7 +14649,7 @@
       <c r="A82" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="25">
+      <c r="B82" s="2">
         <v>42469</v>
       </c>
       <c r="C82" t="s">
@@ -15104,7 +14660,7 @@
       <c r="A83" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="25">
+      <c r="B83" s="2">
         <v>42378</v>
       </c>
       <c r="C83" t="s">
@@ -15115,7 +14671,7 @@
       <c r="A84" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="25">
+      <c r="B84" s="2">
         <v>42413</v>
       </c>
       <c r="C84" t="s">
@@ -15126,7 +14682,7 @@
       <c r="A85" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="25">
+      <c r="B85" s="2">
         <v>42602</v>
       </c>
       <c r="C85" t="s">
@@ -15137,7 +14693,7 @@
       <c r="A86" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="25">
+      <c r="B86" s="2">
         <v>42595</v>
       </c>
       <c r="C86" t="s">
@@ -15148,7 +14704,7 @@
       <c r="A87" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="2">
         <v>42560</v>
       </c>
       <c r="C87" t="s">
@@ -15159,7 +14715,7 @@
       <c r="A88" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="25">
+      <c r="B88" s="2">
         <v>42595</v>
       </c>
       <c r="C88" t="s">
@@ -15170,7 +14726,7 @@
       <c r="A89" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="25">
+      <c r="B89" s="2">
         <v>42455</v>
       </c>
       <c r="C89" t="s">
@@ -15181,7 +14737,7 @@
       <c r="A90" t="s">
         <v>129</v>
       </c>
-      <c r="B90" s="25">
+      <c r="B90" s="2">
         <v>42434</v>
       </c>
       <c r="C90" t="s">
@@ -15192,7 +14748,7 @@
       <c r="A91" t="s">
         <v>130</v>
       </c>
-      <c r="B91" s="25">
+      <c r="B91" s="2">
         <v>42434</v>
       </c>
       <c r="C91" t="s">
@@ -15203,7 +14759,7 @@
       <c r="A92" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="25">
+      <c r="B92" s="2">
         <v>42497</v>
       </c>
       <c r="C92" t="s">
@@ -15214,7 +14770,7 @@
       <c r="A93" t="s">
         <v>132</v>
       </c>
-      <c r="B93" s="25">
+      <c r="B93" s="2">
         <v>42371</v>
       </c>
       <c r="C93" t="s">
@@ -15225,7 +14781,7 @@
       <c r="A94" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="25">
+      <c r="B94" s="2">
         <v>42581</v>
       </c>
       <c r="C94" t="s">
@@ -15236,7 +14792,7 @@
       <c r="A95" t="s">
         <v>135</v>
       </c>
-      <c r="B95" s="25">
+      <c r="B95" s="2">
         <v>42637</v>
       </c>
       <c r="C95" t="s">
@@ -15247,7 +14803,7 @@
       <c r="A96" t="s">
         <v>136</v>
       </c>
-      <c r="B96" s="25">
+      <c r="B96" s="2">
         <v>42504</v>
       </c>
       <c r="C96" t="s">
@@ -15258,7 +14814,7 @@
       <c r="A97" t="s">
         <v>138</v>
       </c>
-      <c r="B97" s="25">
+      <c r="B97" s="2">
         <v>42406</v>
       </c>
       <c r="C97" t="s">
@@ -15269,7 +14825,7 @@
       <c r="A98" t="s">
         <v>139</v>
       </c>
-      <c r="B98" s="25">
+      <c r="B98" s="2">
         <v>42518</v>
       </c>
       <c r="C98" t="s">
@@ -15280,7 +14836,7 @@
       <c r="A99" t="s">
         <v>140</v>
       </c>
-      <c r="B99" s="25">
+      <c r="B99" s="2">
         <v>42588</v>
       </c>
       <c r="C99" t="s">
@@ -15291,7 +14847,7 @@
       <c r="A100" t="s">
         <v>141</v>
       </c>
-      <c r="B100" s="25">
+      <c r="B100" s="2">
         <v>42511</v>
       </c>
       <c r="C100" t="s">
@@ -15302,7 +14858,7 @@
       <c r="A101" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="25">
+      <c r="B101" s="2">
         <v>42630</v>
       </c>
       <c r="C101" t="s">
@@ -15313,7 +14869,7 @@
       <c r="A102" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="25">
+      <c r="B102" s="2">
         <v>42448</v>
       </c>
       <c r="C102" t="s">
@@ -15324,7 +14880,7 @@
       <c r="A103" t="s">
         <v>145</v>
       </c>
-      <c r="B103" s="25">
+      <c r="B103" s="2">
         <v>42497</v>
       </c>
       <c r="C103" t="s">
@@ -15335,7 +14891,7 @@
       <c r="A104" t="s">
         <v>146</v>
       </c>
-      <c r="B104" s="25">
+      <c r="B104" s="2">
         <v>42413</v>
       </c>
       <c r="C104" t="s">
@@ -15346,7 +14902,7 @@
       <c r="A105" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="25">
+      <c r="B105" s="2">
         <v>42637</v>
       </c>
       <c r="C105" t="s">
@@ -15357,7 +14913,7 @@
       <c r="A106" t="s">
         <v>149</v>
       </c>
-      <c r="B106" s="25">
+      <c r="B106" s="2">
         <v>42616</v>
       </c>
       <c r="C106" t="s">
@@ -15368,7 +14924,7 @@
       <c r="A107" t="s">
         <v>151</v>
       </c>
-      <c r="B107" s="25">
+      <c r="B107" s="2">
         <v>42399</v>
       </c>
       <c r="C107" t="s">
@@ -15379,7 +14935,7 @@
       <c r="A108" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="25">
+      <c r="B108" s="2">
         <v>42504</v>
       </c>
       <c r="C108" t="s">
@@ -15390,7 +14946,7 @@
       <c r="A109" t="s">
         <v>153</v>
       </c>
-      <c r="B109" s="25">
+      <c r="B109" s="2">
         <v>42616</v>
       </c>
       <c r="C109" t="s">
@@ -15401,7 +14957,7 @@
       <c r="A110" t="s">
         <v>154</v>
       </c>
-      <c r="B110" s="25">
+      <c r="B110" s="2">
         <v>42392</v>
       </c>
       <c r="C110" t="s">
@@ -15412,7 +14968,7 @@
       <c r="A111" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="25">
+      <c r="B111" s="2">
         <v>42609</v>
       </c>
       <c r="C111" t="s">
@@ -15423,7 +14979,7 @@
       <c r="A112" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="25">
+      <c r="B112" s="2">
         <v>42413</v>
       </c>
       <c r="C112" t="s">
@@ -15434,7 +14990,7 @@
       <c r="A113" t="s">
         <v>157</v>
       </c>
-      <c r="B113" s="25">
+      <c r="B113" s="2">
         <v>42434</v>
       </c>
       <c r="C113" t="s">
@@ -15445,7 +15001,7 @@
       <c r="A114" t="s">
         <v>158</v>
       </c>
-      <c r="B114" s="25">
+      <c r="B114" s="2">
         <v>42385</v>
       </c>
       <c r="C114" t="s">
@@ -15456,7 +15012,7 @@
       <c r="A115" t="s">
         <v>159</v>
       </c>
-      <c r="B115" s="25">
+      <c r="B115" s="2">
         <v>42567</v>
       </c>
       <c r="C115" t="s">
@@ -15467,7 +15023,7 @@
       <c r="A116" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="25">
+      <c r="B116" s="2">
         <v>42448</v>
       </c>
       <c r="C116" t="s">
@@ -15478,7 +15034,7 @@
       <c r="A117" t="s">
         <v>161</v>
       </c>
-      <c r="B117" s="25">
+      <c r="B117" s="2">
         <v>42616</v>
       </c>
       <c r="C117" t="s">
@@ -15489,7 +15045,7 @@
       <c r="A118" t="s">
         <v>162</v>
       </c>
-      <c r="B118" s="25">
+      <c r="B118" s="2">
         <v>42378</v>
       </c>
       <c r="C118" t="s">
@@ -15500,7 +15056,7 @@
       <c r="A119" t="s">
         <v>163</v>
       </c>
-      <c r="B119" s="25">
+      <c r="B119" s="2">
         <v>42518</v>
       </c>
       <c r="C119" t="s">
@@ -15511,7 +15067,7 @@
       <c r="A120" t="s">
         <v>165</v>
       </c>
-      <c r="B120" s="25">
+      <c r="B120" s="2">
         <v>42441</v>
       </c>
       <c r="C120" t="s">
@@ -15522,7 +15078,7 @@
       <c r="A121" t="s">
         <v>166</v>
       </c>
-      <c r="B121" s="25">
+      <c r="B121" s="2">
         <v>42406</v>
       </c>
       <c r="C121" t="s">
@@ -15533,7 +15089,7 @@
       <c r="A122" t="s">
         <v>167</v>
       </c>
-      <c r="B122" s="25">
+      <c r="B122" s="2">
         <v>42616</v>
       </c>
       <c r="C122" t="s">
@@ -15544,7 +15100,7 @@
       <c r="A123" t="s">
         <v>168</v>
       </c>
-      <c r="B123" s="25">
+      <c r="B123" s="2">
         <v>42567</v>
       </c>
       <c r="C123" t="s">
@@ -15555,7 +15111,7 @@
       <c r="A124" t="s">
         <v>169</v>
       </c>
-      <c r="B124" s="25">
+      <c r="B124" s="2">
         <v>42406</v>
       </c>
       <c r="C124" t="s">
@@ -15566,7 +15122,7 @@
       <c r="A125" t="s">
         <v>170</v>
       </c>
-      <c r="B125" s="25">
+      <c r="B125" s="2">
         <v>42588</v>
       </c>
       <c r="C125" t="s">
@@ -15577,7 +15133,7 @@
       <c r="A126" t="s">
         <v>171</v>
       </c>
-      <c r="B126" s="25">
+      <c r="B126" s="2">
         <v>42630</v>
       </c>
       <c r="C126" t="s">
@@ -15588,7 +15144,7 @@
       <c r="A127" t="s">
         <v>172</v>
       </c>
-      <c r="B127" s="25">
+      <c r="B127" s="2">
         <v>42518</v>
       </c>
       <c r="C127" t="s">
@@ -15599,7 +15155,7 @@
       <c r="A128" t="s">
         <v>173</v>
       </c>
-      <c r="B128" s="25">
+      <c r="B128" s="2">
         <v>42385</v>
       </c>
       <c r="C128" t="s">
@@ -15610,7 +15166,7 @@
       <c r="A129" t="s">
         <v>174</v>
       </c>
-      <c r="B129" s="25">
+      <c r="B129" s="2">
         <v>42441</v>
       </c>
       <c r="C129" t="s">
@@ -15621,7 +15177,7 @@
       <c r="A130" t="s">
         <v>175</v>
       </c>
-      <c r="B130" s="25">
+      <c r="B130" s="2">
         <v>42532</v>
       </c>
       <c r="C130" t="s">
@@ -15632,7 +15188,7 @@
       <c r="A131" t="s">
         <v>176</v>
       </c>
-      <c r="B131" s="25">
+      <c r="B131" s="2">
         <v>42609</v>
       </c>
       <c r="C131" t="s">
@@ -15643,7 +15199,7 @@
       <c r="A132" t="s">
         <v>178</v>
       </c>
-      <c r="B132" s="25">
+      <c r="B132" s="2">
         <v>42574</v>
       </c>
       <c r="C132" t="s">
@@ -15654,7 +15210,7 @@
       <c r="A133" t="s">
         <v>179</v>
       </c>
-      <c r="B133" s="25">
+      <c r="B133" s="2">
         <v>42630</v>
       </c>
       <c r="C133" t="s">
@@ -15665,7 +15221,7 @@
       <c r="A134" t="s">
         <v>180</v>
       </c>
-      <c r="B134" s="25">
+      <c r="B134" s="2">
         <v>42546</v>
       </c>
       <c r="C134" t="s">
@@ -15676,7 +15232,7 @@
       <c r="A135" t="s">
         <v>181</v>
       </c>
-      <c r="B135" s="25">
+      <c r="B135" s="2">
         <v>42476</v>
       </c>
       <c r="C135" t="s">
@@ -15687,7 +15243,7 @@
       <c r="A136" t="s">
         <v>182</v>
       </c>
-      <c r="B136" s="25">
+      <c r="B136" s="2">
         <v>42406</v>
       </c>
       <c r="C136" t="s">
@@ -15698,7 +15254,7 @@
       <c r="A137" t="s">
         <v>183</v>
       </c>
-      <c r="B137" s="25">
+      <c r="B137" s="2">
         <v>42455</v>
       </c>
       <c r="C137" t="s">
@@ -15709,7 +15265,7 @@
       <c r="A138" t="s">
         <v>184</v>
       </c>
-      <c r="B138" s="25">
+      <c r="B138" s="2">
         <v>42567</v>
       </c>
       <c r="C138" t="s">
@@ -15720,7 +15276,7 @@
       <c r="A139" t="s">
         <v>185</v>
       </c>
-      <c r="B139" s="25">
+      <c r="B139" s="2">
         <v>42511</v>
       </c>
       <c r="C139" t="s">
@@ -15731,7 +15287,7 @@
       <c r="A140" t="s">
         <v>186</v>
       </c>
-      <c r="B140" s="25">
+      <c r="B140" s="2">
         <v>42637</v>
       </c>
       <c r="C140" t="s">
@@ -15742,7 +15298,7 @@
       <c r="A141" t="s">
         <v>187</v>
       </c>
-      <c r="B141" s="25">
+      <c r="B141" s="2">
         <v>42483</v>
       </c>
       <c r="C141" t="s">
@@ -15753,7 +15309,7 @@
       <c r="A142" t="s">
         <v>188</v>
       </c>
-      <c r="B142" s="25">
+      <c r="B142" s="2">
         <v>42462</v>
       </c>
       <c r="C142" t="s">
@@ -15764,7 +15320,7 @@
       <c r="A143" t="s">
         <v>189</v>
       </c>
-      <c r="B143" s="25">
+      <c r="B143" s="2">
         <v>42420</v>
       </c>
       <c r="C143" t="s">
@@ -15775,7 +15331,7 @@
       <c r="A144" t="s">
         <v>190</v>
       </c>
-      <c r="B144" s="25">
+      <c r="B144" s="2">
         <v>42574</v>
       </c>
       <c r="C144" t="s">
@@ -15786,7 +15342,7 @@
       <c r="A145" t="s">
         <v>191</v>
       </c>
-      <c r="B145" s="25">
+      <c r="B145" s="2">
         <v>42560</v>
       </c>
       <c r="C145" t="s">
@@ -15797,7 +15353,7 @@
       <c r="A146" t="s">
         <v>192</v>
       </c>
-      <c r="B146" s="25">
+      <c r="B146" s="2">
         <v>42553</v>
       </c>
       <c r="C146" t="s">
@@ -15808,7 +15364,7 @@
       <c r="A147" t="s">
         <v>193</v>
       </c>
-      <c r="B147" s="25">
+      <c r="B147" s="2">
         <v>42462</v>
       </c>
       <c r="C147" t="s">
@@ -15819,7 +15375,7 @@
       <c r="A148" t="s">
         <v>194</v>
       </c>
-      <c r="B148" s="25">
+      <c r="B148" s="2">
         <v>42539</v>
       </c>
       <c r="C148" t="s">
@@ -15830,7 +15386,7 @@
       <c r="A149" t="s">
         <v>195</v>
       </c>
-      <c r="B149" s="25">
+      <c r="B149" s="2">
         <v>42609</v>
       </c>
       <c r="C149" t="s">
@@ -15841,7 +15397,7 @@
       <c r="A150" t="s">
         <v>196</v>
       </c>
-      <c r="B150" s="25">
+      <c r="B150" s="2">
         <v>42539</v>
       </c>
       <c r="C150" t="s">
@@ -15852,7 +15408,7 @@
       <c r="A151" t="s">
         <v>197</v>
       </c>
-      <c r="B151" s="25">
+      <c r="B151" s="2">
         <v>42532</v>
       </c>
       <c r="C151" t="s">
@@ -15863,7 +15419,7 @@
       <c r="A152" t="s">
         <v>198</v>
       </c>
-      <c r="B152" s="25">
+      <c r="B152" s="2">
         <v>42630</v>
       </c>
       <c r="C152" t="s">
@@ -15874,7 +15430,7 @@
       <c r="A153" t="s">
         <v>199</v>
       </c>
-      <c r="B153" s="25">
+      <c r="B153" s="2">
         <v>42448</v>
       </c>
       <c r="C153" t="s">
@@ -15885,7 +15441,7 @@
       <c r="A154" t="s">
         <v>200</v>
       </c>
-      <c r="B154" s="25">
+      <c r="B154" s="2">
         <v>42462</v>
       </c>
       <c r="C154" t="s">
@@ -15896,7 +15452,7 @@
       <c r="A155" t="s">
         <v>201</v>
       </c>
-      <c r="B155" s="25">
+      <c r="B155" s="2">
         <v>42483</v>
       </c>
       <c r="C155" t="s">
@@ -15907,7 +15463,7 @@
       <c r="A156" t="s">
         <v>202</v>
       </c>
-      <c r="B156" s="25">
+      <c r="B156" s="2">
         <v>42406</v>
       </c>
       <c r="C156" t="s">
@@ -15918,7 +15474,7 @@
       <c r="A157" t="s">
         <v>203</v>
       </c>
-      <c r="B157" s="25">
+      <c r="B157" s="2">
         <v>42539</v>
       </c>
       <c r="C157" t="s">
@@ -15929,7 +15485,7 @@
       <c r="A158" t="s">
         <v>204</v>
       </c>
-      <c r="B158" s="25">
+      <c r="B158" s="2">
         <v>42630</v>
       </c>
       <c r="C158" t="s">
@@ -15940,7 +15496,7 @@
       <c r="A159" t="s">
         <v>205</v>
       </c>
-      <c r="B159" s="25">
+      <c r="B159" s="2">
         <v>42595</v>
       </c>
       <c r="C159" t="s">
@@ -15951,7 +15507,7 @@
       <c r="A160" t="s">
         <v>206</v>
       </c>
-      <c r="B160" s="25">
+      <c r="B160" s="2">
         <v>42378</v>
       </c>
       <c r="C160" t="s">
@@ -15962,7 +15518,7 @@
       <c r="A161" t="s">
         <v>207</v>
       </c>
-      <c r="B161" s="25">
+      <c r="B161" s="2">
         <v>42588</v>
       </c>
       <c r="C161" t="s">
@@ -15973,7 +15529,7 @@
       <c r="A162" t="s">
         <v>208</v>
       </c>
-      <c r="B162" s="25">
+      <c r="B162" s="2">
         <v>42476</v>
       </c>
       <c r="C162" t="s">
@@ -15984,7 +15540,7 @@
       <c r="A163" t="s">
         <v>209</v>
       </c>
-      <c r="B163" s="25">
+      <c r="B163" s="2">
         <v>42560</v>
       </c>
       <c r="C163" t="s">
@@ -15995,7 +15551,7 @@
       <c r="A164" t="s">
         <v>210</v>
       </c>
-      <c r="B164" s="25">
+      <c r="B164" s="2">
         <v>42448</v>
       </c>
       <c r="C164" t="s">
@@ -16006,7 +15562,7 @@
       <c r="A165" t="s">
         <v>211</v>
       </c>
-      <c r="B165" s="25">
+      <c r="B165" s="2">
         <v>42427</v>
       </c>
       <c r="C165" t="s">
@@ -16017,7 +15573,7 @@
       <c r="A166" t="s">
         <v>212</v>
       </c>
-      <c r="B166" s="25">
+      <c r="B166" s="2">
         <v>42392</v>
       </c>
       <c r="C166" t="s">
@@ -16028,7 +15584,7 @@
       <c r="A167" t="s">
         <v>214</v>
       </c>
-      <c r="B167" s="25">
+      <c r="B167" s="2">
         <v>42609</v>
       </c>
       <c r="C167" t="s">
@@ -16039,7 +15595,7 @@
       <c r="A168" t="s">
         <v>215</v>
       </c>
-      <c r="B168" s="25">
+      <c r="B168" s="2">
         <v>42595</v>
       </c>
       <c r="C168" t="s">
@@ -16050,7 +15606,7 @@
       <c r="A169" t="s">
         <v>216</v>
       </c>
-      <c r="B169" s="25">
+      <c r="B169" s="2">
         <v>42420</v>
       </c>
       <c r="C169" t="s">
@@ -16061,7 +15617,7 @@
       <c r="A170" t="s">
         <v>217</v>
       </c>
-      <c r="B170" s="25">
+      <c r="B170" s="2">
         <v>42504</v>
       </c>
       <c r="C170" t="s">
@@ -16072,7 +15628,7 @@
       <c r="A171" t="s">
         <v>218</v>
       </c>
-      <c r="B171" s="25">
+      <c r="B171" s="2">
         <v>42553</v>
       </c>
       <c r="C171" t="s">
@@ -16083,7 +15639,7 @@
       <c r="A172" t="s">
         <v>219</v>
       </c>
-      <c r="B172" s="25">
+      <c r="B172" s="2">
         <v>42385</v>
       </c>
       <c r="C172" t="s">
@@ -16094,7 +15650,7 @@
       <c r="A173" t="s">
         <v>220</v>
       </c>
-      <c r="B173" s="25">
+      <c r="B173" s="2">
         <v>42623</v>
       </c>
       <c r="C173" t="s">
@@ -16105,7 +15661,7 @@
       <c r="A174" t="s">
         <v>221</v>
       </c>
-      <c r="B174" s="25">
+      <c r="B174" s="2">
         <v>42637</v>
       </c>
       <c r="C174" t="s">
@@ -16116,7 +15672,7 @@
       <c r="A175" t="s">
         <v>222</v>
       </c>
-      <c r="B175" s="25">
+      <c r="B175" s="2">
         <v>42392</v>
       </c>
       <c r="C175" t="s">
@@ -16127,7 +15683,7 @@
       <c r="A176" t="s">
         <v>223</v>
       </c>
-      <c r="B176" s="25">
+      <c r="B176" s="2">
         <v>42399</v>
       </c>
       <c r="C176" t="s">
@@ -16138,7 +15694,7 @@
       <c r="A177" t="s">
         <v>224</v>
       </c>
-      <c r="B177" s="25">
+      <c r="B177" s="2">
         <v>42483</v>
       </c>
       <c r="C177" t="s">
@@ -16149,7 +15705,7 @@
       <c r="A178" t="s">
         <v>225</v>
       </c>
-      <c r="B178" s="25">
+      <c r="B178" s="2">
         <v>42434</v>
       </c>
       <c r="C178" t="s">
@@ -16160,7 +15716,7 @@
       <c r="A179" t="s">
         <v>226</v>
       </c>
-      <c r="B179" s="25">
+      <c r="B179" s="2">
         <v>42469</v>
       </c>
       <c r="C179" t="s">
@@ -16171,7 +15727,7 @@
       <c r="A180" t="s">
         <v>227</v>
       </c>
-      <c r="B180" s="25">
+      <c r="B180" s="2">
         <v>42637</v>
       </c>
       <c r="C180" t="s">
@@ -16182,7 +15738,7 @@
       <c r="A181" t="s">
         <v>228</v>
       </c>
-      <c r="B181" s="25">
+      <c r="B181" s="2">
         <v>42609</v>
       </c>
       <c r="C181" t="s">
@@ -16193,7 +15749,7 @@
       <c r="A182" t="s">
         <v>230</v>
       </c>
-      <c r="B182" s="25">
+      <c r="B182" s="2">
         <v>42497</v>
       </c>
       <c r="C182" t="s">
@@ -16204,7 +15760,7 @@
       <c r="A183" t="s">
         <v>231</v>
       </c>
-      <c r="B183" s="25">
+      <c r="B183" s="2">
         <v>42378</v>
       </c>
       <c r="C183" t="s">
@@ -16215,7 +15771,7 @@
       <c r="A184" t="s">
         <v>232</v>
       </c>
-      <c r="B184" s="25">
+      <c r="B184" s="2">
         <v>42469</v>
       </c>
       <c r="C184" t="s">
@@ -16226,7 +15782,7 @@
       <c r="A185" t="s">
         <v>233</v>
       </c>
-      <c r="B185" s="25">
+      <c r="B185" s="2">
         <v>42623</v>
       </c>
       <c r="C185" t="s">
@@ -16237,7 +15793,7 @@
       <c r="A186" t="s">
         <v>234</v>
       </c>
-      <c r="B186" s="25">
+      <c r="B186" s="2">
         <v>42609</v>
       </c>
       <c r="C186" t="s">
@@ -16248,7 +15804,7 @@
       <c r="A187" t="s">
         <v>235</v>
       </c>
-      <c r="B187" s="25">
+      <c r="B187" s="2">
         <v>42567</v>
       </c>
       <c r="C187" t="s">
@@ -16259,7 +15815,7 @@
       <c r="A188" t="s">
         <v>236</v>
       </c>
-      <c r="B188" s="25">
+      <c r="B188" s="2">
         <v>42490</v>
       </c>
       <c r="C188" t="s">
@@ -16270,7 +15826,7 @@
       <c r="A189" t="s">
         <v>237</v>
       </c>
-      <c r="B189" s="25">
+      <c r="B189" s="2">
         <v>42539</v>
       </c>
       <c r="C189" t="s">
@@ -16281,7 +15837,7 @@
       <c r="A190" t="s">
         <v>238</v>
       </c>
-      <c r="B190" s="25">
+      <c r="B190" s="2">
         <v>42399</v>
       </c>
       <c r="C190" t="s">
@@ -16292,7 +15848,7 @@
       <c r="A191" t="s">
         <v>239</v>
       </c>
-      <c r="B191" s="25">
+      <c r="B191" s="2">
         <v>42385</v>
       </c>
       <c r="C191" t="s">
@@ -16303,7 +15859,7 @@
       <c r="A192" t="s">
         <v>240</v>
       </c>
-      <c r="B192" s="25">
+      <c r="B192" s="2">
         <v>42378</v>
       </c>
       <c r="C192" t="s">
@@ -16314,7 +15870,7 @@
       <c r="A193" t="s">
         <v>241</v>
       </c>
-      <c r="B193" s="25">
+      <c r="B193" s="2">
         <v>42616</v>
       </c>
       <c r="C193" t="s">
@@ -16325,7 +15881,7 @@
       <c r="A194" t="s">
         <v>242</v>
       </c>
-      <c r="B194" s="25">
+      <c r="B194" s="2">
         <v>42497</v>
       </c>
       <c r="C194" t="s">
@@ -16336,7 +15892,7 @@
       <c r="A195" t="s">
         <v>243</v>
       </c>
-      <c r="B195" s="25">
+      <c r="B195" s="2">
         <v>42532</v>
       </c>
       <c r="C195" t="s">
@@ -16347,7 +15903,7 @@
       <c r="A196" t="s">
         <v>244</v>
       </c>
-      <c r="B196" s="25">
+      <c r="B196" s="2">
         <v>42588</v>
       </c>
       <c r="C196" t="s">
@@ -16358,7 +15914,7 @@
       <c r="A197" t="s">
         <v>245</v>
       </c>
-      <c r="B197" s="25">
+      <c r="B197" s="2">
         <v>42630</v>
       </c>
       <c r="C197" t="s">
@@ -16369,7 +15925,7 @@
       <c r="A198" t="s">
         <v>246</v>
       </c>
-      <c r="B198" s="25">
+      <c r="B198" s="2">
         <v>42441</v>
       </c>
       <c r="C198" t="s">
@@ -16380,7 +15936,7 @@
       <c r="A199" t="s">
         <v>247</v>
       </c>
-      <c r="B199" s="25">
+      <c r="B199" s="2">
         <v>42609</v>
       </c>
       <c r="C199" t="s">
@@ -16391,7 +15947,7 @@
       <c r="A200" t="s">
         <v>248</v>
       </c>
-      <c r="B200" s="25">
+      <c r="B200" s="2">
         <v>42588</v>
       </c>
       <c r="C200" t="s">
@@ -16402,7 +15958,7 @@
       <c r="A201" t="s">
         <v>249</v>
       </c>
-      <c r="B201" s="25">
+      <c r="B201" s="2">
         <v>42581</v>
       </c>
       <c r="C201" t="s">
@@ -16413,7 +15969,7 @@
       <c r="A202" t="s">
         <v>250</v>
       </c>
-      <c r="B202" s="25">
+      <c r="B202" s="2">
         <v>42616</v>
       </c>
       <c r="C202" t="s">
@@ -16424,7 +15980,7 @@
       <c r="A203" t="s">
         <v>251</v>
       </c>
-      <c r="B203" s="25">
+      <c r="B203" s="2">
         <v>42609</v>
       </c>
       <c r="C203" t="s">
@@ -16435,7 +15991,7 @@
       <c r="A204" t="s">
         <v>252</v>
       </c>
-      <c r="B204" s="25">
+      <c r="B204" s="2">
         <v>42462</v>
       </c>
       <c r="C204" t="s">
@@ -16446,7 +16002,7 @@
       <c r="A205" t="s">
         <v>253</v>
       </c>
-      <c r="B205" s="25">
+      <c r="B205" s="2">
         <v>42560</v>
       </c>
       <c r="C205" t="s">
@@ -16457,7 +16013,7 @@
       <c r="A206" t="s">
         <v>254</v>
       </c>
-      <c r="B206" s="25">
+      <c r="B206" s="2">
         <v>42630</v>
       </c>
       <c r="C206" t="s">
@@ -16468,7 +16024,7 @@
       <c r="A207" t="s">
         <v>255</v>
       </c>
-      <c r="B207" s="25">
+      <c r="B207" s="2">
         <v>42574</v>
       </c>
       <c r="C207" t="s">
@@ -16479,7 +16035,7 @@
       <c r="A208" t="s">
         <v>256</v>
       </c>
-      <c r="B208" s="25">
+      <c r="B208" s="2">
         <v>42399</v>
       </c>
       <c r="C208" t="s">
@@ -16490,7 +16046,7 @@
       <c r="A209" t="s">
         <v>257</v>
       </c>
-      <c r="B209" s="25">
+      <c r="B209" s="2">
         <v>42602</v>
       </c>
       <c r="C209" t="s">
@@ -16501,7 +16057,7 @@
       <c r="A210" t="s">
         <v>258</v>
       </c>
-      <c r="B210" s="25">
+      <c r="B210" s="2">
         <v>42567</v>
       </c>
       <c r="C210" t="s">
@@ -16512,7 +16068,7 @@
       <c r="A211" t="s">
         <v>259</v>
       </c>
-      <c r="B211" s="25">
+      <c r="B211" s="2">
         <v>42420</v>
       </c>
       <c r="C211" t="s">
@@ -16523,7 +16079,7 @@
       <c r="A212" t="s">
         <v>260</v>
       </c>
-      <c r="B212" s="25">
+      <c r="B212" s="2">
         <v>42588</v>
       </c>
       <c r="C212" t="s">
@@ -16534,7 +16090,7 @@
       <c r="A213" t="s">
         <v>261</v>
       </c>
-      <c r="B213" s="25">
+      <c r="B213" s="2">
         <v>42616</v>
       </c>
       <c r="C213" t="s">
@@ -16545,7 +16101,7 @@
       <c r="A214" t="s">
         <v>262</v>
       </c>
-      <c r="B214" s="25">
+      <c r="B214" s="2">
         <v>42546</v>
       </c>
       <c r="C214" t="s">
@@ -16556,7 +16112,7 @@
       <c r="A215" t="s">
         <v>263</v>
       </c>
-      <c r="B215" s="25">
+      <c r="B215" s="2">
         <v>42637</v>
       </c>
       <c r="C215" t="s">
@@ -16567,7 +16123,7 @@
       <c r="A216" t="s">
         <v>264</v>
       </c>
-      <c r="B216" s="25">
+      <c r="B216" s="2">
         <v>42413</v>
       </c>
       <c r="C216" t="s">
@@ -16578,7 +16134,7 @@
       <c r="A217" t="s">
         <v>265</v>
       </c>
-      <c r="B217" s="25">
+      <c r="B217" s="2">
         <v>42595</v>
       </c>
       <c r="C217" t="s">
@@ -16589,7 +16145,7 @@
       <c r="A218" t="s">
         <v>266</v>
       </c>
-      <c r="B218" s="25">
+      <c r="B218" s="2">
         <v>42602</v>
       </c>
       <c r="C218" t="s">
@@ -16600,7 +16156,7 @@
       <c r="A219" t="s">
         <v>267</v>
       </c>
-      <c r="B219" s="25">
+      <c r="B219" s="2">
         <v>42378</v>
       </c>
       <c r="C219" t="s">
@@ -16611,7 +16167,7 @@
       <c r="A220" t="s">
         <v>268</v>
       </c>
-      <c r="B220" s="25">
+      <c r="B220" s="2">
         <v>42567</v>
       </c>
       <c r="C220" t="s">
@@ -16622,7 +16178,7 @@
       <c r="A221" t="s">
         <v>269</v>
       </c>
-      <c r="B221" s="25">
+      <c r="B221" s="2">
         <v>42574</v>
       </c>
       <c r="C221" t="s">
@@ -16633,7 +16189,7 @@
       <c r="A222" t="s">
         <v>270</v>
       </c>
-      <c r="B222" s="25">
+      <c r="B222" s="2">
         <v>42518</v>
       </c>
       <c r="C222" t="s">
@@ -16644,7 +16200,7 @@
       <c r="A223" t="s">
         <v>271</v>
       </c>
-      <c r="B223" s="25">
+      <c r="B223" s="2">
         <v>42623</v>
       </c>
       <c r="C223" t="s">
@@ -16655,7 +16211,7 @@
       <c r="A224" t="s">
         <v>272</v>
       </c>
-      <c r="B224" s="25">
+      <c r="B224" s="2">
         <v>42532</v>
       </c>
       <c r="C224" t="s">
@@ -16666,7 +16222,7 @@
       <c r="A225" t="s">
         <v>273</v>
       </c>
-      <c r="B225" s="25">
+      <c r="B225" s="2">
         <v>42511</v>
       </c>
       <c r="C225" t="s">
@@ -16677,7 +16233,7 @@
       <c r="A226" t="s">
         <v>274</v>
       </c>
-      <c r="B226" s="25">
+      <c r="B226" s="2">
         <v>42553</v>
       </c>
       <c r="C226" t="s">
@@ -16688,7 +16244,7 @@
       <c r="A227" t="s">
         <v>275</v>
       </c>
-      <c r="B227" s="25">
+      <c r="B227" s="2">
         <v>42595</v>
       </c>
       <c r="C227" t="s">
@@ -16699,7 +16255,7 @@
       <c r="A228" t="s">
         <v>276</v>
       </c>
-      <c r="B228" s="25">
+      <c r="B228" s="2">
         <v>42399</v>
       </c>
       <c r="C228" t="s">
@@ -16710,7 +16266,7 @@
       <c r="A229" t="s">
         <v>277</v>
       </c>
-      <c r="B229" s="25">
+      <c r="B229" s="2">
         <v>42630</v>
       </c>
       <c r="C229" t="s">
@@ -16721,7 +16277,7 @@
       <c r="A230" t="s">
         <v>278</v>
       </c>
-      <c r="B230" s="25">
+      <c r="B230" s="2">
         <v>42406</v>
       </c>
       <c r="C230" t="s">
@@ -16732,7 +16288,7 @@
       <c r="A231" t="s">
         <v>279</v>
       </c>
-      <c r="B231" s="25">
+      <c r="B231" s="2">
         <v>42497</v>
       </c>
       <c r="C231" t="s">
@@ -16743,7 +16299,7 @@
       <c r="A232" t="s">
         <v>280</v>
       </c>
-      <c r="B232" s="25">
+      <c r="B232" s="2">
         <v>42616</v>
       </c>
       <c r="C232" t="s">
@@ -16754,7 +16310,7 @@
       <c r="A233" t="s">
         <v>281</v>
       </c>
-      <c r="B233" s="25">
+      <c r="B233" s="2">
         <v>42588</v>
       </c>
       <c r="C233" t="s">
@@ -16765,7 +16321,7 @@
       <c r="A234" t="s">
         <v>282</v>
       </c>
-      <c r="B234" s="25">
+      <c r="B234" s="2">
         <v>42392</v>
       </c>
       <c r="C234" t="s">
@@ -16776,7 +16332,7 @@
       <c r="A235" t="s">
         <v>283</v>
       </c>
-      <c r="B235" s="25">
+      <c r="B235" s="2">
         <v>42448</v>
       </c>
       <c r="C235" t="s">
@@ -16787,7 +16343,7 @@
       <c r="A236" t="s">
         <v>284</v>
       </c>
-      <c r="B236" s="25">
+      <c r="B236" s="2">
         <v>42581</v>
       </c>
       <c r="C236" t="s">
@@ -16798,7 +16354,7 @@
       <c r="A237" t="s">
         <v>285</v>
       </c>
-      <c r="B237" s="25">
+      <c r="B237" s="2">
         <v>42434</v>
       </c>
       <c r="C237" t="s">
@@ -16809,7 +16365,7 @@
       <c r="A238" t="s">
         <v>286</v>
       </c>
-      <c r="B238" s="25">
+      <c r="B238" s="2">
         <v>42588</v>
       </c>
       <c r="C238" t="s">
@@ -16820,7 +16376,7 @@
       <c r="A239" t="s">
         <v>287</v>
       </c>
-      <c r="B239" s="25">
+      <c r="B239" s="2">
         <v>42616</v>
       </c>
       <c r="C239" t="s">
@@ -16831,7 +16387,7 @@
       <c r="A240" t="s">
         <v>288</v>
       </c>
-      <c r="B240" s="25">
+      <c r="B240" s="2">
         <v>42595</v>
       </c>
       <c r="C240" t="s">
@@ -16842,7 +16398,7 @@
       <c r="A241" t="s">
         <v>289</v>
       </c>
-      <c r="B241" s="25">
+      <c r="B241" s="2">
         <v>42581</v>
       </c>
       <c r="C241" t="s">
@@ -16853,7 +16409,7 @@
       <c r="A242" t="s">
         <v>290</v>
       </c>
-      <c r="B242" s="25">
+      <c r="B242" s="2">
         <v>42602</v>
       </c>
       <c r="C242" t="s">
@@ -16864,7 +16420,7 @@
       <c r="A243" t="s">
         <v>291</v>
       </c>
-      <c r="B243" s="25">
+      <c r="B243" s="2">
         <v>42637</v>
       </c>
       <c r="C243" t="s">
@@ -16875,7 +16431,7 @@
       <c r="A244" t="s">
         <v>292</v>
       </c>
-      <c r="B244" s="25">
+      <c r="B244" s="2">
         <v>42532</v>
       </c>
       <c r="C244" t="s">
@@ -16886,7 +16442,7 @@
       <c r="A245" t="s">
         <v>293</v>
       </c>
-      <c r="B245" s="25">
+      <c r="B245" s="2">
         <v>42392</v>
       </c>
       <c r="C245" t="s">
@@ -16897,7 +16453,7 @@
       <c r="A246" t="s">
         <v>294</v>
       </c>
-      <c r="B246" s="25">
+      <c r="B246" s="2">
         <v>42511</v>
       </c>
       <c r="C246" t="s">
@@ -16908,7 +16464,7 @@
       <c r="A247" t="s">
         <v>295</v>
       </c>
-      <c r="B247" s="25">
+      <c r="B247" s="2">
         <v>42490</v>
       </c>
       <c r="C247" t="s">
@@ -16919,7 +16475,7 @@
       <c r="A248" t="s">
         <v>296</v>
       </c>
-      <c r="B248" s="25">
+      <c r="B248" s="2">
         <v>42462</v>
       </c>
       <c r="C248" t="s">
@@ -16930,7 +16486,7 @@
       <c r="A249" t="s">
         <v>297</v>
       </c>
-      <c r="B249" s="25">
+      <c r="B249" s="2">
         <v>42490</v>
       </c>
       <c r="C249" t="s">
@@ -16941,7 +16497,7 @@
       <c r="A250" t="s">
         <v>298</v>
       </c>
-      <c r="B250" s="25">
+      <c r="B250" s="2">
         <v>42469</v>
       </c>
       <c r="C250" t="s">
@@ -16952,7 +16508,7 @@
       <c r="A251" t="s">
         <v>299</v>
       </c>
-      <c r="B251" s="25">
+      <c r="B251" s="2">
         <v>42469</v>
       </c>
       <c r="C251" t="s">
@@ -16963,7 +16519,7 @@
       <c r="A252" t="s">
         <v>300</v>
       </c>
-      <c r="B252" s="25">
+      <c r="B252" s="2">
         <v>42553</v>
       </c>
       <c r="C252" t="s">
@@ -16974,7 +16530,7 @@
       <c r="A253" t="s">
         <v>301</v>
       </c>
-      <c r="B253" s="25">
+      <c r="B253" s="2">
         <v>42448</v>
       </c>
       <c r="C253" t="s">
@@ -16985,7 +16541,7 @@
       <c r="A254" t="s">
         <v>302</v>
       </c>
-      <c r="B254" s="25">
+      <c r="B254" s="2">
         <v>42441</v>
       </c>
       <c r="C254" t="s">
@@ -16996,7 +16552,7 @@
       <c r="A255" t="s">
         <v>303</v>
       </c>
-      <c r="B255" s="25">
+      <c r="B255" s="2">
         <v>42546</v>
       </c>
       <c r="C255" t="s">
@@ -17007,7 +16563,7 @@
       <c r="A256" t="s">
         <v>304</v>
       </c>
-      <c r="B256" s="25">
+      <c r="B256" s="2">
         <v>42413</v>
       </c>
       <c r="C256" t="s">
@@ -17018,7 +16574,7 @@
       <c r="A257" t="s">
         <v>305</v>
       </c>
-      <c r="B257" s="25">
+      <c r="B257" s="2">
         <v>42378</v>
       </c>
       <c r="C257" t="s">
@@ -17029,7 +16585,7 @@
       <c r="A258" t="s">
         <v>306</v>
       </c>
-      <c r="B258" s="25">
+      <c r="B258" s="2">
         <v>42448</v>
       </c>
       <c r="C258" t="s">
@@ -17040,7 +16596,7 @@
       <c r="A259" t="s">
         <v>307</v>
       </c>
-      <c r="B259" s="25">
+      <c r="B259" s="2">
         <v>42392</v>
       </c>
       <c r="C259" t="s">
@@ -17051,7 +16607,7 @@
       <c r="A260" t="s">
         <v>308</v>
       </c>
-      <c r="B260" s="25">
+      <c r="B260" s="2">
         <v>42511</v>
       </c>
       <c r="C260" t="s">
@@ -17062,7 +16618,7 @@
       <c r="A261" t="s">
         <v>309</v>
       </c>
-      <c r="B261" s="25">
+      <c r="B261" s="2">
         <v>42525</v>
       </c>
       <c r="C261" t="s">
@@ -17073,7 +16629,7 @@
       <c r="A262" t="s">
         <v>310</v>
       </c>
-      <c r="B262" s="25">
+      <c r="B262" s="2">
         <v>42518</v>
       </c>
       <c r="C262" t="s">
@@ -17084,7 +16640,7 @@
       <c r="A263" t="s">
         <v>311</v>
       </c>
-      <c r="B263" s="25">
+      <c r="B263" s="2">
         <v>42532</v>
       </c>
       <c r="C263" t="s">
@@ -17095,7 +16651,7 @@
       <c r="A264" t="s">
         <v>312</v>
       </c>
-      <c r="B264" s="25">
+      <c r="B264" s="2">
         <v>42427</v>
       </c>
       <c r="C264" t="s">
@@ -17106,7 +16662,7 @@
       <c r="A265" t="s">
         <v>313</v>
       </c>
-      <c r="B265" s="25">
+      <c r="B265" s="2">
         <v>42399</v>
       </c>
       <c r="C265" t="s">
@@ -17117,7 +16673,7 @@
       <c r="A266" t="s">
         <v>314</v>
       </c>
-      <c r="B266" s="25">
+      <c r="B266" s="2">
         <v>42420</v>
       </c>
       <c r="C266" t="s">
@@ -17128,7 +16684,7 @@
       <c r="A267" t="s">
         <v>315</v>
       </c>
-      <c r="B267" s="25">
+      <c r="B267" s="2">
         <v>42378</v>
       </c>
       <c r="C267" t="s">
@@ -17139,7 +16695,7 @@
       <c r="A268" t="s">
         <v>316</v>
       </c>
-      <c r="B268" s="25">
+      <c r="B268" s="2">
         <v>42588</v>
       </c>
       <c r="C268" t="s">
@@ -17150,7 +16706,7 @@
       <c r="A269" t="s">
         <v>317</v>
       </c>
-      <c r="B269" s="25">
+      <c r="B269" s="2">
         <v>42616</v>
       </c>
       <c r="C269" t="s">
@@ -17161,7 +16717,7 @@
       <c r="A270" t="s">
         <v>318</v>
       </c>
-      <c r="B270" s="25">
+      <c r="B270" s="2">
         <v>42595</v>
       </c>
       <c r="C270" t="s">
@@ -17172,7 +16728,7 @@
       <c r="A271" t="s">
         <v>319</v>
       </c>
-      <c r="B271" s="25">
+      <c r="B271" s="2">
         <v>42371</v>
       </c>
       <c r="C271" t="s">
@@ -17183,7 +16739,7 @@
       <c r="A272" t="s">
         <v>320</v>
       </c>
-      <c r="B272" s="25">
+      <c r="B272" s="2">
         <v>42434</v>
       </c>
       <c r="C272" t="s">
@@ -17194,7 +16750,7 @@
       <c r="A273" t="s">
         <v>321</v>
       </c>
-      <c r="B273" s="25">
+      <c r="B273" s="2">
         <v>42392</v>
       </c>
       <c r="C273" t="s">
@@ -17205,7 +16761,7 @@
       <c r="A274" t="s">
         <v>322</v>
       </c>
-      <c r="B274" s="25">
+      <c r="B274" s="2">
         <v>42546</v>
       </c>
       <c r="C274" t="s">
@@ -17216,7 +16772,7 @@
       <c r="A275" t="s">
         <v>323</v>
       </c>
-      <c r="B275" s="25">
+      <c r="B275" s="2">
         <v>42616</v>
       </c>
       <c r="C275" t="s">
@@ -17227,7 +16783,7 @@
       <c r="A276" t="s">
         <v>324</v>
       </c>
-      <c r="B276" s="25">
+      <c r="B276" s="2">
         <v>42448</v>
       </c>
       <c r="C276" t="s">
@@ -17238,7 +16794,7 @@
       <c r="A277" t="s">
         <v>325</v>
       </c>
-      <c r="B277" s="25">
+      <c r="B277" s="2">
         <v>42483</v>
       </c>
       <c r="C277" t="s">
@@ -17249,7 +16805,7 @@
       <c r="A278" t="s">
         <v>326</v>
       </c>
-      <c r="B278" s="25">
+      <c r="B278" s="2">
         <v>42546</v>
       </c>
       <c r="C278" t="s">
@@ -17260,7 +16816,7 @@
       <c r="A279" t="s">
         <v>327</v>
       </c>
-      <c r="B279" s="25">
+      <c r="B279" s="2">
         <v>42525</v>
       </c>
       <c r="C279" t="s">
@@ -17271,7 +16827,7 @@
       <c r="A280" t="s">
         <v>328</v>
       </c>
-      <c r="B280" s="25">
+      <c r="B280" s="2">
         <v>42504</v>
       </c>
       <c r="C280" t="s">
@@ -17282,7 +16838,7 @@
       <c r="A281" t="s">
         <v>329</v>
       </c>
-      <c r="B281" s="25">
+      <c r="B281" s="2">
         <v>42490</v>
       </c>
       <c r="C281" t="s">
@@ -17293,7 +16849,7 @@
       <c r="A282" t="s">
         <v>330</v>
       </c>
-      <c r="B282" s="25">
+      <c r="B282" s="2">
         <v>42518</v>
       </c>
       <c r="C282" t="s">
@@ -17304,7 +16860,7 @@
       <c r="A283" t="s">
         <v>331</v>
       </c>
-      <c r="B283" s="25">
+      <c r="B283" s="2">
         <v>42560</v>
       </c>
       <c r="C283" t="s">
@@ -17315,7 +16871,7 @@
       <c r="A284" t="s">
         <v>332</v>
       </c>
-      <c r="B284" s="25">
+      <c r="B284" s="2">
         <v>42581</v>
       </c>
       <c r="C284" t="s">
@@ -17326,7 +16882,7 @@
       <c r="A285" t="s">
         <v>333</v>
       </c>
-      <c r="B285" s="25">
+      <c r="B285" s="2">
         <v>42469</v>
       </c>
       <c r="C285" t="s">
@@ -17337,7 +16893,7 @@
       <c r="A286" t="s">
         <v>334</v>
       </c>
-      <c r="B286" s="25">
+      <c r="B286" s="2">
         <v>42623</v>
       </c>
       <c r="C286" t="s">
@@ -17348,7 +16904,7 @@
       <c r="A287" t="s">
         <v>335</v>
       </c>
-      <c r="B287" s="25">
+      <c r="B287" s="2">
         <v>42525</v>
       </c>
       <c r="C287" t="s">
@@ -17359,7 +16915,7 @@
       <c r="A288" t="s">
         <v>336</v>
       </c>
-      <c r="B288" s="25">
+      <c r="B288" s="2">
         <v>42609</v>
       </c>
       <c r="C288" t="s">
@@ -17370,7 +16926,7 @@
       <c r="A289" t="s">
         <v>337</v>
       </c>
-      <c r="B289" s="25">
+      <c r="B289" s="2">
         <v>42616</v>
       </c>
       <c r="C289" t="s">
@@ -17381,7 +16937,7 @@
       <c r="A290" t="s">
         <v>338</v>
       </c>
-      <c r="B290" s="25">
+      <c r="B290" s="2">
         <v>42399</v>
       </c>
       <c r="C290" t="s">
@@ -17392,7 +16948,7 @@
       <c r="A291" t="s">
         <v>339</v>
       </c>
-      <c r="B291" s="25">
+      <c r="B291" s="2">
         <v>42441</v>
       </c>
       <c r="C291" t="s">
@@ -17403,7 +16959,7 @@
       <c r="A292" t="s">
         <v>340</v>
       </c>
-      <c r="B292" s="25">
+      <c r="B292" s="2">
         <v>42483</v>
       </c>
       <c r="C292" t="s">
@@ -17414,7 +16970,7 @@
       <c r="A293" t="s">
         <v>341</v>
       </c>
-      <c r="B293" s="25">
+      <c r="B293" s="2">
         <v>42602</v>
       </c>
       <c r="C293" t="s">
@@ -17425,7 +16981,7 @@
       <c r="A294" t="s">
         <v>342</v>
       </c>
-      <c r="B294" s="25">
+      <c r="B294" s="2">
         <v>42581</v>
       </c>
       <c r="C294" t="s">
@@ -17436,7 +16992,7 @@
       <c r="A295" t="s">
         <v>343</v>
       </c>
-      <c r="B295" s="25">
+      <c r="B295" s="2">
         <v>42392</v>
       </c>
       <c r="C295" t="s">
@@ -17447,7 +17003,7 @@
       <c r="A296" t="s">
         <v>344</v>
       </c>
-      <c r="B296" s="25">
+      <c r="B296" s="2">
         <v>42399</v>
       </c>
       <c r="C296" t="s">
@@ -17458,7 +17014,7 @@
       <c r="A297" t="s">
         <v>345</v>
       </c>
-      <c r="B297" s="25">
+      <c r="B297" s="2">
         <v>42553</v>
       </c>
       <c r="C297" t="s">
@@ -17469,7 +17025,7 @@
       <c r="A298" t="s">
         <v>346</v>
       </c>
-      <c r="B298" s="25">
+      <c r="B298" s="2">
         <v>42483</v>
       </c>
       <c r="C298" t="s">
@@ -17480,7 +17036,7 @@
       <c r="A299" t="s">
         <v>347</v>
       </c>
-      <c r="B299" s="25">
+      <c r="B299" s="2">
         <v>42532</v>
       </c>
       <c r="C299" t="s">
@@ -17491,7 +17047,7 @@
       <c r="A300" t="s">
         <v>348</v>
       </c>
-      <c r="B300" s="25">
+      <c r="B300" s="2">
         <v>42602</v>
       </c>
       <c r="C300" t="s">
@@ -17502,7 +17058,7 @@
       <c r="A301" t="s">
         <v>349</v>
       </c>
-      <c r="B301" s="25">
+      <c r="B301" s="2">
         <v>42427</v>
       </c>
       <c r="C301" t="s">
@@ -17513,7 +17069,7 @@
       <c r="A302" t="s">
         <v>350</v>
       </c>
-      <c r="B302" s="25">
+      <c r="B302" s="2">
         <v>42427</v>
       </c>
       <c r="C302" t="s">
@@ -17524,7 +17080,7 @@
       <c r="A303" t="s">
         <v>351</v>
       </c>
-      <c r="B303" s="25">
+      <c r="B303" s="2">
         <v>42602</v>
       </c>
       <c r="C303" t="s">
@@ -17535,7 +17091,7 @@
       <c r="A304" t="s">
         <v>352</v>
       </c>
-      <c r="B304" s="25">
+      <c r="B304" s="2">
         <v>42497</v>
       </c>
       <c r="C304" t="s">
@@ -17546,7 +17102,7 @@
       <c r="A305" t="s">
         <v>353</v>
       </c>
-      <c r="B305" s="25">
+      <c r="B305" s="2">
         <v>42455</v>
       </c>
       <c r="C305" t="s">
@@ -17557,7 +17113,7 @@
       <c r="A306" t="s">
         <v>354</v>
       </c>
-      <c r="B306" s="25">
+      <c r="B306" s="2">
         <v>42525</v>
       </c>
       <c r="C306" t="s">
@@ -17568,7 +17124,7 @@
       <c r="A307" t="s">
         <v>355</v>
       </c>
-      <c r="B307" s="25">
+      <c r="B307" s="2">
         <v>42490</v>
       </c>
       <c r="C307" t="s">
@@ -17579,7 +17135,7 @@
       <c r="A308" t="s">
         <v>356</v>
       </c>
-      <c r="B308" s="25">
+      <c r="B308" s="2">
         <v>42406</v>
       </c>
       <c r="C308" t="s">
@@ -17590,7 +17146,7 @@
       <c r="A309" t="s">
         <v>357</v>
       </c>
-      <c r="B309" s="25">
+      <c r="B309" s="2">
         <v>42441</v>
       </c>
       <c r="C309" t="s">
@@ -17601,7 +17157,7 @@
       <c r="A310" t="s">
         <v>358</v>
       </c>
-      <c r="B310" s="25">
+      <c r="B310" s="2">
         <v>42455</v>
       </c>
       <c r="C310" t="s">
@@ -17612,7 +17168,7 @@
       <c r="A311" t="s">
         <v>359</v>
       </c>
-      <c r="B311" s="25">
+      <c r="B311" s="2">
         <v>42371</v>
       </c>
       <c r="C311" t="s">
@@ -17623,7 +17179,7 @@
       <c r="A312" t="s">
         <v>360</v>
       </c>
-      <c r="B312" s="25">
+      <c r="B312" s="2">
         <v>42455</v>
       </c>
       <c r="C312" t="s">
@@ -17634,7 +17190,7 @@
       <c r="A313" t="s">
         <v>361</v>
       </c>
-      <c r="B313" s="25">
+      <c r="B313" s="2">
         <v>42630</v>
       </c>
       <c r="C313" t="s">
@@ -17645,7 +17201,7 @@
       <c r="A314" t="s">
         <v>362</v>
       </c>
-      <c r="B314" s="25">
+      <c r="B314" s="2">
         <v>42504</v>
       </c>
       <c r="C314" t="s">
@@ -17656,7 +17212,7 @@
       <c r="A315" t="s">
         <v>363</v>
       </c>
-      <c r="B315" s="25">
+      <c r="B315" s="2">
         <v>42546</v>
       </c>
       <c r="C315" t="s">
@@ -17667,7 +17223,7 @@
       <c r="A316" t="s">
         <v>364</v>
       </c>
-      <c r="B316" s="25">
+      <c r="B316" s="2">
         <v>42434</v>
       </c>
       <c r="C316" t="s">
@@ -17678,7 +17234,7 @@
       <c r="A317" t="s">
         <v>365</v>
       </c>
-      <c r="B317" s="25">
+      <c r="B317" s="2">
         <v>42476</v>
       </c>
       <c r="C317" t="s">
@@ -17689,7 +17245,7 @@
       <c r="A318" t="s">
         <v>366</v>
       </c>
-      <c r="B318" s="25">
+      <c r="B318" s="2">
         <v>42378</v>
       </c>
       <c r="C318" t="s">
@@ -17700,7 +17256,7 @@
       <c r="A319" t="s">
         <v>367</v>
       </c>
-      <c r="B319" s="25">
+      <c r="B319" s="2">
         <v>42588</v>
       </c>
       <c r="C319" t="s">
@@ -17711,7 +17267,7 @@
       <c r="A320" t="s">
         <v>368</v>
       </c>
-      <c r="B320" s="25">
+      <c r="B320" s="2">
         <v>42469</v>
       </c>
       <c r="C320" t="s">
@@ -17722,7 +17278,7 @@
       <c r="A321" t="s">
         <v>369</v>
       </c>
-      <c r="B321" s="25">
+      <c r="B321" s="2">
         <v>42553</v>
       </c>
       <c r="C321" t="s">
@@ -17733,7 +17289,7 @@
       <c r="A322" t="s">
         <v>370</v>
       </c>
-      <c r="B322" s="25">
+      <c r="B322" s="2">
         <v>42497</v>
       </c>
       <c r="C322" t="s">
@@ -17744,7 +17300,7 @@
       <c r="A323" t="s">
         <v>371</v>
       </c>
-      <c r="B323" s="25">
+      <c r="B323" s="2">
         <v>42448</v>
       </c>
       <c r="C323" t="s">
@@ -17755,7 +17311,7 @@
       <c r="A324" t="s">
         <v>372</v>
       </c>
-      <c r="B324" s="25">
+      <c r="B324" s="2">
         <v>42511</v>
       </c>
       <c r="C324" t="s">
@@ -17766,7 +17322,7 @@
       <c r="A325" t="s">
         <v>373</v>
       </c>
-      <c r="B325" s="25">
+      <c r="B325" s="2">
         <v>42462</v>
       </c>
       <c r="C325" t="s">
@@ -17777,7 +17333,7 @@
       <c r="A326" t="s">
         <v>374</v>
       </c>
-      <c r="B326" s="25">
+      <c r="B326" s="2">
         <v>42637</v>
       </c>
       <c r="C326" t="s">
@@ -17788,7 +17344,7 @@
       <c r="A327" t="s">
         <v>375</v>
       </c>
-      <c r="B327" s="25">
+      <c r="B327" s="2">
         <v>42378</v>
       </c>
       <c r="C327" t="s">
@@ -17799,7 +17355,7 @@
       <c r="A328" t="s">
         <v>376</v>
       </c>
-      <c r="B328" s="25">
+      <c r="B328" s="2">
         <v>42616</v>
       </c>
       <c r="C328" t="s">
@@ -17810,7 +17366,7 @@
       <c r="A329" t="s">
         <v>377</v>
       </c>
-      <c r="B329" s="25">
+      <c r="B329" s="2">
         <v>42392</v>
       </c>
       <c r="C329" t="s">
@@ -17821,7 +17377,7 @@
       <c r="A330" t="s">
         <v>378</v>
       </c>
-      <c r="B330" s="25">
+      <c r="B330" s="2">
         <v>42378</v>
       </c>
       <c r="C330" t="s">
@@ -17832,7 +17388,7 @@
       <c r="A331" t="s">
         <v>379</v>
       </c>
-      <c r="B331" s="25">
+      <c r="B331" s="2">
         <v>42567</v>
       </c>
       <c r="C331" t="s">
@@ -17843,7 +17399,7 @@
       <c r="A332" t="s">
         <v>380</v>
       </c>
-      <c r="B332" s="25">
+      <c r="B332" s="2">
         <v>42511</v>
       </c>
       <c r="C332" t="s">
@@ -17854,7 +17410,7 @@
       <c r="A333" t="s">
         <v>382</v>
       </c>
-      <c r="B333" s="25">
+      <c r="B333" s="2">
         <v>42441</v>
       </c>
       <c r="C333" t="s">
@@ -17865,7 +17421,7 @@
       <c r="A334" t="s">
         <v>383</v>
       </c>
-      <c r="B334" s="25">
+      <c r="B334" s="2">
         <v>42518</v>
       </c>
       <c r="C334" t="s">
@@ -17876,7 +17432,7 @@
       <c r="A335" t="s">
         <v>384</v>
       </c>
-      <c r="B335" s="25">
+      <c r="B335" s="2">
         <v>42504</v>
       </c>
       <c r="C335" t="s">
@@ -17887,7 +17443,7 @@
       <c r="A336" t="s">
         <v>385</v>
       </c>
-      <c r="B336" s="25">
+      <c r="B336" s="2">
         <v>42560</v>
       </c>
       <c r="C336" t="s">
@@ -17898,7 +17454,7 @@
       <c r="A337" t="s">
         <v>386</v>
       </c>
-      <c r="B337" s="25">
+      <c r="B337" s="2">
         <v>42595</v>
       </c>
       <c r="C337" t="s">
@@ -17909,7 +17465,7 @@
       <c r="A338" t="s">
         <v>387</v>
       </c>
-      <c r="B338" s="25">
+      <c r="B338" s="2">
         <v>42609</v>
       </c>
       <c r="C338" t="s">
@@ -17920,7 +17476,7 @@
       <c r="A339" t="s">
         <v>388</v>
       </c>
-      <c r="B339" s="25">
+      <c r="B339" s="2">
         <v>42616</v>
       </c>
       <c r="C339" t="s">
@@ -17931,7 +17487,7 @@
       <c r="A340" t="s">
         <v>389</v>
       </c>
-      <c r="B340" s="25">
+      <c r="B340" s="2">
         <v>42469</v>
       </c>
       <c r="C340" t="s">
@@ -17942,7 +17498,7 @@
       <c r="A341" t="s">
         <v>390</v>
       </c>
-      <c r="B341" s="25">
+      <c r="B341" s="2">
         <v>42448</v>
       </c>
       <c r="C341" t="s">
@@ -17953,7 +17509,7 @@
       <c r="A342" t="s">
         <v>391</v>
       </c>
-      <c r="B342" s="25">
+      <c r="B342" s="2">
         <v>42469</v>
       </c>
       <c r="C342" t="s">
@@ -17964,7 +17520,7 @@
       <c r="A343" t="s">
         <v>392</v>
       </c>
-      <c r="B343" s="25">
+      <c r="B343" s="2">
         <v>42581</v>
       </c>
       <c r="C343" t="s">
@@ -17975,7 +17531,7 @@
       <c r="A344" t="s">
         <v>393</v>
       </c>
-      <c r="B344" s="25">
+      <c r="B344" s="2">
         <v>42616</v>
       </c>
       <c r="C344" t="s">
@@ -17986,7 +17542,7 @@
       <c r="A345" t="s">
         <v>394</v>
       </c>
-      <c r="B345" s="25">
+      <c r="B345" s="2">
         <v>42595</v>
       </c>
       <c r="C345" t="s">
@@ -17997,7 +17553,7 @@
       <c r="A346" t="s">
         <v>395</v>
       </c>
-      <c r="B346" s="25">
+      <c r="B346" s="2">
         <v>42448</v>
       </c>
       <c r="C346" t="s">
@@ -18008,7 +17564,7 @@
       <c r="A347" t="s">
         <v>396</v>
       </c>
-      <c r="B347" s="25">
+      <c r="B347" s="2">
         <v>42483</v>
       </c>
       <c r="C347" t="s">
@@ -18019,7 +17575,7 @@
       <c r="A348" t="s">
         <v>397</v>
       </c>
-      <c r="B348" s="25">
+      <c r="B348" s="2">
         <v>42413</v>
       </c>
       <c r="C348" t="s">
@@ -18030,7 +17586,7 @@
       <c r="A349" t="s">
         <v>398</v>
       </c>
-      <c r="B349" s="25">
+      <c r="B349" s="2">
         <v>42420</v>
       </c>
       <c r="C349" t="s">
@@ -18041,7 +17597,7 @@
       <c r="A350" t="s">
         <v>399</v>
       </c>
-      <c r="B350" s="25">
+      <c r="B350" s="2">
         <v>42385</v>
       </c>
       <c r="C350" t="s">
@@ -18052,7 +17608,7 @@
       <c r="A351" t="s">
         <v>400</v>
       </c>
-      <c r="B351" s="25">
+      <c r="B351" s="2">
         <v>42588</v>
       </c>
       <c r="C351" t="s">
@@ -18063,7 +17619,7 @@
       <c r="A352" t="s">
         <v>401</v>
       </c>
-      <c r="B352" s="25">
+      <c r="B352" s="2">
         <v>42392</v>
       </c>
       <c r="C352" t="s">
@@ -18074,7 +17630,7 @@
       <c r="A353" t="s">
         <v>402</v>
       </c>
-      <c r="B353" s="25">
+      <c r="B353" s="2">
         <v>42448</v>
       </c>
       <c r="C353" t="s">
@@ -18085,7 +17641,7 @@
       <c r="A354" t="s">
         <v>403</v>
       </c>
-      <c r="B354" s="25">
+      <c r="B354" s="2">
         <v>42588</v>
       </c>
       <c r="C354" t="s">
@@ -18096,7 +17652,7 @@
       <c r="A355" t="s">
         <v>404</v>
       </c>
-      <c r="B355" s="25">
+      <c r="B355" s="2">
         <v>42448</v>
       </c>
       <c r="C355" t="s">
@@ -18107,7 +17663,7 @@
       <c r="A356" t="s">
         <v>405</v>
       </c>
-      <c r="B356" s="25">
+      <c r="B356" s="2">
         <v>42441</v>
       </c>
       <c r="C356" t="s">
@@ -18118,7 +17674,7 @@
       <c r="A357" t="s">
         <v>406</v>
       </c>
-      <c r="B357" s="25">
+      <c r="B357" s="2">
         <v>42371</v>
       </c>
       <c r="C357" t="s">
@@ -18129,7 +17685,7 @@
       <c r="A358" t="s">
         <v>407</v>
       </c>
-      <c r="B358" s="25">
+      <c r="B358" s="2">
         <v>42595</v>
       </c>
       <c r="C358" t="s">
@@ -18140,7 +17696,7 @@
       <c r="A359" t="s">
         <v>408</v>
       </c>
-      <c r="B359" s="25">
+      <c r="B359" s="2">
         <v>42609</v>
       </c>
       <c r="C359" t="s">
@@ -18151,7 +17707,7 @@
       <c r="A360" t="s">
         <v>409</v>
       </c>
-      <c r="B360" s="25">
+      <c r="B360" s="2">
         <v>42504</v>
       </c>
       <c r="C360" t="s">
@@ -18162,7 +17718,7 @@
       <c r="A361" t="s">
         <v>410</v>
       </c>
-      <c r="B361" s="25">
+      <c r="B361" s="2">
         <v>42385</v>
       </c>
       <c r="C361" t="s">
@@ -18173,7 +17729,7 @@
       <c r="A362" t="s">
         <v>411</v>
       </c>
-      <c r="B362" s="25">
+      <c r="B362" s="2">
         <v>42581</v>
       </c>
       <c r="C362" t="s">
@@ -18184,7 +17740,7 @@
       <c r="A363" t="s">
         <v>412</v>
       </c>
-      <c r="B363" s="25">
+      <c r="B363" s="2">
         <v>42609</v>
       </c>
       <c r="C363" t="s">
@@ -18195,7 +17751,7 @@
       <c r="A364" t="s">
         <v>413</v>
       </c>
-      <c r="B364" s="25">
+      <c r="B364" s="2">
         <v>42392</v>
       </c>
       <c r="C364" t="s">
@@ -18206,7 +17762,7 @@
       <c r="A365" t="s">
         <v>414</v>
       </c>
-      <c r="B365" s="25">
+      <c r="B365" s="2">
         <v>42490</v>
       </c>
       <c r="C365" t="s">
@@ -18217,7 +17773,7 @@
       <c r="A366" t="s">
         <v>415</v>
       </c>
-      <c r="B366" s="25">
+      <c r="B366" s="2">
         <v>42455</v>
       </c>
       <c r="C366" t="s">
@@ -18228,7 +17784,7 @@
       <c r="A367" t="s">
         <v>416</v>
       </c>
-      <c r="B367" s="25">
+      <c r="B367" s="2">
         <v>42483</v>
       </c>
       <c r="C367" t="s">
@@ -18239,7 +17795,7 @@
       <c r="A368" t="s">
         <v>417</v>
       </c>
-      <c r="B368" s="25">
+      <c r="B368" s="2">
         <v>42490</v>
       </c>
       <c r="C368" t="s">
@@ -18250,7 +17806,7 @@
       <c r="A369" t="s">
         <v>418</v>
       </c>
-      <c r="B369" s="25">
+      <c r="B369" s="2">
         <v>42378</v>
       </c>
       <c r="C369" t="s">
@@ -18261,7 +17817,7 @@
       <c r="A370" t="s">
         <v>419</v>
       </c>
-      <c r="B370" s="25">
+      <c r="B370" s="2">
         <v>42427</v>
       </c>
       <c r="C370" t="s">
@@ -18272,7 +17828,7 @@
       <c r="A371" t="s">
         <v>420</v>
       </c>
-      <c r="B371" s="25">
+      <c r="B371" s="2">
         <v>42525</v>
       </c>
       <c r="C371" t="s">
@@ -18283,7 +17839,7 @@
       <c r="A372" t="s">
         <v>421</v>
       </c>
-      <c r="B372" s="25">
+      <c r="B372" s="2">
         <v>42469</v>
       </c>
       <c r="C372" t="s">
@@ -18294,7 +17850,7 @@
       <c r="A373" t="s">
         <v>422</v>
       </c>
-      <c r="B373" s="25">
+      <c r="B373" s="2">
         <v>42539</v>
       </c>
       <c r="C373" t="s">
@@ -18305,7 +17861,7 @@
       <c r="A374" t="s">
         <v>423</v>
       </c>
-      <c r="B374" s="25">
+      <c r="B374" s="2">
         <v>42448</v>
       </c>
       <c r="C374" t="s">
@@ -18316,7 +17872,7 @@
       <c r="A375" t="s">
         <v>424</v>
       </c>
-      <c r="B375" s="25">
+      <c r="B375" s="2">
         <v>42532</v>
       </c>
       <c r="C375" t="s">
@@ -18327,7 +17883,7 @@
       <c r="A376" t="s">
         <v>425</v>
       </c>
-      <c r="B376" s="25">
+      <c r="B376" s="2">
         <v>42378</v>
       </c>
       <c r="C376" t="s">
@@ -18338,7 +17894,7 @@
       <c r="A377" t="s">
         <v>426</v>
       </c>
-      <c r="B377" s="25">
+      <c r="B377" s="2">
         <v>42609</v>
       </c>
       <c r="C377" t="s">
@@ -18349,7 +17905,7 @@
       <c r="A378" t="s">
         <v>427</v>
       </c>
-      <c r="B378" s="25">
+      <c r="B378" s="2">
         <v>42504</v>
       </c>
       <c r="C378" t="s">
@@ -18360,7 +17916,7 @@
       <c r="A379" t="s">
         <v>428</v>
       </c>
-      <c r="B379" s="25">
+      <c r="B379" s="2">
         <v>42595</v>
       </c>
       <c r="C379" t="s">
@@ -18371,7 +17927,7 @@
       <c r="A380" t="s">
         <v>429</v>
       </c>
-      <c r="B380" s="25">
+      <c r="B380" s="2">
         <v>42532</v>
       </c>
       <c r="C380" t="s">
@@ -18382,7 +17938,7 @@
       <c r="A381" t="s">
         <v>430</v>
       </c>
-      <c r="B381" s="25">
+      <c r="B381" s="2">
         <v>42602</v>
       </c>
       <c r="C381" t="s">
@@ -18393,7 +17949,7 @@
       <c r="A382" t="s">
         <v>431</v>
       </c>
-      <c r="B382" s="25">
+      <c r="B382" s="2">
         <v>42581</v>
       </c>
       <c r="C382" t="s">
@@ -18404,7 +17960,7 @@
       <c r="A383" t="s">
         <v>432</v>
       </c>
-      <c r="B383" s="25">
+      <c r="B383" s="2">
         <v>42371</v>
       </c>
       <c r="C383" t="s">
@@ -18415,7 +17971,7 @@
       <c r="A384" t="s">
         <v>433</v>
       </c>
-      <c r="B384" s="25">
+      <c r="B384" s="2">
         <v>42413</v>
       </c>
       <c r="C384" t="s">
@@ -18426,7 +17982,7 @@
       <c r="A385" t="s">
         <v>434</v>
       </c>
-      <c r="B385" s="25">
+      <c r="B385" s="2">
         <v>42413</v>
       </c>
       <c r="C385" t="s">
@@ -18437,7 +17993,7 @@
       <c r="A386" t="s">
         <v>435</v>
       </c>
-      <c r="B386" s="25">
+      <c r="B386" s="2">
         <v>42581</v>
       </c>
       <c r="C386" t="s">
@@ -18448,7 +18004,7 @@
       <c r="A387" t="s">
         <v>436</v>
       </c>
-      <c r="B387" s="25">
+      <c r="B387" s="2">
         <v>42455</v>
       </c>
       <c r="C387" t="s">
@@ -18459,7 +18015,7 @@
       <c r="A388" t="s">
         <v>437</v>
       </c>
-      <c r="B388" s="25">
+      <c r="B388" s="2">
         <v>42434</v>
       </c>
       <c r="C388" t="s">
@@ -18470,7 +18026,7 @@
       <c r="A389" t="s">
         <v>438</v>
       </c>
-      <c r="B389" s="25">
+      <c r="B389" s="2">
         <v>42385</v>
       </c>
       <c r="C389" t="s">
@@ -18481,7 +18037,7 @@
       <c r="A390" t="s">
         <v>439</v>
       </c>
-      <c r="B390" s="25">
+      <c r="B390" s="2">
         <v>42553</v>
       </c>
       <c r="C390" t="s">
@@ -18492,7 +18048,7 @@
       <c r="A391" t="s">
         <v>440</v>
       </c>
-      <c r="B391" s="25">
+      <c r="B391" s="2">
         <v>42455</v>
       </c>
       <c r="C391" t="s">
@@ -18503,7 +18059,7 @@
       <c r="A392" t="s">
         <v>441</v>
       </c>
-      <c r="B392" s="25">
+      <c r="B392" s="2">
         <v>42371</v>
       </c>
       <c r="C392" t="s">
@@ -18514,7 +18070,7 @@
       <c r="A393" t="s">
         <v>442</v>
       </c>
-      <c r="B393" s="25">
+      <c r="B393" s="2">
         <v>42616</v>
       </c>
       <c r="C393" t="s">
@@ -18525,7 +18081,7 @@
       <c r="A394" t="s">
         <v>443</v>
       </c>
-      <c r="B394" s="25">
+      <c r="B394" s="2">
         <v>42371</v>
       </c>
       <c r="C394" t="s">
@@ -18536,7 +18092,7 @@
       <c r="A395" t="s">
         <v>444</v>
       </c>
-      <c r="B395" s="25">
+      <c r="B395" s="2">
         <v>42553</v>
       </c>
       <c r="C395" t="s">
@@ -18547,7 +18103,7 @@
       <c r="A396" t="s">
         <v>445</v>
       </c>
-      <c r="B396" s="25">
+      <c r="B396" s="2">
         <v>42378</v>
       </c>
       <c r="C396" t="s">
@@ -18558,7 +18114,7 @@
       <c r="A397" t="s">
         <v>446</v>
       </c>
-      <c r="B397" s="25">
+      <c r="B397" s="2">
         <v>42588</v>
       </c>
       <c r="C397" t="s">
@@ -18569,7 +18125,7 @@
       <c r="A398" t="s">
         <v>447</v>
       </c>
-      <c r="B398" s="25">
+      <c r="B398" s="2">
         <v>42427</v>
       </c>
       <c r="C398" t="s">
@@ -18580,7 +18136,7 @@
       <c r="A399" t="s">
         <v>448</v>
       </c>
-      <c r="B399" s="25">
+      <c r="B399" s="2">
         <v>42504</v>
       </c>
       <c r="C399" t="s">
@@ -18591,7 +18147,7 @@
       <c r="A400" t="s">
         <v>449</v>
       </c>
-      <c r="B400" s="25">
+      <c r="B400" s="2">
         <v>42637</v>
       </c>
       <c r="C400" t="s">
@@ -18602,7 +18158,7 @@
       <c r="A401" t="s">
         <v>450</v>
       </c>
-      <c r="B401" s="25">
+      <c r="B401" s="2">
         <v>42525</v>
       </c>
       <c r="C401" t="s">
@@ -18613,7 +18169,7 @@
       <c r="A402" t="s">
         <v>451</v>
       </c>
-      <c r="B402" s="25">
+      <c r="B402" s="2">
         <v>42483</v>
       </c>
       <c r="C402" t="s">
@@ -18624,7 +18180,7 @@
       <c r="A403" t="s">
         <v>452</v>
       </c>
-      <c r="B403" s="25">
+      <c r="B403" s="2">
         <v>42588</v>
       </c>
       <c r="C403" t="s">
@@ -18635,7 +18191,7 @@
       <c r="A404" t="s">
         <v>453</v>
       </c>
-      <c r="B404" s="25">
+      <c r="B404" s="2">
         <v>42609</v>
       </c>
       <c r="C404" t="s">
@@ -18646,7 +18202,7 @@
       <c r="A405" t="s">
         <v>454</v>
       </c>
-      <c r="B405" s="25">
+      <c r="B405" s="2">
         <v>42525</v>
       </c>
       <c r="C405" t="s">
@@ -18657,7 +18213,7 @@
       <c r="A406" t="s">
         <v>455</v>
       </c>
-      <c r="B406" s="25">
+      <c r="B406" s="2">
         <v>42413</v>
       </c>
       <c r="C406" t="s">
@@ -18668,7 +18224,7 @@
       <c r="A407" t="s">
         <v>456</v>
       </c>
-      <c r="B407" s="25">
+      <c r="B407" s="2">
         <v>42427</v>
       </c>
       <c r="C407" t="s">
@@ -18679,7 +18235,7 @@
       <c r="A408" t="s">
         <v>457</v>
       </c>
-      <c r="B408" s="25">
+      <c r="B408" s="2">
         <v>42525</v>
       </c>
       <c r="C408" t="s">
@@ -18690,7 +18246,7 @@
       <c r="A409" t="s">
         <v>458</v>
       </c>
-      <c r="B409" s="25">
+      <c r="B409" s="2">
         <v>42406</v>
       </c>
       <c r="C409" t="s">
@@ -18701,7 +18257,7 @@
       <c r="A410" t="s">
         <v>459</v>
       </c>
-      <c r="B410" s="25">
+      <c r="B410" s="2">
         <v>42602</v>
       </c>
       <c r="C410" t="s">
@@ -18712,7 +18268,7 @@
       <c r="A411" t="s">
         <v>460</v>
       </c>
-      <c r="B411" s="25">
+      <c r="B411" s="2">
         <v>42630</v>
       </c>
       <c r="C411" t="s">
@@ -18723,7 +18279,7 @@
       <c r="A412" t="s">
         <v>461</v>
       </c>
-      <c r="B412" s="25">
+      <c r="B412" s="2">
         <v>42399</v>
       </c>
       <c r="C412" t="s">
@@ -18734,7 +18290,7 @@
       <c r="A413" t="s">
         <v>462</v>
       </c>
-      <c r="B413" s="25">
+      <c r="B413" s="2">
         <v>42378</v>
       </c>
       <c r="C413" t="s">
@@ -18745,7 +18301,7 @@
       <c r="A414" t="s">
         <v>463</v>
       </c>
-      <c r="B414" s="25">
+      <c r="B414" s="2">
         <v>42539</v>
       </c>
       <c r="C414" t="s">
@@ -18756,7 +18312,7 @@
       <c r="A415" t="s">
         <v>464</v>
       </c>
-      <c r="B415" s="25">
+      <c r="B415" s="2">
         <v>42420</v>
       </c>
       <c r="C415" t="s">
@@ -18767,7 +18323,7 @@
       <c r="A416" t="s">
         <v>465</v>
       </c>
-      <c r="B416" s="25">
+      <c r="B416" s="2">
         <v>42406</v>
       </c>
       <c r="C416" t="s">
@@ -18778,7 +18334,7 @@
       <c r="A417" t="s">
         <v>466</v>
       </c>
-      <c r="B417" s="25">
+      <c r="B417" s="2">
         <v>42539</v>
       </c>
       <c r="C417" t="s">
@@ -18789,7 +18345,7 @@
       <c r="A418" t="s">
         <v>467</v>
       </c>
-      <c r="B418" s="25">
+      <c r="B418" s="2">
         <v>42588</v>
       </c>
       <c r="C418" t="s">
@@ -18800,7 +18356,7 @@
       <c r="A419" t="s">
         <v>468</v>
       </c>
-      <c r="B419" s="25">
+      <c r="B419" s="2">
         <v>42420</v>
       </c>
       <c r="C419" t="s">
@@ -18811,7 +18367,7 @@
       <c r="A420" t="s">
         <v>469</v>
       </c>
-      <c r="B420" s="25">
+      <c r="B420" s="2">
         <v>42574</v>
       </c>
       <c r="C420" t="s">
@@ -18822,7 +18378,7 @@
       <c r="A421" t="s">
         <v>470</v>
       </c>
-      <c r="B421" s="25">
+      <c r="B421" s="2">
         <v>42553</v>
       </c>
       <c r="C421" t="s">
@@ -18833,7 +18389,7 @@
       <c r="A422" t="s">
         <v>471</v>
       </c>
-      <c r="B422" s="25">
+      <c r="B422" s="2">
         <v>42595</v>
       </c>
       <c r="C422" t="s">
@@ -18844,7 +18400,7 @@
       <c r="A423" t="s">
         <v>472</v>
       </c>
-      <c r="B423" s="25">
+      <c r="B423" s="2">
         <v>42630</v>
       </c>
       <c r="C423" t="s">
@@ -18855,7 +18411,7 @@
       <c r="A424" t="s">
         <v>473</v>
       </c>
-      <c r="B424" s="25">
+      <c r="B424" s="2">
         <v>42609</v>
       </c>
       <c r="C424" t="s">
@@ -18866,7 +18422,7 @@
       <c r="A425" t="s">
         <v>474</v>
       </c>
-      <c r="B425" s="25">
+      <c r="B425" s="2">
         <v>42413</v>
       </c>
       <c r="C425" t="s">
@@ -18877,7 +18433,7 @@
       <c r="A426" t="s">
         <v>475</v>
       </c>
-      <c r="B426" s="25">
+      <c r="B426" s="2">
         <v>42616</v>
       </c>
       <c r="C426" t="s">
@@ -18888,7 +18444,7 @@
       <c r="A427" t="s">
         <v>476</v>
       </c>
-      <c r="B427" s="25">
+      <c r="B427" s="2">
         <v>42385</v>
       </c>
       <c r="C427" t="s">
@@ -18899,7 +18455,7 @@
       <c r="A428" t="s">
         <v>477</v>
       </c>
-      <c r="B428" s="25">
+      <c r="B428" s="2">
         <v>42637</v>
       </c>
       <c r="C428" t="s">
@@ -18910,7 +18466,7 @@
       <c r="A429" t="s">
         <v>478</v>
       </c>
-      <c r="B429" s="25">
+      <c r="B429" s="2">
         <v>42413</v>
       </c>
       <c r="C429" t="s">
@@ -18921,7 +18477,7 @@
       <c r="A430" t="s">
         <v>479</v>
       </c>
-      <c r="B430" s="25">
+      <c r="B430" s="2">
         <v>42567</v>
       </c>
       <c r="C430" t="s">
@@ -18932,7 +18488,7 @@
       <c r="A431" t="s">
         <v>480</v>
       </c>
-      <c r="B431" s="25">
+      <c r="B431" s="2">
         <v>42623</v>
       </c>
       <c r="C431" t="s">
@@ -18943,7 +18499,7 @@
       <c r="A432" t="s">
         <v>481</v>
       </c>
-      <c r="B432" s="25">
+      <c r="B432" s="2">
         <v>42539</v>
       </c>
       <c r="C432" t="s">
@@ -18954,7 +18510,7 @@
       <c r="A433" t="s">
         <v>482</v>
       </c>
-      <c r="B433" s="25">
+      <c r="B433" s="2">
         <v>42371</v>
       </c>
       <c r="C433" t="s">
@@ -18965,7 +18521,7 @@
       <c r="A434" t="s">
         <v>483</v>
       </c>
-      <c r="B434" s="25">
+      <c r="B434" s="2">
         <v>42490</v>
       </c>
       <c r="C434" t="s">
@@ -18976,7 +18532,7 @@
       <c r="A435" t="s">
         <v>484</v>
       </c>
-      <c r="B435" s="25">
+      <c r="B435" s="2">
         <v>42497</v>
       </c>
       <c r="C435" t="s">
@@ -18987,7 +18543,7 @@
       <c r="A436" t="s">
         <v>485</v>
       </c>
-      <c r="B436" s="25">
+      <c r="B436" s="2">
         <v>42588</v>
       </c>
       <c r="C436" t="s">
@@ -18998,7 +18554,7 @@
       <c r="A437" t="s">
         <v>486</v>
       </c>
-      <c r="B437" s="25">
+      <c r="B437" s="2">
         <v>42574</v>
       </c>
       <c r="C437" t="s">
@@ -19009,7 +18565,7 @@
       <c r="A438" t="s">
         <v>487</v>
       </c>
-      <c r="B438" s="25">
+      <c r="B438" s="2">
         <v>42546</v>
       </c>
       <c r="C438" t="s">
@@ -19020,7 +18576,7 @@
       <c r="A439" t="s">
         <v>488</v>
       </c>
-      <c r="B439" s="25">
+      <c r="B439" s="2">
         <v>42630</v>
       </c>
       <c r="C439" t="s">
@@ -19031,7 +18587,7 @@
       <c r="A440" t="s">
         <v>489</v>
       </c>
-      <c r="B440" s="25">
+      <c r="B440" s="2">
         <v>42616</v>
       </c>
       <c r="C440" t="s">
@@ -19042,7 +18598,7 @@
       <c r="A441" t="s">
         <v>490</v>
       </c>
-      <c r="B441" s="25">
+      <c r="B441" s="2">
         <v>42427</v>
       </c>
       <c r="C441" t="s">
@@ -19053,7 +18609,7 @@
       <c r="A442" t="s">
         <v>491</v>
       </c>
-      <c r="B442" s="25">
+      <c r="B442" s="2">
         <v>42497</v>
       </c>
       <c r="C442" t="s">
@@ -19064,7 +18620,7 @@
       <c r="A443" t="s">
         <v>492</v>
       </c>
-      <c r="B443" s="25">
+      <c r="B443" s="2">
         <v>42448</v>
       </c>
       <c r="C443" t="s">
@@ -19075,7 +18631,7 @@
       <c r="A444" t="s">
         <v>493</v>
       </c>
-      <c r="B444" s="25">
+      <c r="B444" s="2">
         <v>42546</v>
       </c>
       <c r="C444" t="s">
@@ -19086,7 +18642,7 @@
       <c r="A445" t="s">
         <v>494</v>
       </c>
-      <c r="B445" s="25">
+      <c r="B445" s="2">
         <v>42476</v>
       </c>
       <c r="C445" t="s">
@@ -19097,7 +18653,7 @@
       <c r="A446" t="s">
         <v>495</v>
       </c>
-      <c r="B446" s="25">
+      <c r="B446" s="2">
         <v>42392</v>
       </c>
       <c r="C446" t="s">
@@ -19108,7 +18664,7 @@
       <c r="A447" t="s">
         <v>496</v>
       </c>
-      <c r="B447" s="25">
+      <c r="B447" s="2">
         <v>42609</v>
       </c>
       <c r="C447" t="s">
@@ -19119,7 +18675,7 @@
       <c r="A448" t="s">
         <v>497</v>
       </c>
-      <c r="B448" s="25">
+      <c r="B448" s="2">
         <v>42413</v>
       </c>
       <c r="C448" t="s">
@@ -19130,7 +18686,7 @@
       <c r="A449" t="s">
         <v>498</v>
       </c>
-      <c r="B449" s="25">
+      <c r="B449" s="2">
         <v>42560</v>
       </c>
       <c r="C449" t="s">
@@ -19141,7 +18697,7 @@
       <c r="A450" t="s">
         <v>499</v>
       </c>
-      <c r="B450" s="25">
+      <c r="B450" s="2">
         <v>42511</v>
       </c>
       <c r="C450" t="s">
@@ -19152,7 +18708,7 @@
       <c r="A451" t="s">
         <v>500</v>
       </c>
-      <c r="B451" s="25">
+      <c r="B451" s="2">
         <v>42476</v>
       </c>
       <c r="C451" t="s">
@@ -19163,7 +18719,7 @@
       <c r="A452" t="s">
         <v>501</v>
       </c>
-      <c r="B452" s="25">
+      <c r="B452" s="2">
         <v>42546</v>
       </c>
       <c r="C452" t="s">
@@ -19174,7 +18730,7 @@
       <c r="A453" t="s">
         <v>502</v>
       </c>
-      <c r="B453" s="25">
+      <c r="B453" s="2">
         <v>42637</v>
       </c>
       <c r="C453" t="s">
@@ -19185,7 +18741,7 @@
       <c r="A454" t="s">
         <v>503</v>
       </c>
-      <c r="B454" s="25">
+      <c r="B454" s="2">
         <v>42413</v>
       </c>
       <c r="C454" t="s">
@@ -19196,7 +18752,7 @@
       <c r="A455" t="s">
         <v>504</v>
       </c>
-      <c r="B455" s="25">
+      <c r="B455" s="2">
         <v>42476</v>
       </c>
       <c r="C455" t="s">
@@ -19207,7 +18763,7 @@
       <c r="A456" t="s">
         <v>505</v>
       </c>
-      <c r="B456" s="25">
+      <c r="B456" s="2">
         <v>42434</v>
       </c>
       <c r="C456" t="s">
@@ -19218,7 +18774,7 @@
       <c r="A457" t="s">
         <v>506</v>
       </c>
-      <c r="B457" s="25">
+      <c r="B457" s="2">
         <v>42630</v>
       </c>
       <c r="C457" t="s">
@@ -19229,7 +18785,7 @@
       <c r="A458" t="s">
         <v>507</v>
       </c>
-      <c r="B458" s="25">
+      <c r="B458" s="2">
         <v>42378</v>
       </c>
       <c r="C458" t="s">
@@ -19240,7 +18796,7 @@
       <c r="A459" t="s">
         <v>508</v>
       </c>
-      <c r="B459" s="25">
+      <c r="B459" s="2">
         <v>42483</v>
       </c>
       <c r="C459" t="s">
@@ -19251,7 +18807,7 @@
       <c r="A460" t="s">
         <v>509</v>
       </c>
-      <c r="B460" s="25">
+      <c r="B460" s="2">
         <v>42546</v>
       </c>
       <c r="C460" t="s">
@@ -19262,7 +18818,7 @@
       <c r="A461" t="s">
         <v>510</v>
       </c>
-      <c r="B461" s="25">
+      <c r="B461" s="2">
         <v>42616</v>
       </c>
       <c r="C461" t="s">
@@ -19273,7 +18829,7 @@
       <c r="A462" t="s">
         <v>511</v>
       </c>
-      <c r="B462" s="25">
+      <c r="B462" s="2">
         <v>42525</v>
       </c>
       <c r="C462" t="s">
@@ -19284,7 +18840,7 @@
       <c r="A463" t="s">
         <v>512</v>
       </c>
-      <c r="B463" s="25">
+      <c r="B463" s="2">
         <v>42623</v>
       </c>
       <c r="C463" t="s">
@@ -19295,7 +18851,7 @@
       <c r="A464" t="s">
         <v>513</v>
       </c>
-      <c r="B464" s="25">
+      <c r="B464" s="2">
         <v>42588</v>
       </c>
       <c r="C464" t="s">
@@ -19306,7 +18862,7 @@
       <c r="A465" t="s">
         <v>514</v>
       </c>
-      <c r="B465" s="25">
+      <c r="B465" s="2">
         <v>42413</v>
       </c>
       <c r="C465" t="s">
@@ -19317,7 +18873,7 @@
       <c r="A466" t="s">
         <v>515</v>
       </c>
-      <c r="B466" s="25">
+      <c r="B466" s="2">
         <v>42455</v>
       </c>
       <c r="C466" t="s">
@@ -19328,7 +18884,7 @@
       <c r="A467" t="s">
         <v>516</v>
       </c>
-      <c r="B467" s="25">
+      <c r="B467" s="2">
         <v>42595</v>
       </c>
       <c r="C467" t="s">
@@ -19339,7 +18895,7 @@
       <c r="A468" t="s">
         <v>517</v>
       </c>
-      <c r="B468" s="25">
+      <c r="B468" s="2">
         <v>42532</v>
       </c>
       <c r="C468" t="s">
@@ -19350,7 +18906,7 @@
       <c r="A469" t="s">
         <v>518</v>
       </c>
-      <c r="B469" s="25">
+      <c r="B469" s="2">
         <v>42476</v>
       </c>
       <c r="C469" t="s">
@@ -19361,7 +18917,7 @@
       <c r="A470" t="s">
         <v>519</v>
       </c>
-      <c r="B470" s="25">
+      <c r="B470" s="2">
         <v>42476</v>
       </c>
       <c r="C470" t="s">
@@ -19372,7 +18928,7 @@
       <c r="A471" t="s">
         <v>520</v>
       </c>
-      <c r="B471" s="25">
+      <c r="B471" s="2">
         <v>42602</v>
       </c>
       <c r="C471" t="s">
@@ -19383,7 +18939,7 @@
       <c r="A472" t="s">
         <v>521</v>
       </c>
-      <c r="B472" s="25">
+      <c r="B472" s="2">
         <v>42434</v>
       </c>
       <c r="C472" t="s">
@@ -19394,7 +18950,7 @@
       <c r="A473" t="s">
         <v>522</v>
       </c>
-      <c r="B473" s="25">
+      <c r="B473" s="2">
         <v>42441</v>
       </c>
       <c r="C473" t="s">
@@ -19405,7 +18961,7 @@
       <c r="A474" t="s">
         <v>523</v>
       </c>
-      <c r="B474" s="25">
+      <c r="B474" s="2">
         <v>42588</v>
       </c>
       <c r="C474" t="s">
@@ -19416,7 +18972,7 @@
       <c r="A475" t="s">
         <v>524</v>
       </c>
-      <c r="B475" s="25">
+      <c r="B475" s="2">
         <v>42427</v>
       </c>
       <c r="C475" t="s">
@@ -19427,7 +18983,7 @@
       <c r="A476" t="s">
         <v>525</v>
       </c>
-      <c r="B476" s="25">
+      <c r="B476" s="2">
         <v>42616</v>
       </c>
       <c r="C476" t="s">
@@ -19438,7 +18994,7 @@
       <c r="A477" t="s">
         <v>526</v>
       </c>
-      <c r="B477" s="25">
+      <c r="B477" s="2">
         <v>42441</v>
       </c>
       <c r="C477" t="s">
@@ -19449,7 +19005,7 @@
       <c r="A478" t="s">
         <v>527</v>
       </c>
-      <c r="B478" s="25">
+      <c r="B478" s="2">
         <v>42616</v>
       </c>
       <c r="C478" t="s">
@@ -19460,7 +19016,7 @@
       <c r="A479" t="s">
         <v>528</v>
       </c>
-      <c r="B479" s="25">
+      <c r="B479" s="2">
         <v>42483</v>
       </c>
       <c r="C479" t="s">
@@ -19471,7 +19027,7 @@
       <c r="A480" t="s">
         <v>529</v>
       </c>
-      <c r="B480" s="25">
+      <c r="B480" s="2">
         <v>42497</v>
       </c>
       <c r="C480" t="s">
@@ -19482,7 +19038,7 @@
       <c r="A481" t="s">
         <v>530</v>
       </c>
-      <c r="B481" s="25">
+      <c r="B481" s="2">
         <v>42455</v>
       </c>
       <c r="C481" t="s">
@@ -19493,7 +19049,7 @@
       <c r="A482" t="s">
         <v>531</v>
       </c>
-      <c r="B482" s="25">
+      <c r="B482" s="2">
         <v>42616</v>
       </c>
       <c r="C482" t="s">
@@ -19504,7 +19060,7 @@
       <c r="A483" t="s">
         <v>532</v>
       </c>
-      <c r="B483" s="25">
+      <c r="B483" s="2">
         <v>42378</v>
       </c>
       <c r="C483" t="s">
@@ -19515,7 +19071,7 @@
       <c r="A484" t="s">
         <v>533</v>
       </c>
-      <c r="B484" s="25">
+      <c r="B484" s="2">
         <v>42637</v>
       </c>
       <c r="C484" t="s">
@@ -19526,7 +19082,7 @@
       <c r="A485" t="s">
         <v>534</v>
       </c>
-      <c r="B485" s="25">
+      <c r="B485" s="2">
         <v>42595</v>
       </c>
       <c r="C485" t="s">
@@ -19537,7 +19093,7 @@
       <c r="A486" t="s">
         <v>535</v>
       </c>
-      <c r="B486" s="25">
+      <c r="B486" s="2">
         <v>42630</v>
       </c>
       <c r="C486" t="s">
@@ -19548,7 +19104,7 @@
       <c r="A487" t="s">
         <v>536</v>
       </c>
-      <c r="B487" s="25">
+      <c r="B487" s="2">
         <v>42497</v>
       </c>
       <c r="C487" t="s">
@@ -19559,7 +19115,7 @@
       <c r="A488" t="s">
         <v>537</v>
       </c>
-      <c r="B488" s="25">
+      <c r="B488" s="2">
         <v>42406</v>
       </c>
       <c r="C488" t="s">
@@ -19570,7 +19126,7 @@
       <c r="A489" t="s">
         <v>538</v>
       </c>
-      <c r="B489" s="25">
+      <c r="B489" s="2">
         <v>42483</v>
       </c>
       <c r="C489" t="s">
@@ -19581,7 +19137,7 @@
       <c r="A490" t="s">
         <v>539</v>
       </c>
-      <c r="B490" s="25">
+      <c r="B490" s="2">
         <v>42553</v>
       </c>
       <c r="C490" t="s">
@@ -19592,7 +19148,7 @@
       <c r="A491" t="s">
         <v>540</v>
       </c>
-      <c r="B491" s="25">
+      <c r="B491" s="2">
         <v>42525</v>
       </c>
       <c r="C491" t="s">
@@ -19603,7 +19159,7 @@
       <c r="A492" t="s">
         <v>541</v>
       </c>
-      <c r="B492" s="25">
+      <c r="B492" s="2">
         <v>42532</v>
       </c>
       <c r="C492" t="s">
@@ -19614,7 +19170,7 @@
       <c r="A493" t="s">
         <v>542</v>
       </c>
-      <c r="B493" s="25">
+      <c r="B493" s="2">
         <v>42553</v>
       </c>
       <c r="C493" t="s">
@@ -19625,7 +19181,7 @@
       <c r="A494" t="s">
         <v>543</v>
       </c>
-      <c r="B494" s="25">
+      <c r="B494" s="2">
         <v>42588</v>
       </c>
       <c r="C494" t="s">
@@ -19636,7 +19192,7 @@
       <c r="A495" t="s">
         <v>544</v>
       </c>
-      <c r="B495" s="25">
+      <c r="B495" s="2">
         <v>42567</v>
       </c>
       <c r="C495" t="s">
@@ -19647,7 +19203,7 @@
       <c r="A496" t="s">
         <v>545</v>
       </c>
-      <c r="B496" s="25">
+      <c r="B496" s="2">
         <v>42602</v>
       </c>
       <c r="C496" t="s">
@@ -19658,7 +19214,7 @@
       <c r="A497" t="s">
         <v>546</v>
       </c>
-      <c r="B497" s="25">
+      <c r="B497" s="2">
         <v>42532</v>
       </c>
       <c r="C497" t="s">
@@ -19669,7 +19225,7 @@
       <c r="A498" t="s">
         <v>547</v>
       </c>
-      <c r="B498" s="25">
+      <c r="B498" s="2">
         <v>42490</v>
       </c>
       <c r="C498" t="s">
@@ -19680,7 +19236,7 @@
       <c r="A499" t="s">
         <v>548</v>
       </c>
-      <c r="B499" s="25">
+      <c r="B499" s="2">
         <v>42546</v>
       </c>
       <c r="C499" t="s">
@@ -19691,7 +19247,7 @@
       <c r="A500" t="s">
         <v>549</v>
       </c>
-      <c r="B500" s="25">
+      <c r="B500" s="2">
         <v>42609</v>
       </c>
       <c r="C500" t="s">
@@ -19702,7 +19258,7 @@
       <c r="A501" t="s">
         <v>550</v>
       </c>
-      <c r="B501" s="25">
+      <c r="B501" s="2">
         <v>42399</v>
       </c>
       <c r="C501" t="s">
@@ -19713,7 +19269,7 @@
       <c r="A502" t="s">
         <v>551</v>
       </c>
-      <c r="B502" s="25">
+      <c r="B502" s="2">
         <v>42560</v>
       </c>
       <c r="C502" t="s">
@@ -19724,7 +19280,7 @@
       <c r="A503" t="s">
         <v>552</v>
       </c>
-      <c r="B503" s="25">
+      <c r="B503" s="2">
         <v>42455</v>
       </c>
       <c r="C503" t="s">
@@ -19735,7 +19291,7 @@
       <c r="A504" t="s">
         <v>553</v>
       </c>
-      <c r="B504" s="25">
+      <c r="B504" s="2">
         <v>42623</v>
       </c>
       <c r="C504" t="s">
@@ -19746,7 +19302,7 @@
       <c r="A505" t="s">
         <v>554</v>
       </c>
-      <c r="B505" s="25">
+      <c r="B505" s="2">
         <v>42462</v>
       </c>
       <c r="C505" t="s">
@@ -19757,7 +19313,7 @@
       <c r="A506" t="s">
         <v>555</v>
       </c>
-      <c r="B506" s="25">
+      <c r="B506" s="2">
         <v>42448</v>
       </c>
       <c r="C506" t="s">
@@ -19768,7 +19324,7 @@
       <c r="A507" t="s">
         <v>556</v>
       </c>
-      <c r="B507" s="25">
+      <c r="B507" s="2">
         <v>42385</v>
       </c>
       <c r="C507" t="s">
@@ -19779,7 +19335,7 @@
       <c r="A508" t="s">
         <v>557</v>
       </c>
-      <c r="B508" s="25">
+      <c r="B508" s="2">
         <v>42560</v>
       </c>
       <c r="C508" t="s">
@@ -19790,7 +19346,7 @@
       <c r="A509" t="s">
         <v>558</v>
       </c>
-      <c r="B509" s="25">
+      <c r="B509" s="2">
         <v>42504</v>
       </c>
       <c r="C509" t="s">
@@ -19801,7 +19357,7 @@
       <c r="A510" t="s">
         <v>559</v>
       </c>
-      <c r="B510" s="25">
+      <c r="B510" s="2">
         <v>42532</v>
       </c>
       <c r="C510" t="s">
@@ -19812,7 +19368,7 @@
       <c r="A511" t="s">
         <v>560</v>
       </c>
-      <c r="B511" s="25">
+      <c r="B511" s="2">
         <v>42462</v>
       </c>
       <c r="C511" t="s">
@@ -19823,7 +19379,7 @@
       <c r="A512" t="s">
         <v>561</v>
       </c>
-      <c r="B512" s="25">
+      <c r="B512" s="2">
         <v>42413</v>
       </c>
       <c r="C512" t="s">
@@ -19834,7 +19390,7 @@
       <c r="A513" t="s">
         <v>562</v>
       </c>
-      <c r="B513" s="25">
+      <c r="B513" s="2">
         <v>42406</v>
       </c>
       <c r="C513" t="s">
@@ -19845,7 +19401,7 @@
       <c r="A514" t="s">
         <v>563</v>
       </c>
-      <c r="B514" s="25">
+      <c r="B514" s="2">
         <v>42630</v>
       </c>
       <c r="C514" t="s">
@@ -19856,7 +19412,7 @@
       <c r="A515" t="s">
         <v>564</v>
       </c>
-      <c r="B515" s="25">
+      <c r="B515" s="2">
         <v>42504</v>
       </c>
       <c r="C515" t="s">
@@ -19867,7 +19423,7 @@
       <c r="A516" t="s">
         <v>565</v>
       </c>
-      <c r="B516" s="25">
+      <c r="B516" s="2">
         <v>42511</v>
       </c>
       <c r="C516" t="s">
@@ -19878,7 +19434,7 @@
       <c r="A517" t="s">
         <v>566</v>
       </c>
-      <c r="B517" s="25">
+      <c r="B517" s="2">
         <v>42462</v>
       </c>
       <c r="C517" t="s">
@@ -19889,7 +19445,7 @@
       <c r="A518" t="s">
         <v>567</v>
       </c>
-      <c r="B518" s="25">
+      <c r="B518" s="2">
         <v>42385</v>
       </c>
       <c r="C518" t="s">
@@ -19900,7 +19456,7 @@
       <c r="A519" t="s">
         <v>568</v>
       </c>
-      <c r="B519" s="25">
+      <c r="B519" s="2">
         <v>42385</v>
       </c>
       <c r="C519" t="s">
@@ -19911,7 +19467,7 @@
       <c r="A520" t="s">
         <v>569</v>
       </c>
-      <c r="B520" s="25">
+      <c r="B520" s="2">
         <v>42588</v>
       </c>
       <c r="C520" t="s">
@@ -19922,7 +19478,7 @@
       <c r="A521" t="s">
         <v>570</v>
       </c>
-      <c r="B521" s="25">
+      <c r="B521" s="2">
         <v>42525</v>
       </c>
       <c r="C521" t="s">
@@ -19933,7 +19489,7 @@
       <c r="A522" t="s">
         <v>571</v>
       </c>
-      <c r="B522" s="25">
+      <c r="B522" s="2">
         <v>42441</v>
       </c>
       <c r="C522" t="s">
@@ -19944,7 +19500,7 @@
       <c r="A523" t="s">
         <v>572</v>
       </c>
-      <c r="B523" s="25">
+      <c r="B523" s="2">
         <v>42406</v>
       </c>
       <c r="C523" t="s">
@@ -19955,7 +19511,7 @@
       <c r="A524" t="s">
         <v>573</v>
       </c>
-      <c r="B524" s="25">
+      <c r="B524" s="2">
         <v>42595</v>
       </c>
       <c r="C524" t="s">
@@ -19966,7 +19522,7 @@
       <c r="A525" t="s">
         <v>574</v>
       </c>
-      <c r="B525" s="25">
+      <c r="B525" s="2">
         <v>42553</v>
       </c>
       <c r="C525" t="s">
@@ -19977,7 +19533,7 @@
       <c r="A526" t="s">
         <v>575</v>
       </c>
-      <c r="B526" s="25">
+      <c r="B526" s="2">
         <v>42623</v>
       </c>
       <c r="C526" t="s">
@@ -19988,7 +19544,7 @@
       <c r="A527" t="s">
         <v>576</v>
       </c>
-      <c r="B527" s="25">
+      <c r="B527" s="2">
         <v>42434</v>
       </c>
       <c r="C527" t="s">
@@ -19999,7 +19555,7 @@
       <c r="A528" t="s">
         <v>577</v>
       </c>
-      <c r="B528" s="25">
+      <c r="B528" s="2">
         <v>42574</v>
       </c>
       <c r="C528" t="s">
@@ -20010,7 +19566,7 @@
       <c r="A529" t="s">
         <v>578</v>
       </c>
-      <c r="B529" s="25">
+      <c r="B529" s="2">
         <v>42630</v>
       </c>
       <c r="C529" t="s">
@@ -20021,7 +19577,7 @@
       <c r="A530" t="s">
         <v>579</v>
       </c>
-      <c r="B530" s="25">
+      <c r="B530" s="2">
         <v>42532</v>
       </c>
       <c r="C530" t="s">
@@ -20032,7 +19588,7 @@
       <c r="A531" t="s">
         <v>580</v>
       </c>
-      <c r="B531" s="25">
+      <c r="B531" s="2">
         <v>42546</v>
       </c>
       <c r="C531" t="s">
@@ -20043,7 +19599,7 @@
       <c r="A532" t="s">
         <v>581</v>
       </c>
-      <c r="B532" s="25">
+      <c r="B532" s="2">
         <v>42490</v>
       </c>
       <c r="C532" t="s">
@@ -20054,7 +19610,7 @@
       <c r="A533" t="s">
         <v>582</v>
       </c>
-      <c r="B533" s="25">
+      <c r="B533" s="2">
         <v>42413</v>
       </c>
       <c r="C533" t="s">
@@ -20065,7 +19621,7 @@
       <c r="A534" t="s">
         <v>583</v>
       </c>
-      <c r="B534" s="25">
+      <c r="B534" s="2">
         <v>42371</v>
       </c>
       <c r="C534" t="s">
@@ -20076,7 +19632,7 @@
       <c r="A535" t="s">
         <v>584</v>
       </c>
-      <c r="B535" s="25">
+      <c r="B535" s="2">
         <v>42609</v>
       </c>
       <c r="C535" t="s">
@@ -20087,7 +19643,7 @@
       <c r="A536" t="s">
         <v>585</v>
       </c>
-      <c r="B536" s="25">
+      <c r="B536" s="2">
         <v>42581</v>
       </c>
       <c r="C536" t="s">
@@ -20098,7 +19654,7 @@
       <c r="A537" t="s">
         <v>586</v>
       </c>
-      <c r="B537" s="25">
+      <c r="B537" s="2">
         <v>42420</v>
       </c>
       <c r="C537" t="s">
@@ -20109,7 +19665,7 @@
       <c r="A538" t="s">
         <v>587</v>
       </c>
-      <c r="B538" s="25">
+      <c r="B538" s="2">
         <v>42546</v>
       </c>
       <c r="C538" t="s">
@@ -20120,7 +19676,7 @@
       <c r="A539" t="s">
         <v>588</v>
       </c>
-      <c r="B539" s="25">
+      <c r="B539" s="2">
         <v>42602</v>
       </c>
       <c r="C539" t="s">
@@ -20131,7 +19687,7 @@
       <c r="A540" t="s">
         <v>589</v>
       </c>
-      <c r="B540" s="25">
+      <c r="B540" s="2">
         <v>42609</v>
       </c>
       <c r="C540" t="s">
@@ -20142,7 +19698,7 @@
       <c r="A541" t="s">
         <v>590</v>
       </c>
-      <c r="B541" s="25">
+      <c r="B541" s="2">
         <v>42469</v>
       </c>
       <c r="C541" t="s">
@@ -20153,7 +19709,7 @@
       <c r="A542" t="s">
         <v>591</v>
       </c>
-      <c r="B542" s="25">
+      <c r="B542" s="2">
         <v>42532</v>
       </c>
       <c r="C542" t="s">
@@ -20164,7 +19720,7 @@
       <c r="A543" t="s">
         <v>592</v>
       </c>
-      <c r="B543" s="25">
+      <c r="B543" s="2">
         <v>42469</v>
       </c>
       <c r="C543" t="s">
@@ -20175,7 +19731,7 @@
       <c r="A544" t="s">
         <v>593</v>
       </c>
-      <c r="B544" s="25">
+      <c r="B544" s="2">
         <v>42434</v>
       </c>
       <c r="C544" t="s">
@@ -20186,7 +19742,7 @@
       <c r="A545" t="s">
         <v>594</v>
       </c>
-      <c r="B545" s="25">
+      <c r="B545" s="2">
         <v>42434</v>
       </c>
       <c r="C545" t="s">
@@ -20197,7 +19753,7 @@
       <c r="A546" t="s">
         <v>595</v>
       </c>
-      <c r="B546" s="25">
+      <c r="B546" s="2">
         <v>42476</v>
       </c>
       <c r="C546" t="s">
@@ -20208,7 +19764,7 @@
       <c r="A547" t="s">
         <v>596</v>
       </c>
-      <c r="B547" s="25">
+      <c r="B547" s="2">
         <v>42637</v>
       </c>
       <c r="C547" t="s">
@@ -20219,7 +19775,7 @@
       <c r="A548" t="s">
         <v>597</v>
       </c>
-      <c r="B548" s="25">
+      <c r="B548" s="2">
         <v>42434</v>
       </c>
       <c r="C548" t="s">
@@ -20230,7 +19786,7 @@
       <c r="A549" t="s">
         <v>598</v>
       </c>
-      <c r="B549" s="25">
+      <c r="B549" s="2">
         <v>42399</v>
       </c>
       <c r="C549" t="s">
@@ -20241,7 +19797,7 @@
       <c r="A550" t="s">
         <v>599</v>
       </c>
-      <c r="B550" s="25">
+      <c r="B550" s="2">
         <v>42385</v>
       </c>
       <c r="C550" t="s">
@@ -20252,7 +19808,7 @@
       <c r="A551" t="s">
         <v>600</v>
       </c>
-      <c r="B551" s="25">
+      <c r="B551" s="2">
         <v>42448</v>
       </c>
       <c r="C551" t="s">
@@ -20263,7 +19819,7 @@
       <c r="A552" t="s">
         <v>601</v>
       </c>
-      <c r="B552" s="25">
+      <c r="B552" s="2">
         <v>42511</v>
       </c>
       <c r="C552" t="s">
@@ -20274,7 +19830,7 @@
       <c r="A553" t="s">
         <v>602</v>
       </c>
-      <c r="B553" s="25">
+      <c r="B553" s="2">
         <v>42385</v>
       </c>
       <c r="C553" t="s">
@@ -20285,7 +19841,7 @@
       <c r="A554" t="s">
         <v>603</v>
       </c>
-      <c r="B554" s="25">
+      <c r="B554" s="2">
         <v>42371</v>
       </c>
       <c r="C554" t="s">
@@ -20296,7 +19852,7 @@
       <c r="A555" t="s">
         <v>604</v>
       </c>
-      <c r="B555" s="25">
+      <c r="B555" s="2">
         <v>42392</v>
       </c>
       <c r="C555" t="s">
@@ -20307,7 +19863,7 @@
       <c r="A556" t="s">
         <v>605</v>
       </c>
-      <c r="B556" s="25">
+      <c r="B556" s="2">
         <v>42525</v>
       </c>
       <c r="C556" t="s">
@@ -20318,7 +19874,7 @@
       <c r="A557" t="s">
         <v>606</v>
       </c>
-      <c r="B557" s="25">
+      <c r="B557" s="2">
         <v>42455</v>
       </c>
       <c r="C557" t="s">
@@ -20329,7 +19885,7 @@
       <c r="A558" t="s">
         <v>607</v>
       </c>
-      <c r="B558" s="25">
+      <c r="B558" s="2">
         <v>42518</v>
       </c>
       <c r="C558" t="s">
@@ -20340,7 +19896,7 @@
       <c r="A559" t="s">
         <v>608</v>
       </c>
-      <c r="B559" s="25">
+      <c r="B559" s="2">
         <v>42406</v>
       </c>
       <c r="C559" t="s">
@@ -20351,7 +19907,7 @@
       <c r="A560" t="s">
         <v>609</v>
       </c>
-      <c r="B560" s="25">
+      <c r="B560" s="2">
         <v>42567</v>
       </c>
       <c r="C560" t="s">
@@ -20362,7 +19918,7 @@
       <c r="A561" t="s">
         <v>610</v>
       </c>
-      <c r="B561" s="25">
+      <c r="B561" s="2">
         <v>42602</v>
       </c>
       <c r="C561" t="s">
@@ -20373,7 +19929,7 @@
       <c r="A562" t="s">
         <v>611</v>
       </c>
-      <c r="B562" s="25">
+      <c r="B562" s="2">
         <v>42511</v>
       </c>
       <c r="C562" t="s">
@@ -20384,7 +19940,7 @@
       <c r="A563" t="s">
         <v>612</v>
       </c>
-      <c r="B563" s="25">
+      <c r="B563" s="2">
         <v>42420</v>
       </c>
       <c r="C563" t="s">
@@ -20395,7 +19951,7 @@
       <c r="A564" t="s">
         <v>613</v>
       </c>
-      <c r="B564" s="25">
+      <c r="B564" s="2">
         <v>42469</v>
       </c>
       <c r="C564" t="s">
@@ -20406,7 +19962,7 @@
       <c r="A565" t="s">
         <v>614</v>
       </c>
-      <c r="B565" s="25">
+      <c r="B565" s="2">
         <v>42427</v>
       </c>
       <c r="C565" t="s">
@@ -20417,7 +19973,7 @@
       <c r="A566" t="s">
         <v>615</v>
       </c>
-      <c r="B566" s="25">
+      <c r="B566" s="2">
         <v>42441</v>
       </c>
       <c r="C566" t="s">
@@ -20428,7 +19984,7 @@
       <c r="A567" t="s">
         <v>616</v>
       </c>
-      <c r="B567" s="25">
+      <c r="B567" s="2">
         <v>42630</v>
       </c>
       <c r="C567" t="s">
@@ -20439,7 +19995,7 @@
       <c r="A568" t="s">
         <v>617</v>
       </c>
-      <c r="B568" s="25">
+      <c r="B568" s="2">
         <v>42567</v>
       </c>
       <c r="C568" t="s">
@@ -20450,7 +20006,7 @@
       <c r="A569" t="s">
         <v>618</v>
       </c>
-      <c r="B569" s="25">
+      <c r="B569" s="2">
         <v>42504</v>
       </c>
       <c r="C569" t="s">
@@ -20461,7 +20017,7 @@
       <c r="A570" t="s">
         <v>619</v>
       </c>
-      <c r="B570" s="25">
+      <c r="B570" s="2">
         <v>42630</v>
       </c>
       <c r="C570" t="s">
@@ -20472,7 +20028,7 @@
       <c r="A571" t="s">
         <v>620</v>
       </c>
-      <c r="B571" s="25">
+      <c r="B571" s="2">
         <v>42455</v>
       </c>
       <c r="C571" t="s">
@@ -20483,7 +20039,7 @@
       <c r="A572" t="s">
         <v>621</v>
       </c>
-      <c r="B572" s="25">
+      <c r="B572" s="2">
         <v>42595</v>
       </c>
       <c r="C572" t="s">
@@ -20494,7 +20050,7 @@
       <c r="A573" t="s">
         <v>622</v>
       </c>
-      <c r="B573" s="25">
+      <c r="B573" s="2">
         <v>42567</v>
       </c>
       <c r="C573" t="s">
@@ -20505,7 +20061,7 @@
       <c r="A574" t="s">
         <v>623</v>
       </c>
-      <c r="B574" s="25">
+      <c r="B574" s="2">
         <v>42567</v>
       </c>
       <c r="C574" t="s">
@@ -20516,7 +20072,7 @@
       <c r="A575" t="s">
         <v>624</v>
       </c>
-      <c r="B575" s="25">
+      <c r="B575" s="2">
         <v>42567</v>
       </c>
       <c r="C575" t="s">
@@ -20527,7 +20083,7 @@
       <c r="A576" t="s">
         <v>625</v>
       </c>
-      <c r="B576" s="25">
+      <c r="B576" s="2">
         <v>42623</v>
       </c>
       <c r="C576" t="s">
@@ -20538,7 +20094,7 @@
       <c r="A577" t="s">
         <v>626</v>
       </c>
-      <c r="B577" s="25">
+      <c r="B577" s="2">
         <v>42420</v>
       </c>
       <c r="C577" t="s">
@@ -20549,7 +20105,7 @@
       <c r="A578" t="s">
         <v>627</v>
       </c>
-      <c r="B578" s="25">
+      <c r="B578" s="2">
         <v>42637</v>
       </c>
       <c r="C578" t="s">
@@ -20560,7 +20116,7 @@
       <c r="A579" t="s">
         <v>628</v>
       </c>
-      <c r="B579" s="25">
+      <c r="B579" s="2">
         <v>42588</v>
       </c>
       <c r="C579" t="s">
@@ -20571,7 +20127,7 @@
       <c r="A580" t="s">
         <v>629</v>
       </c>
-      <c r="B580" s="25">
+      <c r="B580" s="2">
         <v>42420</v>
       </c>
       <c r="C580" t="s">
@@ -20582,7 +20138,7 @@
       <c r="A581" t="s">
         <v>630</v>
       </c>
-      <c r="B581" s="25">
+      <c r="B581" s="2">
         <v>42462</v>
       </c>
       <c r="C581" t="s">
@@ -20593,7 +20149,7 @@
       <c r="A582" t="s">
         <v>631</v>
       </c>
-      <c r="B582" s="25">
+      <c r="B582" s="2">
         <v>42560</v>
       </c>
       <c r="C582" t="s">
@@ -20604,7 +20160,7 @@
       <c r="A583" t="s">
         <v>632</v>
       </c>
-      <c r="B583" s="25">
+      <c r="B583" s="2">
         <v>42588</v>
       </c>
       <c r="C583" t="s">
@@ -20615,7 +20171,7 @@
       <c r="A584" t="s">
         <v>633</v>
       </c>
-      <c r="B584" s="25">
+      <c r="B584" s="2">
         <v>42378</v>
       </c>
       <c r="C584" t="s">
@@ -20626,7 +20182,7 @@
       <c r="A585" t="s">
         <v>634</v>
       </c>
-      <c r="B585" s="25">
+      <c r="B585" s="2">
         <v>42434</v>
       </c>
       <c r="C585" t="s">
@@ -20637,7 +20193,7 @@
       <c r="A586" t="s">
         <v>635</v>
       </c>
-      <c r="B586" s="25">
+      <c r="B586" s="2">
         <v>42413</v>
       </c>
       <c r="C586" t="s">
@@ -20648,7 +20204,7 @@
       <c r="A587" t="s">
         <v>636</v>
       </c>
-      <c r="B587" s="25">
+      <c r="B587" s="2">
         <v>42462</v>
       </c>
       <c r="C587" t="s">
@@ -20659,7 +20215,7 @@
       <c r="A588" t="s">
         <v>637</v>
       </c>
-      <c r="B588" s="25">
+      <c r="B588" s="2">
         <v>42588</v>
       </c>
       <c r="C588" t="s">
@@ -20670,7 +20226,7 @@
       <c r="A589" t="s">
         <v>638</v>
       </c>
-      <c r="B589" s="25">
+      <c r="B589" s="2">
         <v>42371</v>
       </c>
       <c r="C589" t="s">
@@ -20681,7 +20237,7 @@
       <c r="A590" t="s">
         <v>639</v>
       </c>
-      <c r="B590" s="25">
+      <c r="B590" s="2">
         <v>42434</v>
       </c>
       <c r="C590" t="s">
@@ -20692,7 +20248,7 @@
       <c r="A591" t="s">
         <v>640</v>
       </c>
-      <c r="B591" s="25">
+      <c r="B591" s="2">
         <v>42553</v>
       </c>
       <c r="C591" t="s">
@@ -20703,7 +20259,7 @@
       <c r="A592" t="s">
         <v>641</v>
       </c>
-      <c r="B592" s="25">
+      <c r="B592" s="2">
         <v>42504</v>
       </c>
       <c r="C592" t="s">
@@ -20714,7 +20270,7 @@
       <c r="A593" t="s">
         <v>642</v>
       </c>
-      <c r="B593" s="25">
+      <c r="B593" s="2">
         <v>42539</v>
       </c>
       <c r="C593" t="s">
@@ -20725,7 +20281,7 @@
       <c r="A594" t="s">
         <v>643</v>
       </c>
-      <c r="B594" s="25">
+      <c r="B594" s="2">
         <v>42525</v>
       </c>
       <c r="C594" t="s">
@@ -20736,7 +20292,7 @@
       <c r="A595" t="s">
         <v>644</v>
       </c>
-      <c r="B595" s="25">
+      <c r="B595" s="2">
         <v>42371</v>
       </c>
       <c r="C595" t="s">
@@ -20747,7 +20303,7 @@
       <c r="A596" t="s">
         <v>645</v>
       </c>
-      <c r="B596" s="25">
+      <c r="B596" s="2">
         <v>42567</v>
       </c>
       <c r="C596" t="s">
@@ -20758,7 +20314,7 @@
       <c r="A597" t="s">
         <v>646</v>
       </c>
-      <c r="B597" s="25">
+      <c r="B597" s="2">
         <v>42476</v>
       </c>
       <c r="C597" t="s">
@@ -20769,7 +20325,7 @@
       <c r="A598" t="s">
         <v>647</v>
       </c>
-      <c r="B598" s="25">
+      <c r="B598" s="2">
         <v>42462</v>
       </c>
       <c r="C598" t="s">
@@ -20780,7 +20336,7 @@
       <c r="A599" t="s">
         <v>648</v>
       </c>
-      <c r="B599" s="25">
+      <c r="B599" s="2">
         <v>42406</v>
       </c>
       <c r="C599" t="s">
@@ -20791,7 +20347,7 @@
       <c r="A600" t="s">
         <v>649</v>
       </c>
-      <c r="B600" s="25">
+      <c r="B600" s="2">
         <v>42553</v>
       </c>
       <c r="C600" t="s">
@@ -20802,7 +20358,7 @@
       <c r="A601" t="s">
         <v>650</v>
       </c>
-      <c r="B601" s="25">
+      <c r="B601" s="2">
         <v>42448</v>
       </c>
       <c r="C601" t="s">
@@ -20813,7 +20369,7 @@
       <c r="A602" t="s">
         <v>651</v>
       </c>
-      <c r="B602" s="25">
+      <c r="B602" s="2">
         <v>42539</v>
       </c>
       <c r="C602" t="s">
@@ -20824,7 +20380,7 @@
       <c r="A603" t="s">
         <v>652</v>
       </c>
-      <c r="B603" s="25">
+      <c r="B603" s="2">
         <v>42518</v>
       </c>
       <c r="C603" t="s">
@@ -20835,7 +20391,7 @@
       <c r="A604" t="s">
         <v>653</v>
       </c>
-      <c r="B604" s="25">
+      <c r="B604" s="2">
         <v>42476</v>
       </c>
       <c r="C604" t="s">
@@ -20846,7 +20402,7 @@
       <c r="A605" t="s">
         <v>654</v>
       </c>
-      <c r="B605" s="25">
+      <c r="B605" s="2">
         <v>42455</v>
       </c>
       <c r="C605" t="s">
@@ -20857,7 +20413,7 @@
       <c r="A606" t="s">
         <v>655</v>
       </c>
-      <c r="B606" s="25">
+      <c r="B606" s="2">
         <v>42420</v>
       </c>
       <c r="C606" t="s">
@@ -20868,7 +20424,7 @@
       <c r="A607" t="s">
         <v>656</v>
       </c>
-      <c r="B607" s="25">
+      <c r="B607" s="2">
         <v>42588</v>
       </c>
       <c r="C607" t="s">
@@ -20879,7 +20435,7 @@
       <c r="A608" t="s">
         <v>657</v>
       </c>
-      <c r="B608" s="25">
+      <c r="B608" s="2">
         <v>42462</v>
       </c>
       <c r="C608" t="s">
@@ -20890,7 +20446,7 @@
       <c r="A609" t="s">
         <v>658</v>
       </c>
-      <c r="B609" s="25">
+      <c r="B609" s="2">
         <v>42525</v>
       </c>
       <c r="C609" t="s">
@@ -20901,7 +20457,7 @@
       <c r="A610" t="s">
         <v>659</v>
       </c>
-      <c r="B610" s="25">
+      <c r="B610" s="2">
         <v>42497</v>
       </c>
       <c r="C610" t="s">
@@ -20912,7 +20468,7 @@
       <c r="A611" t="s">
         <v>660</v>
       </c>
-      <c r="B611" s="25">
+      <c r="B611" s="2">
         <v>42539</v>
       </c>
       <c r="C611" t="s">
@@ -20923,7 +20479,7 @@
       <c r="A612" t="s">
         <v>661</v>
       </c>
-      <c r="B612" s="25">
+      <c r="B612" s="2">
         <v>42518</v>
       </c>
       <c r="C612" t="s">
@@ -20934,7 +20490,7 @@
       <c r="A613" t="s">
         <v>662</v>
       </c>
-      <c r="B613" s="25">
+      <c r="B613" s="2">
         <v>42385</v>
       </c>
       <c r="C613" t="s">
@@ -20945,7 +20501,7 @@
       <c r="A614" t="s">
         <v>663</v>
       </c>
-      <c r="B614" s="25">
+      <c r="B614" s="2">
         <v>42511</v>
       </c>
       <c r="C614" t="s">
@@ -20956,7 +20512,7 @@
       <c r="A615" t="s">
         <v>664</v>
       </c>
-      <c r="B615" s="25">
+      <c r="B615" s="2">
         <v>42525</v>
       </c>
       <c r="C615" t="s">
@@ -20967,7 +20523,7 @@
       <c r="A616" t="s">
         <v>665</v>
       </c>
-      <c r="B616" s="25">
+      <c r="B616" s="2">
         <v>42441</v>
       </c>
       <c r="C616" t="s">
@@ -20978,7 +20534,7 @@
       <c r="A617" t="s">
         <v>666</v>
       </c>
-      <c r="B617" s="25">
+      <c r="B617" s="2">
         <v>42630</v>
       </c>
       <c r="C617" t="s">
@@ -20989,7 +20545,7 @@
       <c r="A618" t="s">
         <v>667</v>
       </c>
-      <c r="B618" s="25">
+      <c r="B618" s="2">
         <v>42574</v>
       </c>
       <c r="C618" t="s">
@@ -21000,7 +20556,7 @@
       <c r="A619" t="s">
         <v>668</v>
       </c>
-      <c r="B619" s="25">
+      <c r="B619" s="2">
         <v>42406</v>
       </c>
       <c r="C619" t="s">
@@ -21011,7 +20567,7 @@
       <c r="A620" t="s">
         <v>669</v>
       </c>
-      <c r="B620" s="25">
+      <c r="B620" s="2">
         <v>42630</v>
       </c>
       <c r="C620" t="s">
@@ -21022,7 +20578,7 @@
       <c r="A621" t="s">
         <v>670</v>
       </c>
-      <c r="B621" s="25">
+      <c r="B621" s="2">
         <v>42427</v>
       </c>
       <c r="C621" t="s">
@@ -21033,7 +20589,7 @@
       <c r="A622" t="s">
         <v>671</v>
       </c>
-      <c r="B622" s="25">
+      <c r="B622" s="2">
         <v>42623</v>
       </c>
       <c r="C622" t="s">
@@ -21044,7 +20600,7 @@
       <c r="A623" t="s">
         <v>672</v>
       </c>
-      <c r="B623" s="25">
+      <c r="B623" s="2">
         <v>42462</v>
       </c>
       <c r="C623" t="s">
@@ -21055,7 +20611,7 @@
       <c r="A624" t="s">
         <v>673</v>
       </c>
-      <c r="B624" s="25">
+      <c r="B624" s="2">
         <v>42504</v>
       </c>
       <c r="C624" t="s">
@@ -21066,7 +20622,7 @@
       <c r="A625" t="s">
         <v>674</v>
       </c>
-      <c r="B625" s="25">
+      <c r="B625" s="2">
         <v>42560</v>
       </c>
       <c r="C625" t="s">
@@ -21077,7 +20633,7 @@
       <c r="A626" t="s">
         <v>675</v>
       </c>
-      <c r="B626" s="25">
+      <c r="B626" s="2">
         <v>42462</v>
       </c>
       <c r="C626" t="s">
@@ -21088,7 +20644,7 @@
       <c r="A627" t="s">
         <v>676</v>
       </c>
-      <c r="B627" s="25">
+      <c r="B627" s="2">
         <v>42420</v>
       </c>
       <c r="C627" t="s">
@@ -21099,7 +20655,7 @@
       <c r="A628" t="s">
         <v>677</v>
       </c>
-      <c r="B628" s="25">
+      <c r="B628" s="2">
         <v>42399</v>
       </c>
       <c r="C628" t="s">
@@ -21110,7 +20666,7 @@
       <c r="A629" t="s">
         <v>678</v>
       </c>
-      <c r="B629" s="25">
+      <c r="B629" s="2">
         <v>42637</v>
       </c>
       <c r="C629" t="s">
@@ -21121,7 +20677,7 @@
       <c r="A630" t="s">
         <v>679</v>
       </c>
-      <c r="B630" s="25">
+      <c r="B630" s="2">
         <v>42427</v>
       </c>
       <c r="C630" t="s">
@@ -21132,7 +20688,7 @@
       <c r="A631" t="s">
         <v>680</v>
       </c>
-      <c r="B631" s="25">
+      <c r="B631" s="2">
         <v>42567</v>
       </c>
       <c r="C631" t="s">
@@ -21143,7 +20699,7 @@
       <c r="A632" t="s">
         <v>681</v>
       </c>
-      <c r="B632" s="25">
+      <c r="B632" s="2">
         <v>42602</v>
       </c>
       <c r="C632" t="s">
@@ -21154,7 +20710,7 @@
       <c r="A633" t="s">
         <v>682</v>
       </c>
-      <c r="B633" s="25">
+      <c r="B633" s="2">
         <v>42427</v>
       </c>
       <c r="C633" t="s">
@@ -21165,7 +20721,7 @@
       <c r="A634" t="s">
         <v>683</v>
       </c>
-      <c r="B634" s="25">
+      <c r="B634" s="2">
         <v>42476</v>
       </c>
       <c r="C634" t="s">
@@ -21176,7 +20732,7 @@
       <c r="A635" t="s">
         <v>684</v>
       </c>
-      <c r="B635" s="25">
+      <c r="B635" s="2">
         <v>42448</v>
       </c>
       <c r="C635" t="s">
@@ -21187,7 +20743,7 @@
       <c r="A636" t="s">
         <v>685</v>
       </c>
-      <c r="B636" s="25">
+      <c r="B636" s="2">
         <v>42574</v>
       </c>
       <c r="C636" t="s">
@@ -21198,7 +20754,7 @@
       <c r="A637" t="s">
         <v>686</v>
       </c>
-      <c r="B637" s="25">
+      <c r="B637" s="2">
         <v>42392</v>
       </c>
       <c r="C637" t="s">
@@ -21209,7 +20765,7 @@
       <c r="A638" t="s">
         <v>687</v>
       </c>
-      <c r="B638" s="25">
+      <c r="B638" s="2">
         <v>42490</v>
       </c>
       <c r="C638" t="s">
@@ -21220,7 +20776,7 @@
       <c r="A639" t="s">
         <v>688</v>
       </c>
-      <c r="B639" s="25">
+      <c r="B639" s="2">
         <v>42371</v>
       </c>
       <c r="C639" t="s">
@@ -21231,7 +20787,7 @@
       <c r="A640" t="s">
         <v>689</v>
       </c>
-      <c r="B640" s="25">
+      <c r="B640" s="2">
         <v>42595</v>
       </c>
       <c r="C640" t="s">
@@ -21242,7 +20798,7 @@
       <c r="A641" t="s">
         <v>690</v>
       </c>
-      <c r="B641" s="25">
+      <c r="B641" s="2">
         <v>42595</v>
       </c>
       <c r="C641" t="s">
@@ -21253,7 +20809,7 @@
       <c r="A642" t="s">
         <v>691</v>
       </c>
-      <c r="B642" s="25">
+      <c r="B642" s="2">
         <v>42490</v>
       </c>
       <c r="C642" t="s">
@@ -21264,7 +20820,7 @@
       <c r="A643" t="s">
         <v>692</v>
       </c>
-      <c r="B643" s="25">
+      <c r="B643" s="2">
         <v>42567</v>
       </c>
       <c r="C643" t="s">
@@ -21275,7 +20831,7 @@
       <c r="A644" t="s">
         <v>693</v>
       </c>
-      <c r="B644" s="25">
+      <c r="B644" s="2">
         <v>42539</v>
       </c>
       <c r="C644" t="s">
@@ -21286,7 +20842,7 @@
       <c r="A645" t="s">
         <v>694</v>
       </c>
-      <c r="B645" s="25">
+      <c r="B645" s="2">
         <v>42462</v>
       </c>
       <c r="C645" t="s">
@@ -21297,7 +20853,7 @@
       <c r="A646" t="s">
         <v>695</v>
       </c>
-      <c r="B646" s="25">
+      <c r="B646" s="2">
         <v>42532</v>
       </c>
       <c r="C646" t="s">
@@ -21308,7 +20864,7 @@
       <c r="A647" t="s">
         <v>696</v>
       </c>
-      <c r="B647" s="25">
+      <c r="B647" s="2">
         <v>42490</v>
       </c>
       <c r="C647" t="s">
@@ -21319,7 +20875,7 @@
       <c r="A648" t="s">
         <v>697</v>
       </c>
-      <c r="B648" s="25">
+      <c r="B648" s="2">
         <v>42588</v>
       </c>
       <c r="C648" t="s">
@@ -21330,7 +20886,7 @@
       <c r="A649" t="s">
         <v>698</v>
       </c>
-      <c r="B649" s="25">
+      <c r="B649" s="2">
         <v>42399</v>
       </c>
       <c r="C649" t="s">
@@ -21341,7 +20897,7 @@
       <c r="A650" t="s">
         <v>699</v>
       </c>
-      <c r="B650" s="25">
+      <c r="B650" s="2">
         <v>42413</v>
       </c>
       <c r="C650" t="s">
@@ -21352,7 +20908,7 @@
       <c r="A651" t="s">
         <v>700</v>
       </c>
-      <c r="B651" s="25">
+      <c r="B651" s="2">
         <v>42455</v>
       </c>
       <c r="C651" t="s">
@@ -21363,7 +20919,7 @@
       <c r="A652" t="s">
         <v>701</v>
       </c>
-      <c r="B652" s="25">
+      <c r="B652" s="2">
         <v>42546</v>
       </c>
       <c r="C652" t="s">
@@ -21374,7 +20930,7 @@
       <c r="A653" t="s">
         <v>702</v>
       </c>
-      <c r="B653" s="25">
+      <c r="B653" s="2">
         <v>42378</v>
       </c>
       <c r="C653" t="s">
@@ -21385,7 +20941,7 @@
       <c r="A654" t="s">
         <v>703</v>
       </c>
-      <c r="B654" s="25">
+      <c r="B654" s="2">
         <v>42595</v>
       </c>
       <c r="C654" t="s">
@@ -21396,7 +20952,7 @@
       <c r="A655" t="s">
         <v>704</v>
       </c>
-      <c r="B655" s="25">
+      <c r="B655" s="2">
         <v>42406</v>
       </c>
       <c r="C655" t="s">
@@ -21407,7 +20963,7 @@
       <c r="A656" t="s">
         <v>705</v>
       </c>
-      <c r="B656" s="25">
+      <c r="B656" s="2">
         <v>42595</v>
       </c>
       <c r="C656" t="s">
@@ -21418,7 +20974,7 @@
       <c r="A657" t="s">
         <v>706</v>
       </c>
-      <c r="B657" s="25">
+      <c r="B657" s="2">
         <v>42392</v>
       </c>
       <c r="C657" t="s">
@@ -21429,7 +20985,7 @@
       <c r="A658" t="s">
         <v>707</v>
       </c>
-      <c r="B658" s="25">
+      <c r="B658" s="2">
         <v>42637</v>
       </c>
       <c r="C658" t="s">
@@ -21440,7 +20996,7 @@
       <c r="A659" t="s">
         <v>708</v>
       </c>
-      <c r="B659" s="25">
+      <c r="B659" s="2">
         <v>42413</v>
       </c>
       <c r="C659" t="s">
@@ -21451,7 +21007,7 @@
       <c r="A660" t="s">
         <v>709</v>
       </c>
-      <c r="B660" s="25">
+      <c r="B660" s="2">
         <v>42609</v>
       </c>
       <c r="C660" t="s">
@@ -21462,7 +21018,7 @@
       <c r="A661" t="s">
         <v>710</v>
       </c>
-      <c r="B661" s="25">
+      <c r="B661" s="2">
         <v>42385</v>
       </c>
       <c r="C661" t="s">
@@ -21473,7 +21029,7 @@
       <c r="A662" t="s">
         <v>711</v>
       </c>
-      <c r="B662" s="25">
+      <c r="B662" s="2">
         <v>42504</v>
       </c>
       <c r="C662" t="s">
@@ -21484,7 +21040,7 @@
       <c r="A663" t="s">
         <v>712</v>
       </c>
-      <c r="B663" s="25">
+      <c r="B663" s="2">
         <v>42420</v>
       </c>
       <c r="C663" t="s">
@@ -21495,7 +21051,7 @@
       <c r="A664" t="s">
         <v>713</v>
       </c>
-      <c r="B664" s="25">
+      <c r="B664" s="2">
         <v>42511</v>
       </c>
       <c r="C664" t="s">
@@ -21506,7 +21062,7 @@
       <c r="A665" t="s">
         <v>714</v>
       </c>
-      <c r="B665" s="25">
+      <c r="B665" s="2">
         <v>42406</v>
       </c>
       <c r="C665" t="s">
@@ -21517,7 +21073,7 @@
       <c r="A666" t="s">
         <v>715</v>
       </c>
-      <c r="B666" s="25">
+      <c r="B666" s="2">
         <v>42609</v>
       </c>
       <c r="C666" t="s">
@@ -21528,7 +21084,7 @@
       <c r="A667" t="s">
         <v>716</v>
       </c>
-      <c r="B667" s="25">
+      <c r="B667" s="2">
         <v>42553</v>
       </c>
       <c r="C667" t="s">
@@ -21539,7 +21095,7 @@
       <c r="A668" t="s">
         <v>717</v>
       </c>
-      <c r="B668" s="25">
+      <c r="B668" s="2">
         <v>42420</v>
       </c>
       <c r="C668" t="s">
@@ -21550,7 +21106,7 @@
       <c r="A669" t="s">
         <v>718</v>
       </c>
-      <c r="B669" s="25">
+      <c r="B669" s="2">
         <v>42434</v>
       </c>
       <c r="C669" t="s">
@@ -21561,7 +21117,7 @@
       <c r="A670" t="s">
         <v>719</v>
       </c>
-      <c r="B670" s="25">
+      <c r="B670" s="2">
         <v>42560</v>
       </c>
       <c r="C670" t="s">
@@ -21572,7 +21128,7 @@
       <c r="A671" t="s">
         <v>720</v>
       </c>
-      <c r="B671" s="25">
+      <c r="B671" s="2">
         <v>42441</v>
       </c>
       <c r="C671" t="s">
@@ -21583,7 +21139,7 @@
       <c r="A672" t="s">
         <v>721</v>
       </c>
-      <c r="B672" s="25">
+      <c r="B672" s="2">
         <v>42483</v>
       </c>
       <c r="C672" t="s">
@@ -21594,7 +21150,7 @@
       <c r="A673" t="s">
         <v>722</v>
       </c>
-      <c r="B673" s="25">
+      <c r="B673" s="2">
         <v>42609</v>
       </c>
       <c r="C673" t="s">
@@ -21605,7 +21161,7 @@
       <c r="A674" t="s">
         <v>723</v>
       </c>
-      <c r="B674" s="25">
+      <c r="B674" s="2">
         <v>42581</v>
       </c>
       <c r="C674" t="s">
@@ -21616,7 +21172,7 @@
       <c r="A675" t="s">
         <v>724</v>
       </c>
-      <c r="B675" s="25">
+      <c r="B675" s="2">
         <v>42427</v>
       </c>
       <c r="C675" t="s">
@@ -21627,7 +21183,7 @@
       <c r="A676" t="s">
         <v>725</v>
       </c>
-      <c r="B676" s="25">
+      <c r="B676" s="2">
         <v>42490</v>
       </c>
       <c r="C676" t="s">
@@ -21638,7 +21194,7 @@
       <c r="A677" t="s">
         <v>726</v>
       </c>
-      <c r="B677" s="25">
+      <c r="B677" s="2">
         <v>42462</v>
       </c>
       <c r="C677" t="s">
@@ -21649,7 +21205,7 @@
       <c r="A678" t="s">
         <v>727</v>
       </c>
-      <c r="B678" s="25">
+      <c r="B678" s="2">
         <v>42420</v>
       </c>
       <c r="C678" t="s">
@@ -21660,7 +21216,7 @@
       <c r="A679" t="s">
         <v>728</v>
       </c>
-      <c r="B679" s="25">
+      <c r="B679" s="2">
         <v>42406</v>
       </c>
       <c r="C679" t="s">
@@ -21671,7 +21227,7 @@
       <c r="A680" t="s">
         <v>729</v>
       </c>
-      <c r="B680" s="25">
+      <c r="B680" s="2">
         <v>42532</v>
       </c>
       <c r="C680" t="s">
@@ -21682,7 +21238,7 @@
       <c r="A681" t="s">
         <v>730</v>
       </c>
-      <c r="B681" s="25">
+      <c r="B681" s="2">
         <v>42469</v>
       </c>
       <c r="C681" t="s">
@@ -21693,7 +21249,7 @@
       <c r="A682" t="s">
         <v>731</v>
       </c>
-      <c r="B682" s="25">
+      <c r="B682" s="2">
         <v>42448</v>
       </c>
       <c r="C682" t="s">
@@ -21704,7 +21260,7 @@
       <c r="A683" t="s">
         <v>732</v>
       </c>
-      <c r="B683" s="25">
+      <c r="B683" s="2">
         <v>42462</v>
       </c>
       <c r="C683" t="s">
@@ -21715,7 +21271,7 @@
       <c r="A684" t="s">
         <v>733</v>
       </c>
-      <c r="B684" s="25">
+      <c r="B684" s="2">
         <v>42420</v>
       </c>
       <c r="C684" t="s">
@@ -21726,7 +21282,7 @@
       <c r="A685" t="s">
         <v>734</v>
       </c>
-      <c r="B685" s="25">
+      <c r="B685" s="2">
         <v>42392</v>
       </c>
       <c r="C685" t="s">
@@ -21737,7 +21293,7 @@
       <c r="A686" t="s">
         <v>735</v>
       </c>
-      <c r="B686" s="25">
+      <c r="B686" s="2">
         <v>42483</v>
       </c>
       <c r="C686" t="s">
@@ -21748,7 +21304,7 @@
       <c r="A687" t="s">
         <v>736</v>
       </c>
-      <c r="B687" s="25">
+      <c r="B687" s="2">
         <v>42546</v>
       </c>
       <c r="C687" t="s">
@@ -21759,7 +21315,7 @@
       <c r="A688" t="s">
         <v>737</v>
       </c>
-      <c r="B688" s="25">
+      <c r="B688" s="2">
         <v>42427</v>
       </c>
       <c r="C688" t="s">
@@ -21770,7 +21326,7 @@
       <c r="A689" t="s">
         <v>738</v>
       </c>
-      <c r="B689" s="25">
+      <c r="B689" s="2">
         <v>42539</v>
       </c>
       <c r="C689" t="s">
@@ -21781,7 +21337,7 @@
       <c r="A690" t="s">
         <v>739</v>
       </c>
-      <c r="B690" s="25">
+      <c r="B690" s="2">
         <v>42525</v>
       </c>
       <c r="C690" t="s">
@@ -21792,7 +21348,7 @@
       <c r="A691" t="s">
         <v>740</v>
       </c>
-      <c r="B691" s="25">
+      <c r="B691" s="2">
         <v>42574</v>
       </c>
       <c r="C691" t="s">
@@ -21803,7 +21359,7 @@
       <c r="A692" t="s">
         <v>741</v>
       </c>
-      <c r="B692" s="25">
+      <c r="B692" s="2">
         <v>42637</v>
       </c>
       <c r="C692" t="s">
@@ -21814,7 +21370,7 @@
       <c r="A693" t="s">
         <v>742</v>
       </c>
-      <c r="B693" s="25">
+      <c r="B693" s="2">
         <v>42567</v>
       </c>
       <c r="C693" t="s">
@@ -21825,7 +21381,7 @@
       <c r="A694" t="s">
         <v>743</v>
       </c>
-      <c r="B694" s="25">
+      <c r="B694" s="2">
         <v>42567</v>
       </c>
       <c r="C694" t="s">
@@ -21836,7 +21392,7 @@
       <c r="A695" t="s">
         <v>744</v>
       </c>
-      <c r="B695" s="25">
+      <c r="B695" s="2">
         <v>42441</v>
       </c>
       <c r="C695" t="s">
@@ -21847,7 +21403,7 @@
       <c r="A696" t="s">
         <v>745</v>
       </c>
-      <c r="B696" s="25">
+      <c r="B696" s="2">
         <v>42483</v>
       </c>
       <c r="C696" t="s">
@@ -21858,7 +21414,7 @@
       <c r="A697" t="s">
         <v>746</v>
       </c>
-      <c r="B697" s="25">
+      <c r="B697" s="2">
         <v>42483</v>
       </c>
       <c r="C697" t="s">
@@ -21869,7 +21425,7 @@
       <c r="A698" t="s">
         <v>747</v>
       </c>
-      <c r="B698" s="25">
+      <c r="B698" s="2">
         <v>42385</v>
       </c>
       <c r="C698" t="s">
@@ -21880,7 +21436,7 @@
       <c r="A699" t="s">
         <v>748</v>
       </c>
-      <c r="B699" s="25">
+      <c r="B699" s="2">
         <v>42399</v>
       </c>
       <c r="C699" t="s">
@@ -21891,7 +21447,7 @@
       <c r="A700" t="s">
         <v>749</v>
       </c>
-      <c r="B700" s="25">
+      <c r="B700" s="2">
         <v>42406</v>
       </c>
       <c r="C700" t="s">
@@ -21902,7 +21458,7 @@
       <c r="A701" t="s">
         <v>750</v>
       </c>
-      <c r="B701" s="25">
+      <c r="B701" s="2">
         <v>42476</v>
       </c>
       <c r="C701" t="s">
@@ -21913,7 +21469,7 @@
       <c r="A702" t="s">
         <v>751</v>
       </c>
-      <c r="B702" s="25">
+      <c r="B702" s="2">
         <v>42511</v>
       </c>
       <c r="C702" t="s">
@@ -21924,7 +21480,7 @@
       <c r="A703" t="s">
         <v>752</v>
       </c>
-      <c r="B703" s="25">
+      <c r="B703" s="2">
         <v>42546</v>
       </c>
       <c r="C703" t="s">
@@ -21935,7 +21491,7 @@
       <c r="A704" t="s">
         <v>753</v>
       </c>
-      <c r="B704" s="25">
+      <c r="B704" s="2">
         <v>42574</v>
       </c>
       <c r="C704" t="s">
@@ -21946,7 +21502,7 @@
       <c r="A705" t="s">
         <v>754</v>
       </c>
-      <c r="B705" s="25">
+      <c r="B705" s="2">
         <v>42399</v>
       </c>
       <c r="C705" t="s">
@@ -21957,7 +21513,7 @@
       <c r="A706" t="s">
         <v>755</v>
       </c>
-      <c r="B706" s="25">
+      <c r="B706" s="2">
         <v>42616</v>
       </c>
       <c r="C706" t="s">
@@ -21968,7 +21524,7 @@
       <c r="A707" t="s">
         <v>756</v>
       </c>
-      <c r="B707" s="25">
+      <c r="B707" s="2">
         <v>42637</v>
       </c>
       <c r="C707" t="s">
@@ -21979,7 +21535,7 @@
       <c r="A708" t="s">
         <v>757</v>
       </c>
-      <c r="B708" s="25">
+      <c r="B708" s="2">
         <v>42385</v>
       </c>
       <c r="C708" t="s">
@@ -21990,7 +21546,7 @@
       <c r="A709" t="s">
         <v>758</v>
       </c>
-      <c r="B709" s="25">
+      <c r="B709" s="2">
         <v>42560</v>
       </c>
       <c r="C709" t="s">
@@ -22001,7 +21557,7 @@
       <c r="A710" t="s">
         <v>759</v>
       </c>
-      <c r="B710" s="25">
+      <c r="B710" s="2">
         <v>42490</v>
       </c>
       <c r="C710" t="s">
@@ -22012,7 +21568,7 @@
       <c r="A711" t="s">
         <v>760</v>
       </c>
-      <c r="B711" s="25">
+      <c r="B711" s="2">
         <v>42469</v>
       </c>
       <c r="C711" t="s">
@@ -22023,7 +21579,7 @@
       <c r="A712" t="s">
         <v>761</v>
       </c>
-      <c r="B712" s="25">
+      <c r="B712" s="2">
         <v>42420</v>
       </c>
       <c r="C712" t="s">
@@ -22034,7 +21590,7 @@
       <c r="A713" t="s">
         <v>762</v>
       </c>
-      <c r="B713" s="25">
+      <c r="B713" s="2">
         <v>42532</v>
       </c>
       <c r="C713" t="s">
@@ -22045,7 +21601,7 @@
       <c r="A714" t="s">
         <v>763</v>
       </c>
-      <c r="B714" s="25">
+      <c r="B714" s="2">
         <v>42518</v>
       </c>
       <c r="C714" t="s">
@@ -22056,7 +21612,7 @@
       <c r="A715" t="s">
         <v>764</v>
       </c>
-      <c r="B715" s="25">
+      <c r="B715" s="2">
         <v>42420</v>
       </c>
       <c r="C715" t="s">
@@ -22067,7 +21623,7 @@
       <c r="A716" t="s">
         <v>765</v>
       </c>
-      <c r="B716" s="25">
+      <c r="B716" s="2">
         <v>42539</v>
       </c>
       <c r="C716" t="s">
@@ -22078,7 +21634,7 @@
       <c r="A717" t="s">
         <v>766</v>
       </c>
-      <c r="B717" s="25">
+      <c r="B717" s="2">
         <v>42448</v>
       </c>
       <c r="C717" t="s">
@@ -22089,7 +21645,7 @@
       <c r="A718" t="s">
         <v>767</v>
       </c>
-      <c r="B718" s="25">
+      <c r="B718" s="2">
         <v>42574</v>
       </c>
       <c r="C718" t="s">
@@ -22100,7 +21656,7 @@
       <c r="A719" t="s">
         <v>768</v>
       </c>
-      <c r="B719" s="25">
+      <c r="B719" s="2">
         <v>42518</v>
       </c>
       <c r="C719" t="s">
@@ -22111,7 +21667,7 @@
       <c r="A720" t="s">
         <v>769</v>
       </c>
-      <c r="B720" s="25">
+      <c r="B720" s="2">
         <v>42609</v>
       </c>
       <c r="C720" t="s">
@@ -22122,7 +21678,7 @@
       <c r="A721" t="s">
         <v>770</v>
       </c>
-      <c r="B721" s="25">
+      <c r="B721" s="2">
         <v>42490</v>
       </c>
       <c r="C721" t="s">
@@ -22133,7 +21689,7 @@
       <c r="A722" t="s">
         <v>771</v>
       </c>
-      <c r="B722" s="25">
+      <c r="B722" s="2">
         <v>42539</v>
       </c>
       <c r="C722" t="s">
@@ -22144,7 +21700,7 @@
       <c r="A723" t="s">
         <v>772</v>
       </c>
-      <c r="B723" s="25">
+      <c r="B723" s="2">
         <v>42560</v>
       </c>
       <c r="C723" t="s">
@@ -22155,7 +21711,7 @@
       <c r="A724" t="s">
         <v>773</v>
       </c>
-      <c r="B724" s="25">
+      <c r="B724" s="2">
         <v>42413</v>
       </c>
       <c r="C724" t="s">
@@ -22166,7 +21722,7 @@
       <c r="A725" t="s">
         <v>774</v>
       </c>
-      <c r="B725" s="25">
+      <c r="B725" s="2">
         <v>42602</v>
       </c>
       <c r="C725" t="s">
@@ -22177,7 +21733,7 @@
       <c r="A726" t="s">
         <v>775</v>
       </c>
-      <c r="B726" s="25">
+      <c r="B726" s="2">
         <v>42574</v>
       </c>
       <c r="C726" t="s">
@@ -22188,7 +21744,7 @@
       <c r="A727" t="s">
         <v>776</v>
       </c>
-      <c r="B727" s="25">
+      <c r="B727" s="2">
         <v>42518</v>
       </c>
       <c r="C727" t="s">
@@ -22199,7 +21755,7 @@
       <c r="A728" t="s">
         <v>777</v>
       </c>
-      <c r="B728" s="25">
+      <c r="B728" s="2">
         <v>42406</v>
       </c>
       <c r="C728" t="s">
@@ -22210,7 +21766,7 @@
       <c r="A729" t="s">
         <v>778</v>
       </c>
-      <c r="B729" s="25">
+      <c r="B729" s="2">
         <v>42413</v>
       </c>
       <c r="C729" t="s">
@@ -22221,7 +21777,7 @@
       <c r="A730" t="s">
         <v>779</v>
       </c>
-      <c r="B730" s="25">
+      <c r="B730" s="2">
         <v>42399</v>
       </c>
       <c r="C730" t="s">
@@ -22232,7 +21788,7 @@
       <c r="A731" t="s">
         <v>780</v>
       </c>
-      <c r="B731" s="25">
+      <c r="B731" s="2">
         <v>42483</v>
       </c>
       <c r="C731" t="s">
@@ -22243,7 +21799,7 @@
       <c r="A732" t="s">
         <v>781</v>
       </c>
-      <c r="B732" s="25">
+      <c r="B732" s="2">
         <v>42469</v>
       </c>
       <c r="C732" t="s">
@@ -22254,7 +21810,7 @@
       <c r="A733" t="s">
         <v>782</v>
       </c>
-      <c r="B733" s="25">
+      <c r="B733" s="2">
         <v>42455</v>
       </c>
       <c r="C733" t="s">
@@ -22265,7 +21821,7 @@
       <c r="A734" t="s">
         <v>783</v>
       </c>
-      <c r="B734" s="25">
+      <c r="B734" s="2">
         <v>42462</v>
       </c>
       <c r="C734" t="s">
@@ -22276,7 +21832,7 @@
       <c r="A735" t="s">
         <v>784</v>
       </c>
-      <c r="B735" s="25">
+      <c r="B735" s="2">
         <v>42420</v>
       </c>
       <c r="C735" t="s">
@@ -22287,7 +21843,7 @@
       <c r="A736" t="s">
         <v>785</v>
       </c>
-      <c r="B736" s="25">
+      <c r="B736" s="2">
         <v>42595</v>
       </c>
       <c r="C736" t="s">
@@ -22298,7 +21854,7 @@
       <c r="A737" t="s">
         <v>786</v>
       </c>
-      <c r="B737" s="25">
+      <c r="B737" s="2">
         <v>42378</v>
       </c>
       <c r="C737" t="s">
@@ -22309,7 +21865,7 @@
       <c r="A738" t="s">
         <v>787</v>
       </c>
-      <c r="B738" s="25">
+      <c r="B738" s="2">
         <v>42469</v>
       </c>
       <c r="C738" t="s">
@@ -22320,7 +21876,7 @@
       <c r="A739" t="s">
         <v>788</v>
       </c>
-      <c r="B739" s="25">
+      <c r="B739" s="2">
         <v>42546</v>
       </c>
       <c r="C739" t="s">
@@ -22331,7 +21887,7 @@
       <c r="A740" t="s">
         <v>789</v>
       </c>
-      <c r="B740" s="25">
+      <c r="B740" s="2">
         <v>42560</v>
       </c>
       <c r="C740" t="s">
@@ -22342,7 +21898,7 @@
       <c r="A741" t="s">
         <v>790</v>
       </c>
-      <c r="B741" s="25">
+      <c r="B741" s="2">
         <v>42637</v>
       </c>
       <c r="C741" t="s">
@@ -22353,7 +21909,7 @@
       <c r="A742" t="s">
         <v>791</v>
       </c>
-      <c r="B742" s="25">
+      <c r="B742" s="2">
         <v>42539</v>
       </c>
       <c r="C742" t="s">
@@ -22364,7 +21920,7 @@
       <c r="A743" t="s">
         <v>792</v>
       </c>
-      <c r="B743" s="25">
+      <c r="B743" s="2">
         <v>42490</v>
       </c>
       <c r="C743" t="s">
@@ -22375,7 +21931,7 @@
       <c r="A744" t="s">
         <v>793</v>
       </c>
-      <c r="B744" s="25">
+      <c r="B744" s="2">
         <v>42567</v>
       </c>
       <c r="C744" t="s">
@@ -22386,7 +21942,7 @@
       <c r="A745" t="s">
         <v>794</v>
       </c>
-      <c r="B745" s="25">
+      <c r="B745" s="2">
         <v>42602</v>
       </c>
       <c r="C745" t="s">
@@ -22397,7 +21953,7 @@
       <c r="A746" t="s">
         <v>795</v>
       </c>
-      <c r="B746" s="25">
+      <c r="B746" s="2">
         <v>42539</v>
       </c>
       <c r="C746" t="s">
@@ -22408,7 +21964,7 @@
       <c r="A747" t="s">
         <v>796</v>
       </c>
-      <c r="B747" s="25">
+      <c r="B747" s="2">
         <v>42483</v>
       </c>
       <c r="C747" t="s">
@@ -22419,7 +21975,7 @@
       <c r="A748" t="s">
         <v>797</v>
       </c>
-      <c r="B748" s="25">
+      <c r="B748" s="2">
         <v>42574</v>
       </c>
       <c r="C748" t="s">
@@ -22430,7 +21986,7 @@
       <c r="A749" t="s">
         <v>798</v>
       </c>
-      <c r="B749" s="25">
+      <c r="B749" s="2">
         <v>42406</v>
       </c>
       <c r="C749" t="s">
@@ -22441,7 +21997,7 @@
       <c r="A750" t="s">
         <v>799</v>
       </c>
-      <c r="B750" s="25">
+      <c r="B750" s="2">
         <v>42553</v>
       </c>
       <c r="C750" t="s">
@@ -22452,7 +22008,7 @@
       <c r="A751" t="s">
         <v>800</v>
       </c>
-      <c r="B751" s="25">
+      <c r="B751" s="2">
         <v>42637</v>
       </c>
       <c r="C751" t="s">
@@ -22463,7 +22019,7 @@
       <c r="A752" t="s">
         <v>801</v>
       </c>
-      <c r="B752" s="25">
+      <c r="B752" s="2">
         <v>42455</v>
       </c>
       <c r="C752" t="s">
@@ -22474,7 +22030,7 @@
       <c r="A753" t="s">
         <v>802</v>
       </c>
-      <c r="B753" s="25">
+      <c r="B753" s="2">
         <v>42504</v>
       </c>
       <c r="C753" t="s">
@@ -22485,7 +22041,7 @@
       <c r="A754" t="s">
         <v>803</v>
       </c>
-      <c r="B754" s="25">
+      <c r="B754" s="2">
         <v>42623</v>
       </c>
       <c r="C754" t="s">
@@ -22496,7 +22052,7 @@
       <c r="A755" t="s">
         <v>804</v>
       </c>
-      <c r="B755" s="25">
+      <c r="B755" s="2">
         <v>42567</v>
       </c>
       <c r="C755" t="s">
@@ -22507,7 +22063,7 @@
       <c r="A756" t="s">
         <v>805</v>
       </c>
-      <c r="B756" s="25">
+      <c r="B756" s="2">
         <v>42469</v>
       </c>
       <c r="C756" t="s">
@@ -22518,7 +22074,7 @@
       <c r="A757" t="s">
         <v>806</v>
       </c>
-      <c r="B757" s="25">
+      <c r="B757" s="2">
         <v>42581</v>
       </c>
       <c r="C757" t="s">
@@ -22529,7 +22085,7 @@
       <c r="A758" t="s">
         <v>807</v>
       </c>
-      <c r="B758" s="25">
+      <c r="B758" s="2">
         <v>42378</v>
       </c>
       <c r="C758" t="s">
@@ -22540,7 +22096,7 @@
       <c r="A759" t="s">
         <v>808</v>
       </c>
-      <c r="B759" s="25">
+      <c r="B759" s="2">
         <v>42413</v>
       </c>
       <c r="C759" t="s">
@@ -22551,7 +22107,7 @@
       <c r="A760" t="s">
         <v>809</v>
       </c>
-      <c r="B760" s="25">
+      <c r="B760" s="2">
         <v>42469</v>
       </c>
       <c r="C760" t="s">
@@ -22562,7 +22118,7 @@
       <c r="A761" t="s">
         <v>810</v>
       </c>
-      <c r="B761" s="25">
+      <c r="B761" s="2">
         <v>42406</v>
       </c>
       <c r="C761" t="s">
@@ -22573,7 +22129,7 @@
       <c r="A762" t="s">
         <v>811</v>
       </c>
-      <c r="B762" s="25">
+      <c r="B762" s="2">
         <v>42546</v>
       </c>
       <c r="C762" t="s">
@@ -22584,7 +22140,7 @@
       <c r="A763" t="s">
         <v>812</v>
       </c>
-      <c r="B763" s="25">
+      <c r="B763" s="2">
         <v>42560</v>
       </c>
       <c r="C763" t="s">
@@ -22595,7 +22151,7 @@
       <c r="A764" t="s">
         <v>813</v>
       </c>
-      <c r="B764" s="25">
+      <c r="B764" s="2">
         <v>42392</v>
       </c>
       <c r="C764" t="s">
@@ -22606,7 +22162,7 @@
       <c r="A765" t="s">
         <v>814</v>
       </c>
-      <c r="B765" s="25">
+      <c r="B765" s="2">
         <v>42560</v>
       </c>
       <c r="C765" t="s">
@@ -22617,7 +22173,7 @@
       <c r="A766" t="s">
         <v>815</v>
       </c>
-      <c r="B766" s="25">
+      <c r="B766" s="2">
         <v>42371</v>
       </c>
       <c r="C766" t="s">
@@ -22628,7 +22184,7 @@
       <c r="A767" t="s">
         <v>816</v>
       </c>
-      <c r="B767" s="25">
+      <c r="B767" s="2">
         <v>42637</v>
       </c>
       <c r="C767" t="s">
@@ -22639,7 +22195,7 @@
       <c r="A768" t="s">
         <v>817</v>
       </c>
-      <c r="B768" s="25">
+      <c r="B768" s="2">
         <v>42595</v>
       </c>
       <c r="C768" t="s">
@@ -22650,7 +22206,7 @@
       <c r="A769" t="s">
         <v>818</v>
       </c>
-      <c r="B769" s="25">
+      <c r="B769" s="2">
         <v>42378</v>
       </c>
       <c r="C769" t="s">
@@ -22661,7 +22217,7 @@
       <c r="A770" t="s">
         <v>819</v>
       </c>
-      <c r="B770" s="25">
+      <c r="B770" s="2">
         <v>42497</v>
       </c>
       <c r="C770" t="s">
@@ -22672,7 +22228,7 @@
       <c r="A771" t="s">
         <v>820</v>
       </c>
-      <c r="B771" s="25">
+      <c r="B771" s="2">
         <v>42560</v>
       </c>
       <c r="C771" t="s">
@@ -22683,7 +22239,7 @@
       <c r="A772" t="s">
         <v>821</v>
       </c>
-      <c r="B772" s="25">
+      <c r="B772" s="2">
         <v>42392</v>
       </c>
       <c r="C772" t="s">
@@ -22694,7 +22250,7 @@
       <c r="A773" t="s">
         <v>822</v>
       </c>
-      <c r="B773" s="25">
+      <c r="B773" s="2">
         <v>42637</v>
       </c>
       <c r="C773" t="s">
@@ -22705,7 +22261,7 @@
       <c r="A774" t="s">
         <v>823</v>
       </c>
-      <c r="B774" s="25">
+      <c r="B774" s="2">
         <v>42518</v>
       </c>
       <c r="C774" t="s">
@@ -22716,7 +22272,7 @@
       <c r="A775" t="s">
         <v>824</v>
       </c>
-      <c r="B775" s="25">
+      <c r="B775" s="2">
         <v>42406</v>
       </c>
       <c r="C775" t="s">
@@ -22727,7 +22283,7 @@
       <c r="A776" t="s">
         <v>825</v>
       </c>
-      <c r="B776" s="25">
+      <c r="B776" s="2">
         <v>42525</v>
       </c>
       <c r="C776" t="s">
@@ -22738,7 +22294,7 @@
       <c r="A777" t="s">
         <v>826</v>
       </c>
-      <c r="B777" s="25">
+      <c r="B777" s="2">
         <v>42455</v>
       </c>
       <c r="C777" t="s">
@@ -22749,7 +22305,7 @@
       <c r="A778" t="s">
         <v>827</v>
       </c>
-      <c r="B778" s="25">
+      <c r="B778" s="2">
         <v>42427</v>
       </c>
       <c r="C778" t="s">
@@ -22760,7 +22316,7 @@
       <c r="A779" t="s">
         <v>828</v>
       </c>
-      <c r="B779" s="25">
+      <c r="B779" s="2">
         <v>42427</v>
       </c>
       <c r="C779" t="s">
@@ -22771,7 +22327,7 @@
       <c r="A780" t="s">
         <v>829</v>
       </c>
-      <c r="B780" s="25">
+      <c r="B780" s="2">
         <v>42539</v>
       </c>
       <c r="C780" t="s">
@@ -22782,7 +22338,7 @@
       <c r="A781" t="s">
         <v>830</v>
       </c>
-      <c r="B781" s="25">
+      <c r="B781" s="2">
         <v>42392</v>
       </c>
       <c r="C781" t="s">
@@ -22793,7 +22349,7 @@
       <c r="A782" t="s">
         <v>831</v>
       </c>
-      <c r="B782" s="25">
+      <c r="B782" s="2">
         <v>42553</v>
       </c>
       <c r="C782" t="s">
@@ -22804,7 +22360,7 @@
       <c r="A783" t="s">
         <v>832</v>
       </c>
-      <c r="B783" s="25">
+      <c r="B783" s="2">
         <v>42476</v>
       </c>
       <c r="C783" t="s">
@@ -22815,7 +22371,7 @@
       <c r="A784" t="s">
         <v>833</v>
       </c>
-      <c r="B784" s="25">
+      <c r="B784" s="2">
         <v>42539</v>
       </c>
       <c r="C784" t="s">
@@ -22826,7 +22382,7 @@
       <c r="A785" t="s">
         <v>834</v>
       </c>
-      <c r="B785" s="25">
+      <c r="B785" s="2">
         <v>42462</v>
       </c>
       <c r="C785" t="s">
@@ -22837,7 +22393,7 @@
       <c r="A786" t="s">
         <v>835</v>
       </c>
-      <c r="B786" s="25">
+      <c r="B786" s="2">
         <v>42574</v>
       </c>
       <c r="C786" t="s">
@@ -22848,7 +22404,7 @@
       <c r="A787" t="s">
         <v>836</v>
       </c>
-      <c r="B787" s="25">
+      <c r="B787" s="2">
         <v>42448</v>
       </c>
       <c r="C787" t="s">
@@ -22859,7 +22415,7 @@
       <c r="A788" t="s">
         <v>837</v>
       </c>
-      <c r="B788" s="25">
+      <c r="B788" s="2">
         <v>42462</v>
       </c>
       <c r="C788" t="s">
@@ -22870,7 +22426,7 @@
       <c r="A789" t="s">
         <v>838</v>
       </c>
-      <c r="B789" s="25">
+      <c r="B789" s="2">
         <v>42392</v>
       </c>
       <c r="C789" t="s">
@@ -22881,7 +22437,7 @@
       <c r="A790" t="s">
         <v>839</v>
       </c>
-      <c r="B790" s="25">
+      <c r="B790" s="2">
         <v>42427</v>
       </c>
       <c r="C790" t="s">
@@ -22892,7 +22448,7 @@
       <c r="A791" t="s">
         <v>840</v>
       </c>
-      <c r="B791" s="25">
+      <c r="B791" s="2">
         <v>42483</v>
       </c>
       <c r="C791" t="s">
@@ -22903,7 +22459,7 @@
       <c r="A792" t="s">
         <v>841</v>
       </c>
-      <c r="B792" s="25">
+      <c r="B792" s="2">
         <v>42434</v>
       </c>
       <c r="C792" t="s">
@@ -22914,7 +22470,7 @@
       <c r="A793" t="s">
         <v>842</v>
       </c>
-      <c r="B793" s="25">
+      <c r="B793" s="2">
         <v>42525</v>
       </c>
       <c r="C793" t="s">
@@ -22925,7 +22481,7 @@
       <c r="A794" t="s">
         <v>843</v>
       </c>
-      <c r="B794" s="25">
+      <c r="B794" s="2">
         <v>42609</v>
       </c>
       <c r="C794" t="s">
@@ -22936,7 +22492,7 @@
       <c r="A795" t="s">
         <v>844</v>
       </c>
-      <c r="B795" s="25">
+      <c r="B795" s="2">
         <v>42385</v>
       </c>
       <c r="C795" t="s">
@@ -22947,7 +22503,7 @@
       <c r="A796" t="s">
         <v>845</v>
       </c>
-      <c r="B796" s="25">
+      <c r="B796" s="2">
         <v>42392</v>
       </c>
       <c r="C796" t="s">
@@ -22958,7 +22514,7 @@
       <c r="A797" t="s">
         <v>846</v>
       </c>
-      <c r="B797" s="25">
+      <c r="B797" s="2">
         <v>42504</v>
       </c>
       <c r="C797" t="s">
@@ -22969,7 +22525,7 @@
       <c r="A798" t="s">
         <v>847</v>
       </c>
-      <c r="B798" s="25">
+      <c r="B798" s="2">
         <v>42630</v>
       </c>
       <c r="C798" t="s">
@@ -22980,7 +22536,7 @@
       <c r="A799" t="s">
         <v>848</v>
       </c>
-      <c r="B799" s="25">
+      <c r="B799" s="2">
         <v>42420</v>
       </c>
       <c r="C799" t="s">
@@ -22991,7 +22547,7 @@
       <c r="A800" t="s">
         <v>849</v>
       </c>
-      <c r="B800" s="25">
+      <c r="B800" s="2">
         <v>42588</v>
       </c>
       <c r="C800" t="s">
@@ -23002,7 +22558,7 @@
       <c r="A801" t="s">
         <v>850</v>
       </c>
-      <c r="B801" s="25">
+      <c r="B801" s="2">
         <v>42378</v>
       </c>
       <c r="C801" t="s">
@@ -23013,7 +22569,7 @@
       <c r="A802" t="s">
         <v>851</v>
       </c>
-      <c r="B802" s="25">
+      <c r="B802" s="2">
         <v>42581</v>
       </c>
       <c r="C802" t="s">
@@ -23024,7 +22580,7 @@
       <c r="A803" t="s">
         <v>852</v>
       </c>
-      <c r="B803" s="25">
+      <c r="B803" s="2">
         <v>42525</v>
       </c>
       <c r="C803" t="s">
@@ -23035,7 +22591,7 @@
       <c r="A804" t="s">
         <v>853</v>
       </c>
-      <c r="B804" s="25">
+      <c r="B804" s="2">
         <v>42525</v>
       </c>
       <c r="C804" t="s">
@@ -23046,7 +22602,7 @@
       <c r="A805" t="s">
         <v>854</v>
       </c>
-      <c r="B805" s="25">
+      <c r="B805" s="2">
         <v>42406</v>
       </c>
       <c r="C805" t="s">
@@ -23057,7 +22613,7 @@
       <c r="A806" t="s">
         <v>855</v>
       </c>
-      <c r="B806" s="25">
+      <c r="B806" s="2">
         <v>42420</v>
       </c>
       <c r="C806" t="s">
@@ -23068,7 +22624,7 @@
       <c r="A807" t="s">
         <v>856</v>
       </c>
-      <c r="B807" s="25">
+      <c r="B807" s="2">
         <v>42560</v>
       </c>
       <c r="C807" t="s">
@@ -23079,7 +22635,7 @@
       <c r="A808" t="s">
         <v>857</v>
       </c>
-      <c r="B808" s="25">
+      <c r="B808" s="2">
         <v>42518</v>
       </c>
       <c r="C808" t="s">
@@ -23090,7 +22646,7 @@
       <c r="A809" t="s">
         <v>858</v>
       </c>
-      <c r="B809" s="25">
+      <c r="B809" s="2">
         <v>42371</v>
       </c>
       <c r="C809" t="s">
@@ -23101,7 +22657,7 @@
       <c r="A810" t="s">
         <v>859</v>
       </c>
-      <c r="B810" s="25">
+      <c r="B810" s="2">
         <v>42581</v>
       </c>
       <c r="C810" t="s">
@@ -23112,7 +22668,7 @@
       <c r="A811" t="s">
         <v>860</v>
       </c>
-      <c r="B811" s="25">
+      <c r="B811" s="2">
         <v>42483</v>
       </c>
       <c r="C811" t="s">
@@ -23123,7 +22679,7 @@
       <c r="A812" t="s">
         <v>861</v>
       </c>
-      <c r="B812" s="25">
+      <c r="B812" s="2">
         <v>42385</v>
       </c>
       <c r="C812" t="s">
@@ -23134,7 +22690,7 @@
       <c r="A813" t="s">
         <v>862</v>
       </c>
-      <c r="B813" s="25">
+      <c r="B813" s="2">
         <v>42497</v>
       </c>
       <c r="C813" t="s">
@@ -23145,7 +22701,7 @@
       <c r="A814" t="s">
         <v>863</v>
       </c>
-      <c r="B814" s="25">
+      <c r="B814" s="2">
         <v>42441</v>
       </c>
       <c r="C814" t="s">
@@ -23156,7 +22712,7 @@
       <c r="A815" t="s">
         <v>864</v>
       </c>
-      <c r="B815" s="25">
+      <c r="B815" s="2">
         <v>42427</v>
       </c>
       <c r="C815" t="s">
@@ -23167,7 +22723,7 @@
       <c r="A816" t="s">
         <v>865</v>
       </c>
-      <c r="B816" s="25">
+      <c r="B816" s="2">
         <v>42553</v>
       </c>
       <c r="C816" t="s">
@@ -23178,7 +22734,7 @@
       <c r="A817" t="s">
         <v>866</v>
       </c>
-      <c r="B817" s="25">
+      <c r="B817" s="2">
         <v>42616</v>
       </c>
       <c r="C817" t="s">
@@ -23189,7 +22745,7 @@
       <c r="A818" t="s">
         <v>867</v>
       </c>
-      <c r="B818" s="25">
+      <c r="B818" s="2">
         <v>42413</v>
       </c>
       <c r="C818" t="s">
@@ -23200,7 +22756,7 @@
       <c r="A819" t="s">
         <v>868</v>
       </c>
-      <c r="B819" s="25">
+      <c r="B819" s="2">
         <v>42469</v>
       </c>
       <c r="C819" t="s">
@@ -23211,7 +22767,7 @@
       <c r="A820" t="s">
         <v>869</v>
       </c>
-      <c r="B820" s="25">
+      <c r="B820" s="2">
         <v>42588</v>
       </c>
       <c r="C820" t="s">
@@ -23222,7 +22778,7 @@
       <c r="A821" t="s">
         <v>870</v>
       </c>
-      <c r="B821" s="25">
+      <c r="B821" s="2">
         <v>42609</v>
       </c>
       <c r="C821" t="s">
@@ -23233,7 +22789,7 @@
       <c r="A822" t="s">
         <v>871</v>
       </c>
-      <c r="B822" s="25">
+      <c r="B822" s="2">
         <v>42399</v>
       </c>
       <c r="C822" t="s">
@@ -23244,7 +22800,7 @@
       <c r="A823" t="s">
         <v>872</v>
       </c>
-      <c r="B823" s="25">
+      <c r="B823" s="2">
         <v>42406</v>
       </c>
       <c r="C823" t="s">
@@ -23255,7 +22811,7 @@
       <c r="A824" t="s">
         <v>873</v>
       </c>
-      <c r="B824" s="25">
+      <c r="B824" s="2">
         <v>42371</v>
       </c>
       <c r="C824" t="s">
@@ -23266,7 +22822,7 @@
       <c r="A825" t="s">
         <v>874</v>
       </c>
-      <c r="B825" s="25">
+      <c r="B825" s="2">
         <v>42539</v>
       </c>
       <c r="C825" t="s">
@@ -23277,7 +22833,7 @@
       <c r="A826" t="s">
         <v>875</v>
       </c>
-      <c r="B826" s="25">
+      <c r="B826" s="2">
         <v>42525</v>
       </c>
       <c r="C826" t="s">
@@ -23288,7 +22844,7 @@
       <c r="A827" t="s">
         <v>876</v>
       </c>
-      <c r="B827" s="25">
+      <c r="B827" s="2">
         <v>42504</v>
       </c>
       <c r="C827" t="s">
@@ -23299,7 +22855,7 @@
       <c r="A828" t="s">
         <v>877</v>
       </c>
-      <c r="B828" s="25">
+      <c r="B828" s="2">
         <v>42392</v>
       </c>
       <c r="C828" t="s">
@@ -23310,7 +22866,7 @@
       <c r="A829" t="s">
         <v>878</v>
       </c>
-      <c r="B829" s="25">
+      <c r="B829" s="2">
         <v>42553</v>
       </c>
       <c r="C829" t="s">
@@ -23321,7 +22877,7 @@
       <c r="A830" t="s">
         <v>879</v>
       </c>
-      <c r="B830" s="25">
+      <c r="B830" s="2">
         <v>42497</v>
       </c>
       <c r="C830" t="s">
@@ -23332,7 +22888,7 @@
       <c r="A831" t="s">
         <v>880</v>
       </c>
-      <c r="B831" s="25">
+      <c r="B831" s="2">
         <v>42511</v>
       </c>
       <c r="C831" t="s">
@@ -23343,7 +22899,7 @@
       <c r="A832" t="s">
         <v>881</v>
       </c>
-      <c r="B832" s="25">
+      <c r="B832" s="2">
         <v>42623</v>
       </c>
       <c r="C832" t="s">
@@ -23354,7 +22910,7 @@
       <c r="A833" t="s">
         <v>882</v>
       </c>
-      <c r="B833" s="25">
+      <c r="B833" s="2">
         <v>42476</v>
       </c>
       <c r="C833" t="s">
@@ -23365,7 +22921,7 @@
       <c r="A834" t="s">
         <v>883</v>
       </c>
-      <c r="B834" s="25">
+      <c r="B834" s="2">
         <v>42427</v>
       </c>
       <c r="C834" t="s">
@@ -23376,7 +22932,7 @@
       <c r="A835" t="s">
         <v>884</v>
       </c>
-      <c r="B835" s="25">
+      <c r="B835" s="2">
         <v>42413</v>
       </c>
       <c r="C835" t="s">
@@ -23387,7 +22943,7 @@
       <c r="A836" t="s">
         <v>885</v>
       </c>
-      <c r="B836" s="25">
+      <c r="B836" s="2">
         <v>42567</v>
       </c>
       <c r="C836" t="s">
@@ -23398,7 +22954,7 @@
       <c r="A837" t="s">
         <v>886</v>
       </c>
-      <c r="B837" s="25">
+      <c r="B837" s="2">
         <v>42623</v>
       </c>
       <c r="C837" t="s">
@@ -23409,7 +22965,7 @@
       <c r="A838" t="s">
         <v>887</v>
       </c>
-      <c r="B838" s="25">
+      <c r="B838" s="2">
         <v>42490</v>
       </c>
       <c r="C838" t="s">
@@ -23420,7 +22976,7 @@
       <c r="A839" t="s">
         <v>888</v>
       </c>
-      <c r="B839" s="25">
+      <c r="B839" s="2">
         <v>42588</v>
       </c>
       <c r="C839" t="s">
@@ -23431,7 +22987,7 @@
       <c r="A840" t="s">
         <v>889</v>
       </c>
-      <c r="B840" s="25">
+      <c r="B840" s="2">
         <v>42455</v>
       </c>
       <c r="C840" t="s">
@@ -23442,7 +22998,7 @@
       <c r="A841" t="s">
         <v>890</v>
       </c>
-      <c r="B841" s="25">
+      <c r="B841" s="2">
         <v>42595</v>
       </c>
       <c r="C841" t="s">
@@ -23453,7 +23009,7 @@
       <c r="A842" t="s">
         <v>891</v>
       </c>
-      <c r="B842" s="25">
+      <c r="B842" s="2">
         <v>42483</v>
       </c>
       <c r="C842" t="s">
@@ -23464,7 +23020,7 @@
       <c r="A843" t="s">
         <v>892</v>
       </c>
-      <c r="B843" s="25">
+      <c r="B843" s="2">
         <v>42441</v>
       </c>
       <c r="C843" t="s">
@@ -23475,7 +23031,7 @@
       <c r="A844" t="s">
         <v>893</v>
       </c>
-      <c r="B844" s="25">
+      <c r="B844" s="2">
         <v>42504</v>
       </c>
       <c r="C844" t="s">
@@ -23486,7 +23042,7 @@
       <c r="A845" t="s">
         <v>894</v>
       </c>
-      <c r="B845" s="25">
+      <c r="B845" s="2">
         <v>42490</v>
       </c>
       <c r="C845" t="s">
@@ -23497,7 +23053,7 @@
       <c r="A846" t="s">
         <v>895</v>
       </c>
-      <c r="B846" s="25">
+      <c r="B846" s="2">
         <v>42546</v>
       </c>
       <c r="C846" t="s">
@@ -23508,7 +23064,7 @@
       <c r="A847" t="s">
         <v>896</v>
       </c>
-      <c r="B847" s="25">
+      <c r="B847" s="2">
         <v>42539</v>
       </c>
       <c r="C847" t="s">
@@ -23519,7 +23075,7 @@
       <c r="A848" t="s">
         <v>897</v>
       </c>
-      <c r="B848" s="25">
+      <c r="B848" s="2">
         <v>42539</v>
       </c>
       <c r="C848" t="s">
@@ -23530,7 +23086,7 @@
       <c r="A849" t="s">
         <v>898</v>
       </c>
-      <c r="B849" s="25">
+      <c r="B849" s="2">
         <v>42455</v>
       </c>
       <c r="C849" t="s">
@@ -23541,7 +23097,7 @@
       <c r="A850" t="s">
         <v>899</v>
       </c>
-      <c r="B850" s="25">
+      <c r="B850" s="2">
         <v>42441</v>
       </c>
       <c r="C850" t="s">
@@ -23552,7 +23108,7 @@
       <c r="A851" t="s">
         <v>900</v>
       </c>
-      <c r="B851" s="25">
+      <c r="B851" s="2">
         <v>42511</v>
       </c>
       <c r="C851" t="s">
@@ -23563,7 +23119,7 @@
       <c r="A852" t="s">
         <v>901</v>
       </c>
-      <c r="B852" s="25">
+      <c r="B852" s="2">
         <v>42490</v>
       </c>
       <c r="C852" t="s">
@@ -23574,7 +23130,7 @@
       <c r="A853" t="s">
         <v>902</v>
       </c>
-      <c r="B853" s="25">
+      <c r="B853" s="2">
         <v>42385</v>
       </c>
       <c r="C853" t="s">
@@ -23585,7 +23141,7 @@
       <c r="A854" t="s">
         <v>903</v>
       </c>
-      <c r="B854" s="25">
+      <c r="B854" s="2">
         <v>42399</v>
       </c>
       <c r="C854" t="s">
@@ -23596,7 +23152,7 @@
       <c r="A855" t="s">
         <v>904</v>
       </c>
-      <c r="B855" s="25">
+      <c r="B855" s="2">
         <v>42497</v>
       </c>
       <c r="C855" t="s">
@@ -23607,7 +23163,7 @@
       <c r="A856" t="s">
         <v>905</v>
       </c>
-      <c r="B856" s="25">
+      <c r="B856" s="2">
         <v>42574</v>
       </c>
       <c r="C856" t="s">
@@ -23618,7 +23174,7 @@
       <c r="A857" t="s">
         <v>906</v>
       </c>
-      <c r="B857" s="25">
+      <c r="B857" s="2">
         <v>42581</v>
       </c>
       <c r="C857" t="s">
@@ -23629,7 +23185,7 @@
       <c r="A858" t="s">
         <v>907</v>
       </c>
-      <c r="B858" s="25">
+      <c r="B858" s="2">
         <v>42504</v>
       </c>
       <c r="C858" t="s">
@@ -23640,7 +23196,7 @@
       <c r="A859" t="s">
         <v>908</v>
       </c>
-      <c r="B859" s="25">
+      <c r="B859" s="2">
         <v>42406</v>
       </c>
       <c r="C859" t="s">
@@ -23651,7 +23207,7 @@
       <c r="A860" t="s">
         <v>909</v>
       </c>
-      <c r="B860" s="25">
+      <c r="B860" s="2">
         <v>42637</v>
       </c>
       <c r="C860" t="s">
@@ -23662,7 +23218,7 @@
       <c r="A861" t="s">
         <v>910</v>
       </c>
-      <c r="B861" s="25">
+      <c r="B861" s="2">
         <v>42490</v>
       </c>
       <c r="C861" t="s">
@@ -23673,7 +23229,7 @@
       <c r="A862" t="s">
         <v>911</v>
       </c>
-      <c r="B862" s="25">
+      <c r="B862" s="2">
         <v>42490</v>
       </c>
       <c r="C862" t="s">
@@ -23684,7 +23240,7 @@
       <c r="A863" t="s">
         <v>912</v>
       </c>
-      <c r="B863" s="25">
+      <c r="B863" s="2">
         <v>42483</v>
       </c>
       <c r="C863" t="s">
@@ -23695,7 +23251,7 @@
       <c r="A864" t="s">
         <v>913</v>
       </c>
-      <c r="B864" s="25">
+      <c r="B864" s="2">
         <v>42532</v>
       </c>
       <c r="C864" t="s">
@@ -23706,7 +23262,7 @@
       <c r="A865" t="s">
         <v>914</v>
       </c>
-      <c r="B865" s="25">
+      <c r="B865" s="2">
         <v>42378</v>
       </c>
       <c r="C865" t="s">
@@ -23717,7 +23273,7 @@
       <c r="A866" t="s">
         <v>915</v>
       </c>
-      <c r="B866" s="25">
+      <c r="B866" s="2">
         <v>42476</v>
       </c>
       <c r="C866" t="s">
@@ -23728,7 +23284,7 @@
       <c r="A867" t="s">
         <v>916</v>
       </c>
-      <c r="B867" s="25">
+      <c r="B867" s="2">
         <v>42574</v>
       </c>
       <c r="C867" t="s">
@@ -23739,7 +23295,7 @@
       <c r="A868" t="s">
         <v>917</v>
       </c>
-      <c r="B868" s="25">
+      <c r="B868" s="2">
         <v>42420</v>
       </c>
       <c r="C868" t="s">
@@ -23750,7 +23306,7 @@
       <c r="A869" t="s">
         <v>918</v>
       </c>
-      <c r="B869" s="25">
+      <c r="B869" s="2">
         <v>42469</v>
       </c>
       <c r="C869" t="s">
@@ -23761,7 +23317,7 @@
       <c r="A870" t="s">
         <v>919</v>
       </c>
-      <c r="B870" s="25">
+      <c r="B870" s="2">
         <v>42602</v>
       </c>
       <c r="C870" t="s">
@@ -23772,7 +23328,7 @@
       <c r="A871" t="s">
         <v>920</v>
       </c>
-      <c r="B871" s="25">
+      <c r="B871" s="2">
         <v>42525</v>
       </c>
       <c r="C871" t="s">
@@ -23783,7 +23339,7 @@
       <c r="A872" t="s">
         <v>921</v>
       </c>
-      <c r="B872" s="25">
+      <c r="B872" s="2">
         <v>42595</v>
       </c>
       <c r="C872" t="s">
@@ -23794,7 +23350,7 @@
       <c r="A873" t="s">
         <v>922</v>
       </c>
-      <c r="B873" s="25">
+      <c r="B873" s="2">
         <v>42588</v>
       </c>
       <c r="C873" t="s">
@@ -23805,7 +23361,7 @@
       <c r="A874" t="s">
         <v>923</v>
       </c>
-      <c r="B874" s="25">
+      <c r="B874" s="2">
         <v>42546</v>
       </c>
       <c r="C874" t="s">
@@ -23816,7 +23372,7 @@
       <c r="A875" t="s">
         <v>924</v>
       </c>
-      <c r="B875" s="25">
+      <c r="B875" s="2">
         <v>42427</v>
       </c>
       <c r="C875" t="s">
@@ -23827,7 +23383,7 @@
       <c r="A876" t="s">
         <v>925</v>
       </c>
-      <c r="B876" s="25">
+      <c r="B876" s="2">
         <v>42616</v>
       </c>
       <c r="C876" t="s">
@@ -23838,7 +23394,7 @@
       <c r="A877" t="s">
         <v>926</v>
       </c>
-      <c r="B877" s="25">
+      <c r="B877" s="2">
         <v>42525</v>
       </c>
       <c r="C877" t="s">
@@ -23849,7 +23405,7 @@
       <c r="A878" t="s">
         <v>927</v>
       </c>
-      <c r="B878" s="25">
+      <c r="B878" s="2">
         <v>42518</v>
       </c>
       <c r="C878" t="s">
@@ -23860,7 +23416,7 @@
       <c r="A879" t="s">
         <v>928</v>
       </c>
-      <c r="B879" s="25">
+      <c r="B879" s="2">
         <v>42630</v>
       </c>
       <c r="C879" t="s">
@@ -23871,7 +23427,7 @@
       <c r="A880" t="s">
         <v>929</v>
       </c>
-      <c r="B880" s="25">
+      <c r="B880" s="2">
         <v>42588</v>
       </c>
       <c r="C880" t="s">
@@ -23882,7 +23438,7 @@
       <c r="A881" t="s">
         <v>930</v>
       </c>
-      <c r="B881" s="25">
+      <c r="B881" s="2">
         <v>42490</v>
       </c>
       <c r="C881" t="s">
@@ -23893,7 +23449,7 @@
       <c r="A882" t="s">
         <v>931</v>
       </c>
-      <c r="B882" s="25">
+      <c r="B882" s="2">
         <v>42469</v>
       </c>
       <c r="C882" t="s">
@@ -23904,7 +23460,7 @@
       <c r="A883" t="s">
         <v>932</v>
       </c>
-      <c r="B883" s="25">
+      <c r="B883" s="2">
         <v>42532</v>
       </c>
       <c r="C883" t="s">
@@ -23915,7 +23471,7 @@
       <c r="A884" t="s">
         <v>933</v>
       </c>
-      <c r="B884" s="25">
+      <c r="B884" s="2">
         <v>42574</v>
       </c>
       <c r="C884" t="s">
@@ -23926,7 +23482,7 @@
       <c r="A885" t="s">
         <v>934</v>
       </c>
-      <c r="B885" s="25">
+      <c r="B885" s="2">
         <v>42511</v>
       </c>
       <c r="C885" t="s">
@@ -23937,7 +23493,7 @@
       <c r="A886" t="s">
         <v>935</v>
       </c>
-      <c r="B886" s="25">
+      <c r="B886" s="2">
         <v>42553</v>
       </c>
       <c r="C886" t="s">
@@ -23948,7 +23504,7 @@
       <c r="A887" t="s">
         <v>936</v>
       </c>
-      <c r="B887" s="25">
+      <c r="B887" s="2">
         <v>42609</v>
       </c>
       <c r="C887" t="s">
@@ -23959,7 +23515,7 @@
       <c r="A888" t="s">
         <v>937</v>
       </c>
-      <c r="B888" s="25">
+      <c r="B888" s="2">
         <v>42497</v>
       </c>
       <c r="C888" t="s">
@@ -23970,7 +23526,7 @@
       <c r="A889" t="s">
         <v>938</v>
       </c>
-      <c r="B889" s="25">
+      <c r="B889" s="2">
         <v>42539</v>
       </c>
       <c r="C889" t="s">
@@ -23981,7 +23537,7 @@
       <c r="A890" t="s">
         <v>939</v>
       </c>
-      <c r="B890" s="25">
+      <c r="B890" s="2">
         <v>42483</v>
       </c>
       <c r="C890" t="s">
@@ -23992,7 +23548,7 @@
       <c r="A891" t="s">
         <v>940</v>
       </c>
-      <c r="B891" s="25">
+      <c r="B891" s="2">
         <v>42630</v>
       </c>
       <c r="C891" t="s">
@@ -24003,7 +23559,7 @@
       <c r="A892" t="s">
         <v>941</v>
       </c>
-      <c r="B892" s="25">
+      <c r="B892" s="2">
         <v>42602</v>
       </c>
       <c r="C892" t="s">
@@ -24014,7 +23570,7 @@
       <c r="A893" t="s">
         <v>942</v>
       </c>
-      <c r="B893" s="25">
+      <c r="B893" s="2">
         <v>42448</v>
       </c>
       <c r="C893" t="s">
@@ -24025,7 +23581,7 @@
       <c r="A894" t="s">
         <v>943</v>
       </c>
-      <c r="B894" s="25">
+      <c r="B894" s="2">
         <v>42511</v>
       </c>
       <c r="C894" t="s">
@@ -24036,7 +23592,7 @@
       <c r="A895" t="s">
         <v>944</v>
       </c>
-      <c r="B895" s="25">
+      <c r="B895" s="2">
         <v>42539</v>
       </c>
       <c r="C895" t="s">
@@ -24047,7 +23603,7 @@
       <c r="A896" t="s">
         <v>945</v>
       </c>
-      <c r="B896" s="25">
+      <c r="B896" s="2">
         <v>42567</v>
       </c>
       <c r="C896" t="s">
@@ -24058,7 +23614,7 @@
       <c r="A897" t="s">
         <v>946</v>
       </c>
-      <c r="B897" s="25">
+      <c r="B897" s="2">
         <v>42385</v>
       </c>
       <c r="C897" t="s">
@@ -24069,7 +23625,7 @@
       <c r="A898" t="s">
         <v>947</v>
       </c>
-      <c r="B898" s="25">
+      <c r="B898" s="2">
         <v>42595</v>
       </c>
       <c r="C898" t="s">
@@ -24080,7 +23636,7 @@
       <c r="A899" t="s">
         <v>948</v>
       </c>
-      <c r="B899" s="25">
+      <c r="B899" s="2">
         <v>42609</v>
       </c>
       <c r="C899" t="s">
@@ -24091,7 +23647,7 @@
       <c r="A900" t="s">
         <v>949</v>
       </c>
-      <c r="B900" s="25">
+      <c r="B900" s="2">
         <v>42553</v>
       </c>
       <c r="C900" t="s">
@@ -24102,7 +23658,7 @@
       <c r="A901" t="s">
         <v>950</v>
       </c>
-      <c r="B901" s="25">
+      <c r="B901" s="2">
         <v>42609</v>
       </c>
       <c r="C901" t="s">
@@ -24113,7 +23669,7 @@
       <c r="A902" t="s">
         <v>951</v>
       </c>
-      <c r="B902" s="25">
+      <c r="B902" s="2">
         <v>42455</v>
       </c>
       <c r="C902" t="s">
@@ -24124,7 +23680,7 @@
       <c r="A903" t="s">
         <v>952</v>
       </c>
-      <c r="B903" s="25">
+      <c r="B903" s="2">
         <v>42371</v>
       </c>
       <c r="C903" t="s">
@@ -24135,7 +23691,7 @@
       <c r="A904" t="s">
         <v>953</v>
       </c>
-      <c r="B904" s="25">
+      <c r="B904" s="2">
         <v>42399</v>
       </c>
       <c r="C904" t="s">
@@ -24146,7 +23702,7 @@
       <c r="A905" t="s">
         <v>954</v>
       </c>
-      <c r="B905" s="25">
+      <c r="B905" s="2">
         <v>42567</v>
       </c>
       <c r="C905" t="s">
@@ -24157,7 +23713,7 @@
       <c r="A906" t="s">
         <v>955</v>
       </c>
-      <c r="B906" s="25">
+      <c r="B906" s="2">
         <v>42630</v>
       </c>
       <c r="C906" t="s">
@@ -24168,7 +23724,7 @@
       <c r="A907" t="s">
         <v>956</v>
       </c>
-      <c r="B907" s="25">
+      <c r="B907" s="2">
         <v>42574</v>
       </c>
       <c r="C907" t="s">
@@ -24179,7 +23735,7 @@
       <c r="A908" t="s">
         <v>957</v>
       </c>
-      <c r="B908" s="25">
+      <c r="B908" s="2">
         <v>42427</v>
       </c>
       <c r="C908" t="s">
@@ -24190,7 +23746,7 @@
       <c r="A909" t="s">
         <v>958</v>
       </c>
-      <c r="B909" s="25">
+      <c r="B909" s="2">
         <v>42371</v>
       </c>
       <c r="C909" t="s">
@@ -24201,7 +23757,7 @@
       <c r="A910" t="s">
         <v>959</v>
       </c>
-      <c r="B910" s="25">
+      <c r="B910" s="2">
         <v>42518</v>
       </c>
       <c r="C910" t="s">
@@ -24212,7 +23768,7 @@
       <c r="A911" t="s">
         <v>960</v>
       </c>
-      <c r="B911" s="25">
+      <c r="B911" s="2">
         <v>42595</v>
       </c>
       <c r="C911" t="s">
@@ -24223,7 +23779,7 @@
       <c r="A912" t="s">
         <v>961</v>
       </c>
-      <c r="B912" s="25">
+      <c r="B912" s="2">
         <v>42441</v>
       </c>
       <c r="C912" t="s">
@@ -24234,7 +23790,7 @@
       <c r="A913" t="s">
         <v>962</v>
       </c>
-      <c r="B913" s="25">
+      <c r="B913" s="2">
         <v>42448</v>
       </c>
       <c r="C913" t="s">
@@ -24245,7 +23801,7 @@
       <c r="A914" t="s">
         <v>963</v>
       </c>
-      <c r="B914" s="25">
+      <c r="B914" s="2">
         <v>42378</v>
       </c>
       <c r="C914" t="s">
@@ -24256,7 +23812,7 @@
       <c r="A915" t="s">
         <v>964</v>
       </c>
-      <c r="B915" s="25">
+      <c r="B915" s="2">
         <v>42602</v>
       </c>
       <c r="C915" t="s">
@@ -24267,7 +23823,7 @@
       <c r="A916" t="s">
         <v>965</v>
       </c>
-      <c r="B916" s="25">
+      <c r="B916" s="2">
         <v>42560</v>
       </c>
       <c r="C916" t="s">
@@ -24278,7 +23834,7 @@
       <c r="A917" t="s">
         <v>966</v>
       </c>
-      <c r="B917" s="25">
+      <c r="B917" s="2">
         <v>42385</v>
       </c>
       <c r="C917" t="s">
@@ -24289,7 +23845,7 @@
       <c r="A918" t="s">
         <v>967</v>
       </c>
-      <c r="B918" s="25">
+      <c r="B918" s="2">
         <v>42616</v>
       </c>
       <c r="C918" t="s">
@@ -24300,7 +23856,7 @@
       <c r="A919" t="s">
         <v>968</v>
       </c>
-      <c r="B919" s="25">
+      <c r="B919" s="2">
         <v>42588</v>
       </c>
       <c r="C919" t="s">
@@ -24311,7 +23867,7 @@
       <c r="A920" t="s">
         <v>969</v>
       </c>
-      <c r="B920" s="25">
+      <c r="B920" s="2">
         <v>42385</v>
       </c>
       <c r="C920" t="s">
@@ -24322,7 +23878,7 @@
       <c r="A921" t="s">
         <v>970</v>
       </c>
-      <c r="B921" s="25">
+      <c r="B921" s="2">
         <v>42469</v>
       </c>
       <c r="C921" t="s">
@@ -24333,7 +23889,7 @@
       <c r="A922" t="s">
         <v>971</v>
       </c>
-      <c r="B922" s="25">
+      <c r="B922" s="2">
         <v>42539</v>
       </c>
       <c r="C922" t="s">
@@ -24344,7 +23900,7 @@
       <c r="A923" t="s">
         <v>972</v>
       </c>
-      <c r="B923" s="25">
+      <c r="B923" s="2">
         <v>42378</v>
       </c>
       <c r="C923" t="s">
@@ -24355,7 +23911,7 @@
       <c r="A924" t="s">
         <v>973</v>
       </c>
-      <c r="B924" s="25">
+      <c r="B924" s="2">
         <v>42553</v>
       </c>
       <c r="C924" t="s">
@@ -24366,7 +23922,7 @@
       <c r="A925" t="s">
         <v>974</v>
       </c>
-      <c r="B925" s="25">
+      <c r="B925" s="2">
         <v>42385</v>
       </c>
       <c r="C925" t="s">
@@ -24377,7 +23933,7 @@
       <c r="A926" t="s">
         <v>975</v>
       </c>
-      <c r="B926" s="25">
+      <c r="B926" s="2">
         <v>42378</v>
       </c>
       <c r="C926" t="s">
@@ -24388,7 +23944,7 @@
       <c r="A927" t="s">
         <v>976</v>
       </c>
-      <c r="B927" s="25">
+      <c r="B927" s="2">
         <v>42490</v>
       </c>
       <c r="C927" t="s">
@@ -24399,7 +23955,7 @@
       <c r="A928" t="s">
         <v>977</v>
       </c>
-      <c r="B928" s="25">
+      <c r="B928" s="2">
         <v>42574</v>
       </c>
       <c r="C928" t="s">
@@ -24410,7 +23966,7 @@
       <c r="A929" t="s">
         <v>978</v>
       </c>
-      <c r="B929" s="25">
+      <c r="B929" s="2">
         <v>42420</v>
       </c>
       <c r="C929" t="s">
@@ -24421,7 +23977,7 @@
       <c r="A930" t="s">
         <v>979</v>
       </c>
-      <c r="B930" s="25">
+      <c r="B930" s="2">
         <v>42602</v>
       </c>
       <c r="C930" t="s">
@@ -24432,7 +23988,7 @@
       <c r="A931" t="s">
         <v>980</v>
       </c>
-      <c r="B931" s="25">
+      <c r="B931" s="2">
         <v>42518</v>
       </c>
       <c r="C931" t="s">
@@ -24443,7 +23999,7 @@
       <c r="A932" t="s">
         <v>981</v>
       </c>
-      <c r="B932" s="25">
+      <c r="B932" s="2">
         <v>42455</v>
       </c>
       <c r="C932" t="s">
@@ -24454,7 +24010,7 @@
       <c r="A933" t="s">
         <v>982</v>
       </c>
-      <c r="B933" s="25">
+      <c r="B933" s="2">
         <v>42588</v>
       </c>
       <c r="C933" t="s">
@@ -24465,7 +24021,7 @@
       <c r="A934" t="s">
         <v>983</v>
       </c>
-      <c r="B934" s="25">
+      <c r="B934" s="2">
         <v>42406</v>
       </c>
       <c r="C934" t="s">
@@ -24476,7 +24032,7 @@
       <c r="A935" t="s">
         <v>984</v>
       </c>
-      <c r="B935" s="25">
+      <c r="B935" s="2">
         <v>42441</v>
       </c>
       <c r="C935" t="s">
@@ -24487,7 +24043,7 @@
       <c r="A936" t="s">
         <v>985</v>
       </c>
-      <c r="B936" s="25">
+      <c r="B936" s="2">
         <v>42574</v>
       </c>
       <c r="C936" t="s">
@@ -24498,7 +24054,7 @@
       <c r="A937" t="s">
         <v>986</v>
       </c>
-      <c r="B937" s="25">
+      <c r="B937" s="2">
         <v>42490</v>
       </c>
       <c r="C937" t="s">
@@ -24509,7 +24065,7 @@
       <c r="A938" t="s">
         <v>987</v>
       </c>
-      <c r="B938" s="25">
+      <c r="B938" s="2">
         <v>42546</v>
       </c>
       <c r="C938" t="s">
@@ -24520,7 +24076,7 @@
       <c r="A939" t="s">
         <v>988</v>
       </c>
-      <c r="B939" s="25">
+      <c r="B939" s="2">
         <v>42532</v>
       </c>
       <c r="C939" t="s">
@@ -24531,7 +24087,7 @@
       <c r="A940" t="s">
         <v>989</v>
       </c>
-      <c r="B940" s="25">
+      <c r="B940" s="2">
         <v>42413</v>
       </c>
       <c r="C940" t="s">
@@ -24542,7 +24098,7 @@
       <c r="A941" t="s">
         <v>990</v>
       </c>
-      <c r="B941" s="25">
+      <c r="B941" s="2">
         <v>42434</v>
       </c>
       <c r="C941" t="s">
@@ -24553,7 +24109,7 @@
       <c r="A942" t="s">
         <v>991</v>
       </c>
-      <c r="B942" s="25">
+      <c r="B942" s="2">
         <v>42455</v>
       </c>
       <c r="C942" t="s">
@@ -24564,7 +24120,7 @@
       <c r="A943" t="s">
         <v>992</v>
       </c>
-      <c r="B943" s="25">
+      <c r="B943" s="2">
         <v>42560</v>
       </c>
       <c r="C943" t="s">
@@ -24575,7 +24131,7 @@
       <c r="A944" t="s">
         <v>993</v>
       </c>
-      <c r="B944" s="25">
+      <c r="B944" s="2">
         <v>42511</v>
       </c>
       <c r="C944" t="s">
@@ -24586,7 +24142,7 @@
       <c r="A945" t="s">
         <v>994</v>
       </c>
-      <c r="B945" s="25">
+      <c r="B945" s="2">
         <v>42504</v>
       </c>
       <c r="C945" t="s">
@@ -24597,7 +24153,7 @@
       <c r="A946" t="s">
         <v>995</v>
       </c>
-      <c r="B946" s="25">
+      <c r="B946" s="2">
         <v>42490</v>
       </c>
       <c r="C946" t="s">
@@ -24608,7 +24164,7 @@
       <c r="A947" t="s">
         <v>996</v>
       </c>
-      <c r="B947" s="25">
+      <c r="B947" s="2">
         <v>42637</v>
       </c>
       <c r="C947" t="s">
@@ -24619,7 +24175,7 @@
       <c r="A948" t="s">
         <v>997</v>
       </c>
-      <c r="B948" s="25">
+      <c r="B948" s="2">
         <v>42399</v>
       </c>
       <c r="C948" t="s">
@@ -24630,7 +24186,7 @@
       <c r="A949" t="s">
         <v>998</v>
       </c>
-      <c r="B949" s="25">
+      <c r="B949" s="2">
         <v>42483</v>
       </c>
       <c r="C949" t="s">
@@ -24641,7 +24197,7 @@
       <c r="A950" t="s">
         <v>999</v>
       </c>
-      <c r="B950" s="25">
+      <c r="B950" s="2">
         <v>42546</v>
       </c>
       <c r="C950" t="s">
@@ -24652,7 +24208,7 @@
       <c r="A951" t="s">
         <v>1000</v>
       </c>
-      <c r="B951" s="25">
+      <c r="B951" s="2">
         <v>42525</v>
       </c>
       <c r="C951" t="s">
@@ -24663,7 +24219,7 @@
       <c r="A952" t="s">
         <v>1001</v>
       </c>
-      <c r="B952" s="25">
+      <c r="B952" s="2">
         <v>42406</v>
       </c>
       <c r="C952" t="s">
@@ -24674,7 +24230,7 @@
       <c r="A953" t="s">
         <v>1002</v>
       </c>
-      <c r="B953" s="25">
+      <c r="B953" s="2">
         <v>42560</v>
       </c>
       <c r="C953" t="s">
@@ -24685,7 +24241,7 @@
       <c r="A954" t="s">
         <v>1003</v>
       </c>
-      <c r="B954" s="25">
+      <c r="B954" s="2">
         <v>42616</v>
       </c>
       <c r="C954" t="s">
@@ -24696,7 +24252,7 @@
       <c r="A955" t="s">
         <v>1004</v>
       </c>
-      <c r="B955" s="25">
+      <c r="B955" s="2">
         <v>42448</v>
       </c>
       <c r="C955" t="s">
@@ -24707,7 +24263,7 @@
       <c r="A956" t="s">
         <v>1005</v>
       </c>
-      <c r="B956" s="25">
+      <c r="B956" s="2">
         <v>42525</v>
       </c>
       <c r="C956" t="s">
@@ -24718,7 +24274,7 @@
       <c r="A957" t="s">
         <v>1006</v>
       </c>
-      <c r="B957" s="25">
+      <c r="B957" s="2">
         <v>42518</v>
       </c>
       <c r="C957" t="s">
@@ -24729,7 +24285,7 @@
       <c r="A958" t="s">
         <v>1007</v>
       </c>
-      <c r="B958" s="25">
+      <c r="B958" s="2">
         <v>42553</v>
       </c>
       <c r="C958" t="s">
@@ -24740,7 +24296,7 @@
       <c r="A959" t="s">
         <v>1008</v>
       </c>
-      <c r="B959" s="25">
+      <c r="B959" s="2">
         <v>42567</v>
       </c>
       <c r="C959" t="s">
@@ -24751,7 +24307,7 @@
       <c r="A960" t="s">
         <v>1009</v>
       </c>
-      <c r="B960" s="25">
+      <c r="B960" s="2">
         <v>42490</v>
       </c>
       <c r="C960" t="s">
@@ -24762,7 +24318,7 @@
       <c r="A961" t="s">
         <v>1010</v>
       </c>
-      <c r="B961" s="25">
+      <c r="B961" s="2">
         <v>42525</v>
       </c>
       <c r="C961" t="s">
@@ -24773,7 +24329,7 @@
       <c r="A962" t="s">
         <v>1011</v>
       </c>
-      <c r="B962" s="25">
+      <c r="B962" s="2">
         <v>42469</v>
       </c>
       <c r="C962" t="s">
@@ -24784,7 +24340,7 @@
       <c r="A963" t="s">
         <v>1012</v>
       </c>
-      <c r="B963" s="25">
+      <c r="B963" s="2">
         <v>42469</v>
       </c>
       <c r="C963" t="s">
@@ -24795,7 +24351,7 @@
       <c r="A964" t="s">
         <v>1013</v>
       </c>
-      <c r="B964" s="25">
+      <c r="B964" s="2">
         <v>42539</v>
       </c>
       <c r="C964" t="s">
@@ -24806,7 +24362,7 @@
       <c r="A965" t="s">
         <v>1014</v>
       </c>
-      <c r="B965" s="25">
+      <c r="B965" s="2">
         <v>42539</v>
       </c>
       <c r="C965" t="s">
@@ -24817,7 +24373,7 @@
       <c r="A966" t="s">
         <v>1015</v>
       </c>
-      <c r="B966" s="25">
+      <c r="B966" s="2">
         <v>42602</v>
       </c>
       <c r="C966" t="s">
@@ -24828,7 +24384,7 @@
       <c r="A967" t="s">
         <v>1016</v>
       </c>
-      <c r="B967" s="25">
+      <c r="B967" s="2">
         <v>42581</v>
       </c>
       <c r="C967" t="s">
@@ -24839,7 +24395,7 @@
       <c r="A968" t="s">
         <v>1017</v>
       </c>
-      <c r="B968" s="25">
+      <c r="B968" s="2">
         <v>42483</v>
       </c>
       <c r="C968" t="s">
@@ -24850,7 +24406,7 @@
       <c r="A969" t="s">
         <v>1018</v>
       </c>
-      <c r="B969" s="25">
+      <c r="B969" s="2">
         <v>42455</v>
       </c>
       <c r="C969" t="s">
@@ -24861,7 +24417,7 @@
       <c r="A970" t="s">
         <v>1019</v>
       </c>
-      <c r="B970" s="25">
+      <c r="B970" s="2">
         <v>42462</v>
       </c>
       <c r="C970" t="s">
@@ -24872,7 +24428,7 @@
       <c r="A971" t="s">
         <v>1020</v>
       </c>
-      <c r="B971" s="25">
+      <c r="B971" s="2">
         <v>42553</v>
       </c>
       <c r="C971" t="s">
@@ -24883,7 +24439,7 @@
       <c r="A972" t="s">
         <v>1021</v>
       </c>
-      <c r="B972" s="25">
+      <c r="B972" s="2">
         <v>42630</v>
       </c>
       <c r="C972" t="s">
@@ -24894,7 +24450,7 @@
       <c r="A973" t="s">
         <v>1022</v>
       </c>
-      <c r="B973" s="25">
+      <c r="B973" s="2">
         <v>42441</v>
       </c>
       <c r="C973" t="s">
@@ -24905,7 +24461,7 @@
       <c r="A974" t="s">
         <v>1023</v>
       </c>
-      <c r="B974" s="25">
+      <c r="B974" s="2">
         <v>42392</v>
       </c>
       <c r="C974" t="s">
@@ -24916,7 +24472,7 @@
       <c r="A975" t="s">
         <v>1024</v>
       </c>
-      <c r="B975" s="25">
+      <c r="B975" s="2">
         <v>42602</v>
       </c>
       <c r="C975" t="s">
@@ -24927,7 +24483,7 @@
       <c r="A976" t="s">
         <v>1025</v>
       </c>
-      <c r="B976" s="25">
+      <c r="B976" s="2">
         <v>42455</v>
       </c>
       <c r="C976" t="s">
@@ -24938,7 +24494,7 @@
       <c r="A977" t="s">
         <v>1026</v>
       </c>
-      <c r="B977" s="25">
+      <c r="B977" s="2">
         <v>42525</v>
       </c>
       <c r="C977" t="s">
@@ -24949,7 +24505,7 @@
       <c r="A978" t="s">
         <v>1027</v>
       </c>
-      <c r="B978" s="25">
+      <c r="B978" s="2">
         <v>42385</v>
       </c>
       <c r="C978" t="s">
@@ -24960,7 +24516,7 @@
       <c r="A979" t="s">
         <v>1028</v>
       </c>
-      <c r="B979" s="25">
+      <c r="B979" s="2">
         <v>42581</v>
       </c>
       <c r="C979" t="s">
@@ -24971,7 +24527,7 @@
       <c r="A980" t="s">
         <v>1029</v>
       </c>
-      <c r="B980" s="25">
+      <c r="B980" s="2">
         <v>42574</v>
       </c>
       <c r="C980" t="s">
@@ -24982,7 +24538,7 @@
       <c r="A981" t="s">
         <v>1030</v>
       </c>
-      <c r="B981" s="25">
+      <c r="B981" s="2">
         <v>42581</v>
       </c>
       <c r="C981" t="s">
@@ -24993,7 +24549,7 @@
       <c r="A982" t="s">
         <v>1031</v>
       </c>
-      <c r="B982" s="25">
+      <c r="B982" s="2">
         <v>42427</v>
       </c>
       <c r="C982" t="s">
@@ -25004,7 +24560,7 @@
       <c r="A983" t="s">
         <v>1032</v>
       </c>
-      <c r="B983" s="25">
+      <c r="B983" s="2">
         <v>42588</v>
       </c>
       <c r="C983" t="s">
@@ -25015,7 +24571,7 @@
       <c r="A984" t="s">
         <v>1033</v>
       </c>
-      <c r="B984" s="25">
+      <c r="B984" s="2">
         <v>42497</v>
       </c>
       <c r="C984" t="s">
@@ -25026,7 +24582,7 @@
       <c r="A985" t="s">
         <v>1034</v>
       </c>
-      <c r="B985" s="25">
+      <c r="B985" s="2">
         <v>42609</v>
       </c>
       <c r="C985" t="s">
@@ -25037,7 +24593,7 @@
       <c r="A986" t="s">
         <v>1035</v>
       </c>
-      <c r="B986" s="25">
+      <c r="B986" s="2">
         <v>42497</v>
       </c>
       <c r="C986" t="s">
@@ -25048,7 +24604,7 @@
       <c r="A987" t="s">
         <v>1036</v>
       </c>
-      <c r="B987" s="25">
+      <c r="B987" s="2">
         <v>42483</v>
       </c>
       <c r="C987" t="s">
@@ -25059,7 +24615,7 @@
       <c r="A988" t="s">
         <v>1037</v>
       </c>
-      <c r="B988" s="25">
+      <c r="B988" s="2">
         <v>42511</v>
       </c>
       <c r="C988" t="s">
@@ -25070,7 +24626,7 @@
       <c r="A989" t="s">
         <v>1038</v>
       </c>
-      <c r="B989" s="25">
+      <c r="B989" s="2">
         <v>42504</v>
       </c>
       <c r="C989" t="s">
@@ -25081,7 +24637,7 @@
       <c r="A990" t="s">
         <v>1039</v>
       </c>
-      <c r="B990" s="25">
+      <c r="B990" s="2">
         <v>42455</v>
       </c>
       <c r="C990" t="s">
@@ -25092,7 +24648,7 @@
       <c r="A991" t="s">
         <v>1040</v>
       </c>
-      <c r="B991" s="25">
+      <c r="B991" s="2">
         <v>42455</v>
       </c>
       <c r="C991" t="s">
@@ -25103,7 +24659,7 @@
       <c r="A992" t="s">
         <v>1041</v>
       </c>
-      <c r="B992" s="25">
+      <c r="B992" s="2">
         <v>42609</v>
       </c>
       <c r="C992" t="s">
@@ -25114,7 +24670,7 @@
       <c r="A993" t="s">
         <v>1042</v>
       </c>
-      <c r="B993" s="25">
+      <c r="B993" s="2">
         <v>42497</v>
       </c>
       <c r="C993" t="s">
@@ -25125,7 +24681,7 @@
       <c r="A994" t="s">
         <v>1043</v>
       </c>
-      <c r="B994" s="25">
+      <c r="B994" s="2">
         <v>42525</v>
       </c>
       <c r="C994" t="s">
@@ -25136,7 +24692,7 @@
       <c r="A995" t="s">
         <v>1044</v>
       </c>
-      <c r="B995" s="25">
+      <c r="B995" s="2">
         <v>42434</v>
       </c>
       <c r="C995" t="s">
@@ -25147,7 +24703,7 @@
       <c r="A996" t="s">
         <v>1045</v>
       </c>
-      <c r="B996" s="25">
+      <c r="B996" s="2">
         <v>42462</v>
       </c>
       <c r="C996" t="s">
@@ -25158,7 +24714,7 @@
       <c r="A997" t="s">
         <v>1046</v>
       </c>
-      <c r="B997" s="25">
+      <c r="B997" s="2">
         <v>42588</v>
       </c>
       <c r="C997" t="s">
@@ -25169,7 +24725,7 @@
       <c r="A998" t="s">
         <v>1047</v>
       </c>
-      <c r="B998" s="25">
+      <c r="B998" s="2">
         <v>42588</v>
       </c>
       <c r="C998" t="s">
@@ -25180,7 +24736,7 @@
       <c r="A999" t="s">
         <v>1048</v>
       </c>
-      <c r="B999" s="25">
+      <c r="B999" s="2">
         <v>42476</v>
       </c>
       <c r="C999" t="s">
@@ -25191,7 +24747,7 @@
       <c r="A1000" t="s">
         <v>1049</v>
       </c>
-      <c r="B1000" s="25">
+      <c r="B1000" s="2">
         <v>42476</v>
       </c>
       <c r="C1000" t="s">
@@ -25214,7 +24770,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="A1001" sqref="A1001:C100000"/>
+      <selection activeCell="E1005" sqref="E1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -36234,345 +35790,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2"/>
-    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="29.25" thickBot="1">
-      <c r="B1" s="12" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="13" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="2:11" ht="21" thickBot="1">
-      <c r="B2" s="14" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1960</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="18.75">
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>1966</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:11" ht="18.75">
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:11" ht="18.75">
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>1983</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" ht="18.75">
-      <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>1973</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" ht="18.75">
-      <c r="B7" s="8">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>1974</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="18.75">
-      <c r="B8" s="8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" ht="19.5" thickBot="1">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>1984</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="11" spans="2:11" ht="29.25" thickBot="1">
-      <c r="B11" s="12" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" ht="21" thickBot="1">
-      <c r="B12" s="14" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>1960</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>1978</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" ht="18.75">
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="18.75">
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="18.75">
-      <c r="B15" s="8">
-        <v>3</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="18.75">
-      <c r="B16" s="8">
-        <v>4</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B17" s="9">
-        <v>5</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="29.25" thickBot="1">
-      <c r="B19" s="12" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="21" thickBot="1">
-      <c r="B20" s="14" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>1960</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18.75">
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18.75">
-      <c r="B22" s="8">
-        <v>2</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" ht="29.25" thickBot="1">
-      <c r="B25" s="12" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="21" thickBot="1">
-      <c r="B26" s="14" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18.75">
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="18.75">
-      <c r="B28" s="8">
-        <v>2</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B29" s="9">
-        <v>3</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>